--- a/data/raw/historical.xlsx
+++ b/data/raw/historical.xlsx
@@ -32173,7 +32173,7 @@
         <v>113</v>
       </c>
       <c r="Q204">
-        <v>2193.9</v>
+        <v>2191.6</v>
       </c>
       <c r="R204">
         <v>1489.2</v>
@@ -32185,7 +32185,7 @@
         <v>3816.6</v>
       </c>
       <c r="U204">
-        <v>1455.6</v>
+        <v>1446.9</v>
       </c>
       <c r="V204">
         <v>111.426</v>
@@ -32203,7 +32203,7 @@
         <v>1993.1</v>
       </c>
       <c r="AA204">
-        <v>1687.4</v>
+        <v>1685</v>
       </c>
       <c r="AB204">
         <v>144.7</v>
@@ -32212,7 +32212,7 @@
         <v>207</v>
       </c>
       <c r="AD204">
-        <v>1435.4</v>
+        <v>1426.6</v>
       </c>
       <c r="AE204">
         <v>3494.9</v>
@@ -32337,103 +32337,103 @@
         <v>44196</v>
       </c>
       <c r="B205">
-        <v>21479.5</v>
+        <v>21487.9</v>
       </c>
       <c r="C205">
-        <v>18780.3</v>
+        <v>18783.9</v>
       </c>
       <c r="D205">
-        <v>114.415</v>
+        <v>114.441</v>
       </c>
       <c r="E205">
-        <v>14545.3</v>
+        <v>14542.4</v>
       </c>
       <c r="F205">
-        <v>13004.7</v>
+        <v>13000.3</v>
       </c>
       <c r="G205">
-        <v>111.851</v>
+        <v>111.867</v>
       </c>
       <c r="H205">
-        <v>112.015</v>
+        <v>112.115</v>
       </c>
       <c r="I205">
-        <v>117.773</v>
+        <v>117.726</v>
       </c>
       <c r="J205">
-        <v>117.701</v>
+        <v>117.642</v>
       </c>
       <c r="K205">
-        <v>118.101</v>
+        <v>118.106</v>
       </c>
       <c r="L205">
         <v>860.6</v>
       </c>
       <c r="M205">
-        <v>673.6</v>
+        <v>684.5</v>
       </c>
       <c r="N205">
-        <v>302.4</v>
+        <v>297.8</v>
       </c>
       <c r="O205">
-        <v>3743.8</v>
+        <v>3748.6</v>
       </c>
       <c r="P205">
         <v>113.6</v>
       </c>
       <c r="Q205">
-        <v>2226.7</v>
+        <v>2236.1</v>
       </c>
       <c r="R205">
-        <v>1503.7</v>
+        <v>1504.1</v>
       </c>
       <c r="S205">
         <v>255.4</v>
       </c>
       <c r="T205">
-        <v>3830.8</v>
+        <v>3832.6</v>
       </c>
       <c r="U205">
-        <v>1478.8</v>
+        <v>1468.2</v>
       </c>
       <c r="V205">
-        <v>111.846</v>
+        <v>111.862</v>
       </c>
       <c r="W205">
-        <v>1493.6</v>
+        <v>1493.5</v>
       </c>
       <c r="X205">
-        <v>2337.2</v>
+        <v>2339</v>
       </c>
       <c r="Y205">
-        <v>1333.3</v>
+        <v>1332.1</v>
       </c>
       <c r="Z205">
-        <v>1984.5</v>
+        <v>1986.9</v>
       </c>
       <c r="AA205">
-        <v>1710.3</v>
+        <v>1717.8</v>
       </c>
       <c r="AB205">
-        <v>151.3</v>
+        <v>150.9</v>
       </c>
       <c r="AC205">
         <v>186.3333333333333</v>
       </c>
       <c r="AD205">
-        <v>1456.9</v>
+        <v>1446.3</v>
       </c>
       <c r="AE205">
-        <v>2925.1</v>
+        <v>2919</v>
       </c>
       <c r="AF205">
         <v>738.1</v>
       </c>
       <c r="AG205">
-        <v>516.4</v>
+        <v>518.3</v>
       </c>
       <c r="AH205">
-        <v>1352.4</v>
+        <v>1353.2</v>
       </c>
       <c r="AI205">
         <v>69.03333333333333</v>
@@ -32442,10 +32442,10 @@
         <v>21.8</v>
       </c>
       <c r="AK205">
-        <v>818.7000000000001</v>
+        <v>829.6</v>
       </c>
       <c r="AL205">
-        <v>3152.2</v>
+        <v>3164.6</v>
       </c>
       <c r="AM205">
         <v>547131</v>
@@ -32457,13 +32457,13 @@
         <v>73559</v>
       </c>
       <c r="AP205">
-        <v>609.9</v>
+        <v>609.8</v>
       </c>
       <c r="AQ205">
         <v>0.6</v>
       </c>
       <c r="AR205">
-        <v>610.5</v>
+        <v>610.4</v>
       </c>
       <c r="AS205">
         <v>5</v>
@@ -32502,16 +32502,16 @@
         <v>13.8</v>
       </c>
       <c r="BE205">
-        <v>64.8</v>
+        <v>63.9</v>
       </c>
       <c r="BF205">
-        <v>112</v>
+        <v>110.8</v>
       </c>
       <c r="BG205">
-        <v>16.1</v>
+        <v>13.6</v>
       </c>
       <c r="BH205">
-        <v>203.9</v>
+        <v>199.4</v>
       </c>
       <c r="BI205">
         <v>35.83333333333334</v>

--- a/data/raw/historical.xlsx
+++ b/data/raw/historical.xlsx
@@ -32305,7 +32305,7 @@
         <v>556.2000000000001</v>
       </c>
       <c r="BI204">
-        <v>159.3</v>
+        <v>106.2</v>
       </c>
       <c r="BJ204">
         <v>259.4213333333333</v>
@@ -32337,115 +32337,115 @@
         <v>44196</v>
       </c>
       <c r="B205">
-        <v>21487.9</v>
+        <v>21494.7</v>
       </c>
       <c r="C205">
-        <v>18783.9</v>
+        <v>18794.4</v>
       </c>
       <c r="D205">
-        <v>114.441</v>
+        <v>114.415</v>
       </c>
       <c r="E205">
-        <v>14542.4</v>
+        <v>14537</v>
       </c>
       <c r="F205">
-        <v>13000.3</v>
+        <v>12999.1</v>
       </c>
       <c r="G205">
-        <v>111.867</v>
+        <v>111.835</v>
       </c>
       <c r="H205">
-        <v>112.115</v>
+        <v>112.102</v>
       </c>
       <c r="I205">
-        <v>117.726</v>
+        <v>117.727</v>
       </c>
       <c r="J205">
-        <v>117.642</v>
+        <v>117.647</v>
       </c>
       <c r="K205">
-        <v>118.106</v>
+        <v>118.093</v>
       </c>
       <c r="L205">
         <v>860.6</v>
       </c>
       <c r="M205">
-        <v>684.5</v>
+        <v>682.4</v>
       </c>
       <c r="N205">
-        <v>297.8</v>
+        <v>296.4</v>
       </c>
       <c r="O205">
-        <v>3748.6</v>
+        <v>3745.8</v>
       </c>
       <c r="P205">
         <v>113.6</v>
       </c>
       <c r="Q205">
-        <v>2236.1</v>
+        <v>2242.3</v>
       </c>
       <c r="R205">
-        <v>1504.1</v>
+        <v>1511.6</v>
       </c>
       <c r="S205">
-        <v>255.4</v>
+        <v>332.7</v>
       </c>
       <c r="T205">
-        <v>3832.6</v>
+        <v>3835.2</v>
       </c>
       <c r="U205">
-        <v>1468.2</v>
+        <v>1467.7</v>
       </c>
       <c r="V205">
-        <v>111.862</v>
+        <v>111.831</v>
       </c>
       <c r="W205">
-        <v>1493.5</v>
+        <v>1493.4</v>
       </c>
       <c r="X205">
-        <v>2339</v>
+        <v>2341.7</v>
       </c>
       <c r="Y205">
-        <v>1332.1</v>
+        <v>1332.2</v>
       </c>
       <c r="Z205">
-        <v>1986.9</v>
+        <v>1989.2</v>
       </c>
       <c r="AA205">
-        <v>1717.8</v>
+        <v>1717.7</v>
       </c>
       <c r="AB205">
-        <v>150.9</v>
+        <v>150.8</v>
       </c>
       <c r="AC205">
-        <v>186.3333333333333</v>
+        <v>236.9</v>
       </c>
       <c r="AD205">
-        <v>1446.3</v>
+        <v>1445.8</v>
       </c>
       <c r="AE205">
-        <v>2919</v>
+        <v>2918.2</v>
       </c>
       <c r="AF205">
         <v>738.1</v>
       </c>
       <c r="AG205">
-        <v>518.3</v>
+        <v>524.5</v>
       </c>
       <c r="AH205">
-        <v>1353.2</v>
+        <v>1360.8</v>
       </c>
       <c r="AI205">
-        <v>69.03333333333333</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AJ205">
         <v>21.8</v>
       </c>
       <c r="AK205">
-        <v>829.6</v>
+        <v>827.6</v>
       </c>
       <c r="AL205">
-        <v>3164.6</v>
+        <v>3165.4</v>
       </c>
       <c r="AM205">
         <v>547131</v>
@@ -32502,16 +32502,16 @@
         <v>13.8</v>
       </c>
       <c r="BE205">
-        <v>63.9</v>
+        <v>63.6</v>
       </c>
       <c r="BF205">
-        <v>110.8</v>
+        <v>110.3</v>
       </c>
       <c r="BG205">
         <v>13.6</v>
       </c>
       <c r="BH205">
-        <v>199.4</v>
+        <v>198.5</v>
       </c>
       <c r="BI205">
         <v>35.83333333333334</v>
@@ -32532,13 +32532,13 @@
         <v>1</v>
       </c>
       <c r="BO205">
-        <v>4938.666666666667</v>
+        <v>4935.333333333333</v>
       </c>
       <c r="BP205">
-        <v>13656</v>
+        <v>13655.33333333333</v>
       </c>
       <c r="BQ205">
-        <v>325241.6666666667</v>
+        <v>327589.6666666667</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/historical.xlsx
+++ b/data/raw/historical.xlsx
@@ -32305,7 +32305,7 @@
         <v>556.2000000000001</v>
       </c>
       <c r="BI204">
-        <v>106.2</v>
+        <v>159.3</v>
       </c>
       <c r="BJ204">
         <v>259.4213333333333</v>
@@ -32337,115 +32337,115 @@
         <v>44196</v>
       </c>
       <c r="B205">
-        <v>21494.7</v>
+        <v>21487.9</v>
       </c>
       <c r="C205">
-        <v>18794.4</v>
+        <v>18783.9</v>
       </c>
       <c r="D205">
-        <v>114.415</v>
+        <v>114.441</v>
       </c>
       <c r="E205">
-        <v>14537</v>
+        <v>14542.4</v>
       </c>
       <c r="F205">
-        <v>12999.1</v>
+        <v>13000.3</v>
       </c>
       <c r="G205">
-        <v>111.835</v>
+        <v>111.867</v>
       </c>
       <c r="H205">
-        <v>112.102</v>
+        <v>112.115</v>
       </c>
       <c r="I205">
-        <v>117.727</v>
+        <v>117.726</v>
       </c>
       <c r="J205">
-        <v>117.647</v>
+        <v>117.642</v>
       </c>
       <c r="K205">
-        <v>118.093</v>
+        <v>118.106</v>
       </c>
       <c r="L205">
         <v>860.6</v>
       </c>
       <c r="M205">
-        <v>682.4</v>
+        <v>684.5</v>
       </c>
       <c r="N205">
-        <v>296.4</v>
+        <v>297.8</v>
       </c>
       <c r="O205">
-        <v>3745.8</v>
+        <v>3748.6</v>
       </c>
       <c r="P205">
         <v>113.6</v>
       </c>
       <c r="Q205">
-        <v>2242.3</v>
+        <v>2236.1</v>
       </c>
       <c r="R205">
-        <v>1511.6</v>
+        <v>1504.1</v>
       </c>
       <c r="S205">
-        <v>332.7</v>
+        <v>255.4</v>
       </c>
       <c r="T205">
-        <v>3835.2</v>
+        <v>3832.6</v>
       </c>
       <c r="U205">
-        <v>1467.7</v>
+        <v>1468.2</v>
       </c>
       <c r="V205">
-        <v>111.831</v>
+        <v>111.862</v>
       </c>
       <c r="W205">
-        <v>1493.4</v>
+        <v>1493.5</v>
       </c>
       <c r="X205">
-        <v>2341.7</v>
+        <v>2339</v>
       </c>
       <c r="Y205">
-        <v>1332.2</v>
+        <v>1332.1</v>
       </c>
       <c r="Z205">
-        <v>1989.2</v>
+        <v>1986.9</v>
       </c>
       <c r="AA205">
-        <v>1717.7</v>
+        <v>1717.8</v>
       </c>
       <c r="AB205">
-        <v>150.8</v>
+        <v>150.9</v>
       </c>
       <c r="AC205">
-        <v>236.9</v>
+        <v>186.3333333333333</v>
       </c>
       <c r="AD205">
-        <v>1445.8</v>
+        <v>1446.3</v>
       </c>
       <c r="AE205">
-        <v>2918.2</v>
+        <v>2919</v>
       </c>
       <c r="AF205">
         <v>738.1</v>
       </c>
       <c r="AG205">
-        <v>524.5</v>
+        <v>518.3</v>
       </c>
       <c r="AH205">
-        <v>1360.8</v>
+        <v>1353.2</v>
       </c>
       <c r="AI205">
-        <v>95.90000000000001</v>
+        <v>69.03333333333333</v>
       </c>
       <c r="AJ205">
         <v>21.8</v>
       </c>
       <c r="AK205">
-        <v>827.6</v>
+        <v>829.6</v>
       </c>
       <c r="AL205">
-        <v>3165.4</v>
+        <v>3164.6</v>
       </c>
       <c r="AM205">
         <v>547131</v>
@@ -32502,16 +32502,16 @@
         <v>13.8</v>
       </c>
       <c r="BE205">
-        <v>63.6</v>
+        <v>63.9</v>
       </c>
       <c r="BF205">
-        <v>110.3</v>
+        <v>110.8</v>
       </c>
       <c r="BG205">
         <v>13.6</v>
       </c>
       <c r="BH205">
-        <v>198.5</v>
+        <v>199.4</v>
       </c>
       <c r="BI205">
         <v>35.83333333333334</v>
@@ -32532,13 +32532,13 @@
         <v>1</v>
       </c>
       <c r="BO205">
-        <v>4935.333333333333</v>
+        <v>4938.666666666667</v>
       </c>
       <c r="BP205">
-        <v>13655.33333333333</v>
+        <v>13656</v>
       </c>
       <c r="BQ205">
-        <v>327589.6666666667</v>
+        <v>325241.6666666667</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/historical.xlsx
+++ b/data/raw/historical.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BQ205"/>
+  <dimension ref="A1:BS205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,120 +592,130 @@
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
+          <t>gftfpr</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
           <t>gftfpp</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>gftfpv</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>gfsubp</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>gfsubg</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>gfsube</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>gfsubs</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>gfsubf</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>gfsubv</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>gfsubk</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>gfegc</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>gfege</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>gfegv</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>yptue</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>yptup</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>yptuc</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>gftfpu</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>yptolm</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>ui</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>pcw</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>gdppothq</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>gdppotq</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>recessq</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>lasgova</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>lalgova</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>cpgs</t>
         </is>
@@ -838,28 +848,28 @@
       <c r="AR2">
         <v>4.7</v>
       </c>
-      <c r="BJ2">
+      <c r="BL2">
         <v>38.1</v>
       </c>
-      <c r="BK2">
+      <c r="BM2">
         <v>38.3</v>
       </c>
-      <c r="BL2">
+      <c r="BN2">
         <v>4940.7</v>
       </c>
-      <c r="BM2">
+      <c r="BO2">
         <v>1052.1</v>
       </c>
-      <c r="BN2">
+      <c r="BP2">
         <v>1</v>
       </c>
-      <c r="BO2">
+      <c r="BQ2">
         <v>2613.333333333334</v>
       </c>
-      <c r="BP2">
+      <c r="BR2">
         <v>7048.666666666667</v>
       </c>
-      <c r="BQ2">
+      <c r="BS2">
         <v>23545.66666666667</v>
       </c>
     </row>
@@ -990,28 +1000,28 @@
       <c r="AR3">
         <v>4.8</v>
       </c>
-      <c r="BJ3">
+      <c r="BL3">
         <v>38.63333333333333</v>
       </c>
-      <c r="BK3">
+      <c r="BM3">
         <v>38.83333333333334</v>
       </c>
-      <c r="BL3">
+      <c r="BN3">
         <v>4982</v>
       </c>
-      <c r="BM3">
+      <c r="BO3">
         <v>1075.7</v>
       </c>
-      <c r="BN3">
+      <c r="BP3">
         <v>1</v>
       </c>
-      <c r="BO3">
+      <c r="BQ3">
         <v>2648.333333333334</v>
       </c>
-      <c r="BP3">
+      <c r="BR3">
         <v>7104.333333333333</v>
       </c>
-      <c r="BQ3">
+      <c r="BS3">
         <v>24037</v>
       </c>
     </row>
@@ -1142,28 +1152,28 @@
       <c r="AR4">
         <v>4.7</v>
       </c>
-      <c r="BJ4">
+      <c r="BL4">
         <v>39.03333333333333</v>
       </c>
-      <c r="BK4">
+      <c r="BM4">
         <v>39.23333333333334</v>
       </c>
-      <c r="BL4">
+      <c r="BN4">
         <v>5021.9</v>
       </c>
-      <c r="BM4">
+      <c r="BO4">
         <v>1093.2</v>
       </c>
-      <c r="BN4">
+      <c r="BP4">
         <v>1</v>
       </c>
-      <c r="BO4">
+      <c r="BQ4">
         <v>2681.666666666667</v>
       </c>
-      <c r="BP4">
+      <c r="BR4">
         <v>7204.333333333333</v>
       </c>
-      <c r="BQ4">
+      <c r="BS4">
         <v>25485.66666666667</v>
       </c>
     </row>
@@ -1294,28 +1304,28 @@
       <c r="AR5">
         <v>4.8</v>
       </c>
-      <c r="BJ5">
+      <c r="BL5">
         <v>39.6</v>
       </c>
-      <c r="BK5">
+      <c r="BM5">
         <v>39.8</v>
       </c>
-      <c r="BL5">
+      <c r="BN5">
         <v>5060.8</v>
       </c>
-      <c r="BM5">
+      <c r="BO5">
         <v>1116.2</v>
       </c>
-      <c r="BN5">
+      <c r="BP5">
         <v>1</v>
       </c>
-      <c r="BO5">
+      <c r="BQ5">
         <v>2716.333333333334</v>
       </c>
-      <c r="BP5">
+      <c r="BR5">
         <v>7279.333333333333</v>
       </c>
-      <c r="BQ5">
+      <c r="BS5">
         <v>25754.66666666667</v>
       </c>
     </row>
@@ -1446,28 +1456,28 @@
       <c r="AR6">
         <v>4.8</v>
       </c>
-      <c r="BJ6">
+      <c r="BL6">
         <v>39.93333333333333</v>
       </c>
-      <c r="BK6">
+      <c r="BM6">
         <v>40.16666666666667</v>
       </c>
-      <c r="BL6">
+      <c r="BN6">
         <v>5099.9</v>
       </c>
-      <c r="BM6">
+      <c r="BO6">
         <v>1142</v>
       </c>
-      <c r="BN6">
+      <c r="BP6">
         <v>-1</v>
       </c>
-      <c r="BO6">
+      <c r="BQ6">
         <v>2719.333333333334</v>
       </c>
-      <c r="BP6">
+      <c r="BR6">
         <v>7353.333333333333</v>
       </c>
-      <c r="BQ6">
+      <c r="BS6">
         <v>25713</v>
       </c>
     </row>
@@ -1598,28 +1608,28 @@
       <c r="AR7">
         <v>4.8</v>
       </c>
-      <c r="BJ7">
+      <c r="BL7">
         <v>40.3</v>
       </c>
-      <c r="BK7">
+      <c r="BM7">
         <v>40.53333333333334</v>
       </c>
-      <c r="BL7">
+      <c r="BN7">
         <v>5139.7</v>
       </c>
-      <c r="BM7">
+      <c r="BO7">
         <v>1165.9</v>
       </c>
-      <c r="BN7">
+      <c r="BP7">
         <v>-1</v>
       </c>
-      <c r="BO7">
+      <c r="BQ7">
         <v>2739.666666666667</v>
       </c>
-      <c r="BP7">
+      <c r="BR7">
         <v>7419.666666666667</v>
       </c>
-      <c r="BQ7">
+      <c r="BS7">
         <v>25998.66666666667</v>
       </c>
     </row>
@@ -1750,28 +1760,28 @@
       <c r="AR8">
         <v>4.5</v>
       </c>
-      <c r="BJ8">
+      <c r="BL8">
         <v>40.7</v>
       </c>
-      <c r="BK8">
+      <c r="BM8">
         <v>40.96666666666667</v>
       </c>
-      <c r="BL8">
+      <c r="BN8">
         <v>5180</v>
       </c>
-      <c r="BM8">
+      <c r="BO8">
         <v>1187.1</v>
       </c>
-      <c r="BN8">
+      <c r="BP8">
         <v>-1</v>
       </c>
-      <c r="BO8">
+      <c r="BQ8">
         <v>2751.666666666667</v>
       </c>
-      <c r="BP8">
+      <c r="BR8">
         <v>7443.666666666667</v>
       </c>
-      <c r="BQ8">
+      <c r="BS8">
         <v>25691</v>
       </c>
     </row>
@@ -1902,28 +1912,28 @@
       <c r="AR9">
         <v>4.6</v>
       </c>
-      <c r="BJ9">
+      <c r="BL9">
         <v>41</v>
       </c>
-      <c r="BK9">
+      <c r="BM9">
         <v>41.23333333333334</v>
       </c>
-      <c r="BL9">
+      <c r="BN9">
         <v>5221</v>
       </c>
-      <c r="BM9">
+      <c r="BO9">
         <v>1206.4</v>
       </c>
-      <c r="BN9">
+      <c r="BP9">
         <v>-1</v>
       </c>
-      <c r="BO9">
+      <c r="BQ9">
         <v>2781</v>
       </c>
-      <c r="BP9">
+      <c r="BR9">
         <v>7534</v>
       </c>
-      <c r="BQ9">
+      <c r="BS9">
         <v>26178.66666666667</v>
       </c>
     </row>
@@ -2054,28 +2064,28 @@
       <c r="AR10">
         <v>6.1</v>
       </c>
-      <c r="BJ10">
+      <c r="BL10">
         <v>41.33333333333334</v>
       </c>
-      <c r="BK10">
+      <c r="BM10">
         <v>41.6</v>
       </c>
-      <c r="BL10">
+      <c r="BN10">
         <v>5262.8</v>
       </c>
-      <c r="BM10">
+      <c r="BO10">
         <v>1234.6</v>
       </c>
-      <c r="BN10">
+      <c r="BP10">
         <v>-1</v>
       </c>
-      <c r="BO10">
+      <c r="BQ10">
         <v>2815</v>
       </c>
-      <c r="BP10">
+      <c r="BR10">
         <v>7651.666666666667</v>
       </c>
-      <c r="BQ10">
+      <c r="BS10">
         <v>25519</v>
       </c>
     </row>
@@ -2206,28 +2216,28 @@
       <c r="AR11">
         <v>6.2</v>
       </c>
-      <c r="BJ11">
+      <c r="BL11">
         <v>41.6</v>
       </c>
-      <c r="BK11">
+      <c r="BM11">
         <v>41.8</v>
       </c>
-      <c r="BL11">
+      <c r="BN11">
         <v>5305.2</v>
       </c>
-      <c r="BM11">
+      <c r="BO11">
         <v>1252.3</v>
       </c>
-      <c r="BN11">
+      <c r="BP11">
         <v>-1</v>
       </c>
-      <c r="BO11">
+      <c r="BQ11">
         <v>2849</v>
       </c>
-      <c r="BP11">
+      <c r="BR11">
         <v>7726.333333333333</v>
       </c>
-      <c r="BQ11">
+      <c r="BS11">
         <v>24875</v>
       </c>
     </row>
@@ -2358,28 +2368,28 @@
       <c r="AR12">
         <v>7.2</v>
       </c>
-      <c r="BJ12">
+      <c r="BL12">
         <v>41.93333333333333</v>
       </c>
-      <c r="BK12">
+      <c r="BM12">
         <v>42.2</v>
       </c>
-      <c r="BL12">
+      <c r="BN12">
         <v>5348.2</v>
       </c>
-      <c r="BM12">
+      <c r="BO12">
         <v>1274.5</v>
       </c>
-      <c r="BN12">
+      <c r="BP12">
         <v>-1</v>
       </c>
-      <c r="BO12">
+      <c r="BQ12">
         <v>2874</v>
       </c>
-      <c r="BP12">
+      <c r="BR12">
         <v>7855</v>
       </c>
-      <c r="BQ12">
+      <c r="BS12">
         <v>25641</v>
       </c>
     </row>
@@ -2510,28 +2520,28 @@
       <c r="AR13">
         <v>7.1</v>
       </c>
-      <c r="BJ13">
+      <c r="BL13">
         <v>42.36666666666667</v>
       </c>
-      <c r="BK13">
+      <c r="BM13">
         <v>42.63333333333333</v>
       </c>
-      <c r="BL13">
+      <c r="BN13">
         <v>5391.9</v>
       </c>
-      <c r="BM13">
+      <c r="BO13">
         <v>1301.3</v>
       </c>
-      <c r="BN13">
+      <c r="BP13">
         <v>-1</v>
       </c>
-      <c r="BO13">
+      <c r="BQ13">
         <v>2901.333333333334</v>
       </c>
-      <c r="BP13">
+      <c r="BR13">
         <v>7931.333333333333</v>
       </c>
-      <c r="BQ13">
+      <c r="BS13">
         <v>27114.33333333333</v>
       </c>
     </row>
@@ -2662,28 +2672,28 @@
       <c r="AR14">
         <v>5.9</v>
       </c>
-      <c r="BJ14">
+      <c r="BL14">
         <v>43.03333333333333</v>
       </c>
-      <c r="BK14">
+      <c r="BM14">
         <v>43.26666666666667</v>
       </c>
-      <c r="BL14">
+      <c r="BN14">
         <v>5436.6</v>
       </c>
-      <c r="BM14">
+      <c r="BO14">
         <v>1327.2</v>
       </c>
-      <c r="BN14">
+      <c r="BP14">
         <v>-1</v>
       </c>
-      <c r="BO14">
+      <c r="BQ14">
         <v>2899.666666666667</v>
       </c>
-      <c r="BP14">
+      <c r="BR14">
         <v>8016</v>
       </c>
-      <c r="BQ14">
+      <c r="BS14">
         <v>27472.66666666667</v>
       </c>
     </row>
@@ -2814,28 +2824,28 @@
       <c r="AR15">
         <v>5.7</v>
       </c>
-      <c r="BJ15">
+      <c r="BL15">
         <v>43.93333333333334</v>
       </c>
-      <c r="BK15">
+      <c r="BM15">
         <v>44.16666666666666</v>
       </c>
-      <c r="BL15">
+      <c r="BN15">
         <v>5483.5</v>
       </c>
-      <c r="BM15">
+      <c r="BO15">
         <v>1359.2</v>
       </c>
-      <c r="BN15">
+      <c r="BP15">
         <v>-1</v>
       </c>
-      <c r="BO15">
+      <c r="BQ15">
         <v>2911.666666666667</v>
       </c>
-      <c r="BP15">
+      <c r="BR15">
         <v>8115</v>
       </c>
-      <c r="BQ15">
+      <c r="BS15">
         <v>27079.33333333333</v>
       </c>
     </row>
@@ -2966,28 +2976,28 @@
       <c r="AR16">
         <v>4.7</v>
       </c>
-      <c r="BJ16">
+      <c r="BL16">
         <v>44.8</v>
       </c>
-      <c r="BK16">
+      <c r="BM16">
         <v>45.06666666666666</v>
       </c>
-      <c r="BL16">
+      <c r="BN16">
         <v>5530.8</v>
       </c>
-      <c r="BM16">
+      <c r="BO16">
         <v>1397.6</v>
       </c>
-      <c r="BN16">
+      <c r="BP16">
         <v>-1</v>
       </c>
-      <c r="BO16">
+      <c r="BQ16">
         <v>2926.333333333334</v>
       </c>
-      <c r="BP16">
+      <c r="BR16">
         <v>8183.666666666667</v>
       </c>
-      <c r="BQ16">
+      <c r="BS16">
         <v>27510</v>
       </c>
     </row>
@@ -3118,28 +3128,28 @@
       <c r="AR17">
         <v>4.6</v>
       </c>
-      <c r="BJ17">
+      <c r="BL17">
         <v>45.93333333333333</v>
       </c>
-      <c r="BK17">
+      <c r="BM17">
         <v>46.16666666666666</v>
       </c>
-      <c r="BL17">
+      <c r="BN17">
         <v>5579.2</v>
       </c>
-      <c r="BM17">
+      <c r="BO17">
         <v>1437.9</v>
       </c>
-      <c r="BN17">
+      <c r="BP17">
         <v>1</v>
       </c>
-      <c r="BO17">
+      <c r="BQ17">
         <v>2953.333333333334</v>
       </c>
-      <c r="BP17">
+      <c r="BR17">
         <v>8272.333333333334</v>
       </c>
-      <c r="BQ17">
+      <c r="BS17">
         <v>28620</v>
       </c>
     </row>
@@ -3270,28 +3280,28 @@
       <c r="AR18">
         <v>3.6</v>
       </c>
-      <c r="BJ18">
+      <c r="BL18">
         <v>47.3</v>
       </c>
-      <c r="BK18">
+      <c r="BM18">
         <v>47.56666666666666</v>
       </c>
-      <c r="BL18">
+      <c r="BN18">
         <v>5628.2</v>
       </c>
-      <c r="BM18">
+      <c r="BO18">
         <v>1477.9</v>
       </c>
-      <c r="BN18">
+      <c r="BP18">
         <v>1</v>
       </c>
-      <c r="BO18">
+      <c r="BQ18">
         <v>2988.666666666667</v>
       </c>
-      <c r="BP18">
+      <c r="BR18">
         <v>8307.666666666666</v>
       </c>
-      <c r="BQ18">
+      <c r="BS18">
         <v>30923.66666666667</v>
       </c>
     </row>
@@ -3422,28 +3432,28 @@
       <c r="AR19">
         <v>2.9</v>
       </c>
-      <c r="BJ19">
+      <c r="BL19">
         <v>48.56666666666667</v>
       </c>
-      <c r="BK19">
+      <c r="BM19">
         <v>48.76666666666667</v>
       </c>
-      <c r="BL19">
+      <c r="BN19">
         <v>5677.5</v>
       </c>
-      <c r="BM19">
+      <c r="BO19">
         <v>1526.2</v>
       </c>
-      <c r="BN19">
+      <c r="BP19">
         <v>1</v>
       </c>
-      <c r="BO19">
+      <c r="BQ19">
         <v>3018</v>
       </c>
-      <c r="BP19">
+      <c r="BR19">
         <v>8346.333333333334</v>
       </c>
-      <c r="BQ19">
+      <c r="BS19">
         <v>33400.66666666666</v>
       </c>
     </row>
@@ -3574,28 +3584,28 @@
       <c r="AR20">
         <v>3.2</v>
       </c>
-      <c r="BJ20">
+      <c r="BL20">
         <v>49.93333333333333</v>
       </c>
-      <c r="BK20">
+      <c r="BM20">
         <v>50.23333333333334</v>
       </c>
-      <c r="BL20">
+      <c r="BN20">
         <v>5726.2</v>
       </c>
-      <c r="BM20">
+      <c r="BO20">
         <v>1584.3</v>
       </c>
-      <c r="BN20">
+      <c r="BP20">
         <v>1</v>
       </c>
-      <c r="BO20">
+      <c r="BQ20">
         <v>3048.333333333334</v>
       </c>
-      <c r="BP20">
+      <c r="BR20">
         <v>8424.666666666666</v>
       </c>
-      <c r="BQ20">
+      <c r="BS20">
         <v>33701.66666666666</v>
       </c>
     </row>
@@ -3726,28 +3736,28 @@
       <c r="AR21">
         <v>3.6</v>
       </c>
-      <c r="BJ21">
+      <c r="BL21">
         <v>51.46666666666667</v>
       </c>
-      <c r="BK21">
+      <c r="BM21">
         <v>51.76666666666667</v>
       </c>
-      <c r="BL21">
+      <c r="BN21">
         <v>5774.2</v>
       </c>
-      <c r="BM21">
+      <c r="BO21">
         <v>1644.6</v>
       </c>
-      <c r="BN21">
+      <c r="BP21">
         <v>1</v>
       </c>
-      <c r="BO21">
+      <c r="BQ21">
         <v>3099</v>
       </c>
-      <c r="BP21">
+      <c r="BR21">
         <v>8551.333333333334</v>
       </c>
-      <c r="BQ21">
+      <c r="BS21">
         <v>33884</v>
       </c>
     </row>
@@ -3878,28 +3888,28 @@
       <c r="AR22">
         <v>4.2</v>
       </c>
-      <c r="BJ22">
+      <c r="BL22">
         <v>52.56666666666666</v>
       </c>
-      <c r="BK22">
+      <c r="BM22">
         <v>52.86666666666667</v>
       </c>
-      <c r="BL22">
+      <c r="BN22">
         <v>5820.9</v>
       </c>
-      <c r="BM22">
+      <c r="BO22">
         <v>1695.5</v>
       </c>
-      <c r="BN22">
+      <c r="BP22">
         <v>1</v>
       </c>
-      <c r="BO22">
+      <c r="BQ22">
         <v>3161.666666666667</v>
       </c>
-      <c r="BP22">
+      <c r="BR22">
         <v>8673</v>
       </c>
-      <c r="BQ22">
+      <c r="BS22">
         <v>37820.33333333334</v>
       </c>
     </row>
@@ -4030,28 +4040,28 @@
       <c r="AR23">
         <v>4.3</v>
       </c>
-      <c r="BJ23">
+      <c r="BL23">
         <v>53.2</v>
       </c>
-      <c r="BK23">
+      <c r="BM23">
         <v>53.5</v>
       </c>
-      <c r="BL23">
+      <c r="BN23">
         <v>5866.7</v>
       </c>
-      <c r="BM23">
+      <c r="BO23">
         <v>1734.3</v>
       </c>
-      <c r="BN23">
+      <c r="BP23">
         <v>-1</v>
       </c>
-      <c r="BO23">
+      <c r="BQ23">
         <v>3177.333333333334</v>
       </c>
-      <c r="BP23">
+      <c r="BR23">
         <v>8751.333333333334</v>
       </c>
-      <c r="BQ23">
+      <c r="BS23">
         <v>35429.66666666666</v>
       </c>
     </row>
@@ -4182,28 +4192,28 @@
       <c r="AR24">
         <v>4.6</v>
       </c>
-      <c r="BJ24">
+      <c r="BL24">
         <v>54.26666666666667</v>
       </c>
-      <c r="BK24">
+      <c r="BM24">
         <v>54.56666666666666</v>
       </c>
-      <c r="BL24">
+      <c r="BN24">
         <v>5912</v>
       </c>
-      <c r="BM24">
+      <c r="BO24">
         <v>1778.6</v>
       </c>
-      <c r="BN24">
+      <c r="BP24">
         <v>-1</v>
       </c>
-      <c r="BO24">
+      <c r="BQ24">
         <v>3178</v>
       </c>
-      <c r="BP24">
+      <c r="BR24">
         <v>8786.333333333334</v>
       </c>
-      <c r="BQ24">
+      <c r="BS24">
         <v>36988.33333333334</v>
       </c>
     </row>
@@ -4334,28 +4344,28 @@
       <c r="AR25">
         <v>4.9</v>
       </c>
-      <c r="BJ25">
+      <c r="BL25">
         <v>55.26666666666667</v>
       </c>
-      <c r="BK25">
+      <c r="BM25">
         <v>55.56666666666667</v>
       </c>
-      <c r="BL25">
+      <c r="BN25">
         <v>5957.4</v>
       </c>
-      <c r="BM25">
+      <c r="BO25">
         <v>1822.2</v>
       </c>
-      <c r="BN25">
+      <c r="BP25">
         <v>-1</v>
       </c>
-      <c r="BO25">
+      <c r="BQ25">
         <v>3197.333333333334</v>
       </c>
-      <c r="BP25">
+      <c r="BR25">
         <v>8824.666666666666</v>
       </c>
-      <c r="BQ25">
+      <c r="BS25">
         <v>39554</v>
       </c>
     </row>
@@ -4486,28 +4496,28 @@
       <c r="AR26">
         <v>5.1</v>
       </c>
-      <c r="BJ26">
+      <c r="BL26">
         <v>55.9</v>
       </c>
-      <c r="BK26">
+      <c r="BM26">
         <v>56.23333333333333</v>
       </c>
-      <c r="BL26">
+      <c r="BN26">
         <v>6002.8</v>
       </c>
-      <c r="BM26">
+      <c r="BO26">
         <v>1855.5</v>
       </c>
-      <c r="BN26">
+      <c r="BP26">
         <v>-1</v>
       </c>
-      <c r="BO26">
+      <c r="BQ26">
         <v>3214.333333333334</v>
       </c>
-      <c r="BP26">
+      <c r="BR26">
         <v>8883</v>
       </c>
-      <c r="BQ26">
+      <c r="BS26">
         <v>42554</v>
       </c>
     </row>
@@ -4638,28 +4648,28 @@
       <c r="AR27">
         <v>4.8</v>
       </c>
-      <c r="BJ27">
+      <c r="BL27">
         <v>56.4</v>
       </c>
-      <c r="BK27">
+      <c r="BM27">
         <v>56.73333333333333</v>
       </c>
-      <c r="BL27">
+      <c r="BN27">
         <v>6048.9</v>
       </c>
-      <c r="BM27">
+      <c r="BO27">
         <v>1888.6</v>
       </c>
-      <c r="BN27">
+      <c r="BP27">
         <v>-1</v>
       </c>
-      <c r="BO27">
+      <c r="BQ27">
         <v>3241.666666666667</v>
       </c>
-      <c r="BP27">
+      <c r="BR27">
         <v>8868.666666666666</v>
       </c>
-      <c r="BQ27">
+      <c r="BS27">
         <v>38830.66666666666</v>
       </c>
     </row>
@@ -4790,28 +4800,28 @@
       <c r="AR28">
         <v>5.1</v>
       </c>
-      <c r="BJ28">
+      <c r="BL28">
         <v>57.3</v>
       </c>
-      <c r="BK28">
+      <c r="BM28">
         <v>57.6</v>
       </c>
-      <c r="BL28">
+      <c r="BN28">
         <v>6096.4</v>
       </c>
-      <c r="BM28">
+      <c r="BO28">
         <v>1928.1</v>
       </c>
-      <c r="BN28">
+      <c r="BP28">
         <v>-1</v>
       </c>
-      <c r="BO28">
+      <c r="BQ28">
         <v>3290.666666666667</v>
       </c>
-      <c r="BP28">
+      <c r="BR28">
         <v>8845</v>
       </c>
-      <c r="BQ28">
+      <c r="BS28">
         <v>36130</v>
       </c>
     </row>
@@ -4942,28 +4952,28 @@
       <c r="AR29">
         <v>5.5</v>
       </c>
-      <c r="BJ29">
+      <c r="BL29">
         <v>58.13333333333333</v>
       </c>
-      <c r="BK29">
+      <c r="BM29">
         <v>58.43333333333334</v>
       </c>
-      <c r="BL29">
+      <c r="BN29">
         <v>6144.7</v>
       </c>
-      <c r="BM29">
+      <c r="BO29">
         <v>1978.1</v>
       </c>
-      <c r="BN29">
+      <c r="BP29">
         <v>-1</v>
       </c>
-      <c r="BO29">
+      <c r="BQ29">
         <v>3342</v>
       </c>
-      <c r="BP29">
+      <c r="BR29">
         <v>8861</v>
       </c>
-      <c r="BQ29">
+      <c r="BS29">
         <v>34359.66666666666</v>
       </c>
     </row>
@@ -5094,28 +5104,28 @@
       <c r="AR30">
         <v>5.8</v>
       </c>
-      <c r="BJ30">
+      <c r="BL30">
         <v>59.2</v>
       </c>
-      <c r="BK30">
+      <c r="BM30">
         <v>59.53333333333333</v>
       </c>
-      <c r="BL30">
+      <c r="BN30">
         <v>6194.5</v>
       </c>
-      <c r="BM30">
+      <c r="BO30">
         <v>2026.2</v>
       </c>
-      <c r="BN30">
+      <c r="BP30">
         <v>-1</v>
       </c>
-      <c r="BO30">
+      <c r="BQ30">
         <v>3341.333333333334</v>
       </c>
-      <c r="BP30">
+      <c r="BR30">
         <v>8860.666666666666</v>
       </c>
-      <c r="BQ30">
+      <c r="BS30">
         <v>36034</v>
       </c>
     </row>
@@ -5246,28 +5256,28 @@
       <c r="AR31">
         <v>5.9</v>
       </c>
-      <c r="BJ31">
+      <c r="BL31">
         <v>60.23333333333333</v>
       </c>
-      <c r="BK31">
+      <c r="BM31">
         <v>60.6</v>
       </c>
-      <c r="BL31">
+      <c r="BN31">
         <v>6245.6</v>
       </c>
-      <c r="BM31">
+      <c r="BO31">
         <v>2071.8</v>
       </c>
-      <c r="BN31">
+      <c r="BP31">
         <v>-1</v>
       </c>
-      <c r="BO31">
+      <c r="BQ31">
         <v>3374.666666666667</v>
       </c>
-      <c r="BP31">
+      <c r="BR31">
         <v>8907.333333333334</v>
       </c>
-      <c r="BQ31">
+      <c r="BS31">
         <v>37037.66666666666</v>
       </c>
     </row>
@@ -5398,28 +5408,28 @@
       <c r="AR32">
         <v>6.4</v>
       </c>
-      <c r="BJ32">
+      <c r="BL32">
         <v>61.06666666666666</v>
       </c>
-      <c r="BK32">
+      <c r="BM32">
         <v>61.43333333333334</v>
       </c>
-      <c r="BL32">
+      <c r="BN32">
         <v>6297.4</v>
       </c>
-      <c r="BM32">
+      <c r="BO32">
         <v>2114.4</v>
       </c>
-      <c r="BN32">
+      <c r="BP32">
         <v>-1</v>
       </c>
-      <c r="BO32">
+      <c r="BQ32">
         <v>3385</v>
       </c>
-      <c r="BP32">
+      <c r="BR32">
         <v>9099.333333333334</v>
       </c>
-      <c r="BQ32">
+      <c r="BS32">
         <v>35666.33333333334</v>
       </c>
     </row>
@@ -5550,28 +5560,28 @@
       <c r="AR33">
         <v>10.3</v>
       </c>
-      <c r="BJ33">
+      <c r="BL33">
         <v>61.96666666666667</v>
       </c>
-      <c r="BK33">
+      <c r="BM33">
         <v>62.26666666666666</v>
       </c>
-      <c r="BL33">
+      <c r="BN33">
         <v>6350.6</v>
       </c>
-      <c r="BM33">
+      <c r="BO33">
         <v>2178.3</v>
       </c>
-      <c r="BN33">
+      <c r="BP33">
         <v>-1</v>
       </c>
-      <c r="BO33">
+      <c r="BQ33">
         <v>3404.666666666667</v>
       </c>
-      <c r="BP33">
+      <c r="BR33">
         <v>9231</v>
       </c>
-      <c r="BQ33">
+      <c r="BS33">
         <v>35160</v>
       </c>
     </row>
@@ -5702,28 +5712,28 @@
       <c r="AR34">
         <v>8.699999999999999</v>
       </c>
-      <c r="BJ34">
+      <c r="BL34">
         <v>63.03333333333333</v>
       </c>
-      <c r="BK34">
+      <c r="BM34">
         <v>63.36666666666667</v>
       </c>
-      <c r="BL34">
+      <c r="BN34">
         <v>6405.2</v>
       </c>
-      <c r="BM34">
+      <c r="BO34">
         <v>2229</v>
       </c>
-      <c r="BN34">
+      <c r="BP34">
         <v>-1</v>
       </c>
-      <c r="BO34">
+      <c r="BQ34">
         <v>3442.333333333334</v>
       </c>
-      <c r="BP34">
+      <c r="BR34">
         <v>9348.333333333334</v>
       </c>
-      <c r="BQ34">
+      <c r="BS34">
         <v>34095.33333333334</v>
       </c>
     </row>
@@ -5854,28 +5864,28 @@
       <c r="AR35">
         <v>8.4</v>
       </c>
-      <c r="BJ35">
+      <c r="BL35">
         <v>64.46666666666667</v>
       </c>
-      <c r="BK35">
+      <c r="BM35">
         <v>64.76666666666667</v>
       </c>
-      <c r="BL35">
+      <c r="BN35">
         <v>6460.8</v>
       </c>
-      <c r="BM35">
+      <c r="BO35">
         <v>2291.3</v>
       </c>
-      <c r="BN35">
+      <c r="BP35">
         <v>-1</v>
       </c>
-      <c r="BO35">
+      <c r="BQ35">
         <v>3479</v>
       </c>
-      <c r="BP35">
+      <c r="BR35">
         <v>9466</v>
       </c>
-      <c r="BQ35">
+      <c r="BS35">
         <v>41889.66666666666</v>
       </c>
     </row>
@@ -6006,28 +6016,28 @@
       <c r="AR36">
         <v>8.300000000000001</v>
       </c>
-      <c r="BJ36">
+      <c r="BL36">
         <v>65.96666666666667</v>
       </c>
-      <c r="BK36">
+      <c r="BM36">
         <v>66.23333333333333</v>
       </c>
-      <c r="BL36">
+      <c r="BN36">
         <v>6518</v>
       </c>
-      <c r="BM36">
+      <c r="BO36">
         <v>2350.9</v>
       </c>
-      <c r="BN36">
+      <c r="BP36">
         <v>-1</v>
       </c>
-      <c r="BO36">
+      <c r="BQ36">
         <v>3477.333333333334</v>
       </c>
-      <c r="BP36">
+      <c r="BR36">
         <v>9492.333333333334</v>
       </c>
-      <c r="BQ36">
+      <c r="BS36">
         <v>43760.66666666666</v>
       </c>
     </row>
@@ -6158,28 +6168,28 @@
       <c r="AR37">
         <v>10.4</v>
       </c>
-      <c r="BJ37">
+      <c r="BL37">
         <v>67.5</v>
       </c>
-      <c r="BK37">
+      <c r="BM37">
         <v>67.83333333333333</v>
       </c>
-      <c r="BL37">
+      <c r="BN37">
         <v>6576.2</v>
       </c>
-      <c r="BM37">
+      <c r="BO37">
         <v>2420.4</v>
       </c>
-      <c r="BN37">
+      <c r="BP37">
         <v>-1</v>
       </c>
-      <c r="BO37">
+      <c r="BQ37">
         <v>3494</v>
       </c>
-      <c r="BP37">
+      <c r="BR37">
         <v>9482.666666666666</v>
       </c>
-      <c r="BQ37">
+      <c r="BS37">
         <v>45015.33333333334</v>
       </c>
     </row>
@@ -6310,28 +6320,28 @@
       <c r="AR38">
         <v>8.4</v>
       </c>
-      <c r="BJ38">
+      <c r="BL38">
         <v>69.2</v>
       </c>
-      <c r="BK38">
+      <c r="BM38">
         <v>69.56666666666666</v>
       </c>
-      <c r="BL38">
+      <c r="BN38">
         <v>6636</v>
       </c>
-      <c r="BM38">
+      <c r="BO38">
         <v>2486.9</v>
       </c>
-      <c r="BN38">
+      <c r="BP38">
         <v>-1</v>
       </c>
-      <c r="BO38">
+      <c r="BQ38">
         <v>3504.333333333334</v>
       </c>
-      <c r="BP38">
+      <c r="BR38">
         <v>9531.333333333334</v>
       </c>
-      <c r="BQ38">
+      <c r="BS38">
         <v>40794</v>
       </c>
     </row>
@@ -6462,28 +6472,28 @@
       <c r="AR39">
         <v>8.800000000000001</v>
       </c>
-      <c r="BJ39">
+      <c r="BL39">
         <v>71.40000000000001</v>
       </c>
-      <c r="BK39">
+      <c r="BM39">
         <v>71.89999999999999</v>
       </c>
-      <c r="BL39">
+      <c r="BN39">
         <v>6693.8</v>
       </c>
-      <c r="BM39">
+      <c r="BO39">
         <v>2570</v>
       </c>
-      <c r="BN39">
+      <c r="BP39">
         <v>-1</v>
       </c>
-      <c r="BO39">
+      <c r="BQ39">
         <v>3518</v>
       </c>
-      <c r="BP39">
+      <c r="BR39">
         <v>9604.333333333334</v>
       </c>
-      <c r="BQ39">
+      <c r="BS39">
         <v>45875.33333333334</v>
       </c>
     </row>
@@ -6614,28 +6624,28 @@
       <c r="AR40">
         <v>8.1</v>
       </c>
-      <c r="BJ40">
+      <c r="BL40">
         <v>73.7</v>
       </c>
-      <c r="BK40">
+      <c r="BM40">
         <v>74.23333333333333</v>
       </c>
-      <c r="BL40">
+      <c r="BN40">
         <v>6748.7</v>
       </c>
-      <c r="BM40">
+      <c r="BO40">
         <v>2647.8</v>
       </c>
-      <c r="BN40">
+      <c r="BP40">
         <v>-1</v>
       </c>
-      <c r="BO40">
+      <c r="BQ40">
         <v>3560.666666666667</v>
       </c>
-      <c r="BP40">
+      <c r="BR40">
         <v>9710.666666666666</v>
       </c>
-      <c r="BQ40">
+      <c r="BS40">
         <v>49343.66666666666</v>
       </c>
     </row>
@@ -6766,28 +6776,28 @@
       <c r="AR41">
         <v>8.9</v>
       </c>
-      <c r="BJ41">
+      <c r="BL41">
         <v>76.03333333333333</v>
       </c>
-      <c r="BK41">
+      <c r="BM41">
         <v>76.5</v>
       </c>
-      <c r="BL41">
+      <c r="BN41">
         <v>6800.2</v>
       </c>
-      <c r="BM41">
+      <c r="BO41">
         <v>2717.5</v>
       </c>
-      <c r="BN41">
+      <c r="BP41">
         <v>-1</v>
       </c>
-      <c r="BO41">
+      <c r="BQ41">
         <v>3579.333333333334</v>
       </c>
-      <c r="BP41">
+      <c r="BR41">
         <v>9697.333333333334</v>
       </c>
-      <c r="BQ41">
+      <c r="BS41">
         <v>52609</v>
       </c>
     </row>
@@ -6918,28 +6928,28 @@
       <c r="AR42">
         <v>9.199999999999999</v>
       </c>
-      <c r="BJ42">
+      <c r="BL42">
         <v>79.03333333333333</v>
       </c>
-      <c r="BK42">
+      <c r="BM42">
         <v>79.5</v>
       </c>
-      <c r="BL42">
+      <c r="BN42">
         <v>6847.6</v>
       </c>
-      <c r="BM42">
+      <c r="BO42">
         <v>2793.9</v>
       </c>
-      <c r="BN42">
+      <c r="BP42">
         <v>1</v>
       </c>
-      <c r="BO42">
+      <c r="BQ42">
         <v>3582</v>
       </c>
-      <c r="BP42">
+      <c r="BR42">
         <v>9741.333333333334</v>
       </c>
-      <c r="BQ42">
+      <c r="BS42">
         <v>55934.33333333334</v>
       </c>
     </row>
@@ -7070,28 +7080,28 @@
       <c r="AR43">
         <v>9.6</v>
       </c>
-      <c r="BJ43">
+      <c r="BL43">
         <v>81.7</v>
       </c>
-      <c r="BK43">
+      <c r="BM43">
         <v>82.2</v>
       </c>
-      <c r="BL43">
+      <c r="BN43">
         <v>6890.3</v>
       </c>
-      <c r="BM43">
+      <c r="BO43">
         <v>2878.2</v>
       </c>
-      <c r="BN43">
+      <c r="BP43">
         <v>1</v>
       </c>
-      <c r="BO43">
+      <c r="BQ43">
         <v>3602.666666666667</v>
       </c>
-      <c r="BP43">
+      <c r="BR43">
         <v>9749.333333333334</v>
       </c>
-      <c r="BQ43">
+      <c r="BS43">
         <v>54112</v>
       </c>
     </row>
@@ -7222,28 +7232,28 @@
       <c r="AR44">
         <v>10.1</v>
       </c>
-      <c r="BJ44">
+      <c r="BL44">
         <v>83.23333333333333</v>
       </c>
-      <c r="BK44">
+      <c r="BM44">
         <v>83.73333333333333</v>
       </c>
-      <c r="BL44">
+      <c r="BN44">
         <v>6928.3</v>
       </c>
-      <c r="BM44">
+      <c r="BO44">
         <v>2958.8</v>
       </c>
-      <c r="BN44">
+      <c r="BP44">
         <v>1</v>
       </c>
-      <c r="BO44">
+      <c r="BQ44">
         <v>3624</v>
       </c>
-      <c r="BP44">
+      <c r="BR44">
         <v>9782.333333333334</v>
       </c>
-      <c r="BQ44">
+      <c r="BS44">
         <v>52797</v>
       </c>
     </row>
@@ -7374,28 +7384,28 @@
       <c r="AR45">
         <v>10.3</v>
       </c>
-      <c r="BJ45">
+      <c r="BL45">
         <v>85.56666666666666</v>
       </c>
-      <c r="BK45">
+      <c r="BM45">
         <v>86.16666666666667</v>
       </c>
-      <c r="BL45">
+      <c r="BN45">
         <v>6968.3</v>
       </c>
-      <c r="BM45">
+      <c r="BO45">
         <v>3053.4</v>
       </c>
-      <c r="BN45">
+      <c r="BP45">
         <v>-1</v>
       </c>
-      <c r="BO45">
+      <c r="BQ45">
         <v>3630.666666666667</v>
       </c>
-      <c r="BP45">
+      <c r="BR45">
         <v>9793</v>
       </c>
-      <c r="BQ45">
+      <c r="BS45">
         <v>54381</v>
       </c>
     </row>
@@ -7526,28 +7536,28 @@
       <c r="AR46">
         <v>10.6</v>
       </c>
-      <c r="BJ46">
+      <c r="BL46">
         <v>87.93333333333334</v>
       </c>
-      <c r="BK46">
+      <c r="BM46">
         <v>88.46666666666665</v>
       </c>
-      <c r="BL46">
+      <c r="BN46">
         <v>7012.5</v>
       </c>
-      <c r="BM46">
+      <c r="BO46">
         <v>3153.6</v>
       </c>
-      <c r="BN46">
+      <c r="BP46">
         <v>-1</v>
       </c>
-      <c r="BO46">
+      <c r="BQ46">
         <v>3636</v>
       </c>
-      <c r="BP46">
+      <c r="BR46">
         <v>9750.333333333334</v>
       </c>
-      <c r="BQ46">
+      <c r="BS46">
         <v>60484</v>
       </c>
     </row>
@@ -7678,28 +7688,28 @@
       <c r="AR47">
         <v>10.7</v>
       </c>
-      <c r="BJ47">
+      <c r="BL47">
         <v>89.76666666666667</v>
       </c>
-      <c r="BK47">
+      <c r="BM47">
         <v>90.23333333333335</v>
       </c>
-      <c r="BL47">
+      <c r="BN47">
         <v>7059.7</v>
       </c>
-      <c r="BM47">
+      <c r="BO47">
         <v>3237.8</v>
       </c>
-      <c r="BN47">
+      <c r="BP47">
         <v>-1</v>
       </c>
-      <c r="BO47">
+      <c r="BQ47">
         <v>3631.666666666667</v>
       </c>
-      <c r="BP47">
+      <c r="BR47">
         <v>9665</v>
       </c>
-      <c r="BQ47">
+      <c r="BS47">
         <v>53862</v>
       </c>
     </row>
@@ -7830,28 +7840,28 @@
       <c r="AR48">
         <v>11.1</v>
       </c>
-      <c r="BJ48">
+      <c r="BL48">
         <v>92.26666666666667</v>
       </c>
-      <c r="BK48">
+      <c r="BM48">
         <v>92.73333333333333</v>
       </c>
-      <c r="BL48">
+      <c r="BN48">
         <v>7109.5</v>
       </c>
-      <c r="BM48">
+      <c r="BO48">
         <v>3322</v>
       </c>
-      <c r="BN48">
+      <c r="BP48">
         <v>1</v>
       </c>
-      <c r="BO48">
+      <c r="BQ48">
         <v>3640</v>
       </c>
-      <c r="BP48">
+      <c r="BR48">
         <v>9547.666666666666</v>
       </c>
-      <c r="BQ48">
+      <c r="BS48">
         <v>52044</v>
       </c>
     </row>
@@ -7982,28 +7992,28 @@
       <c r="AR49">
         <v>13.5</v>
       </c>
-      <c r="BJ49">
+      <c r="BL49">
         <v>93.76666666666667</v>
       </c>
-      <c r="BK49">
+      <c r="BM49">
         <v>94.16666666666667</v>
       </c>
-      <c r="BL49">
+      <c r="BN49">
         <v>7161.9</v>
       </c>
-      <c r="BM49">
+      <c r="BO49">
         <v>3404.3</v>
       </c>
-      <c r="BN49">
+      <c r="BP49">
         <v>1</v>
       </c>
-      <c r="BO49">
+      <c r="BQ49">
         <v>3653</v>
       </c>
-      <c r="BP49">
+      <c r="BR49">
         <v>9507</v>
       </c>
-      <c r="BQ49">
+      <c r="BS49">
         <v>54313.66666666666</v>
       </c>
     </row>
@@ -8134,28 +8144,28 @@
       <c r="AR50">
         <v>14</v>
       </c>
-      <c r="BJ50">
+      <c r="BL50">
         <v>94.60000000000001</v>
       </c>
-      <c r="BK50">
+      <c r="BM50">
         <v>94.96666666666665</v>
       </c>
-      <c r="BL50">
+      <c r="BN50">
         <v>7216.2</v>
       </c>
-      <c r="BM50">
+      <c r="BO50">
         <v>3477.3</v>
       </c>
-      <c r="BN50">
+      <c r="BP50">
         <v>1</v>
       </c>
-      <c r="BO50">
+      <c r="BQ50">
         <v>3645.666666666667</v>
       </c>
-      <c r="BP50">
+      <c r="BR50">
         <v>9484.333333333334</v>
       </c>
-      <c r="BQ50">
+      <c r="BS50">
         <v>51944</v>
       </c>
     </row>
@@ -8286,28 +8296,28 @@
       <c r="AR51">
         <v>13.6</v>
       </c>
-      <c r="BJ51">
+      <c r="BL51">
         <v>95.96666666666667</v>
       </c>
-      <c r="BK51">
+      <c r="BM51">
         <v>96.23333333333333</v>
       </c>
-      <c r="BL51">
+      <c r="BN51">
         <v>7271.9</v>
       </c>
-      <c r="BM51">
+      <c r="BO51">
         <v>3549.7</v>
       </c>
-      <c r="BN51">
+      <c r="BP51">
         <v>1</v>
       </c>
-      <c r="BO51">
+      <c r="BQ51">
         <v>3647.333333333334</v>
       </c>
-      <c r="BP51">
+      <c r="BR51">
         <v>9495.666666666666</v>
       </c>
-      <c r="BQ51">
+      <c r="BS51">
         <v>52182.66666666666</v>
       </c>
     </row>
@@ -8438,28 +8448,28 @@
       <c r="AR52">
         <v>13</v>
       </c>
-      <c r="BJ52">
+      <c r="BL52">
         <v>97.63333333333334</v>
       </c>
-      <c r="BK52">
+      <c r="BM52">
         <v>98</v>
       </c>
-      <c r="BL52">
+      <c r="BN52">
         <v>7328.5</v>
       </c>
-      <c r="BM52">
+      <c r="BO52">
         <v>3628</v>
       </c>
-      <c r="BN52">
+      <c r="BP52">
         <v>1</v>
       </c>
-      <c r="BO52">
+      <c r="BQ52">
         <v>3625.666666666667</v>
       </c>
-      <c r="BP52">
+      <c r="BR52">
         <v>9409.666666666666</v>
       </c>
-      <c r="BQ52">
+      <c r="BS52">
         <v>52486.33333333334</v>
       </c>
     </row>
@@ -8590,28 +8600,28 @@
       <c r="AR53">
         <v>19.4</v>
       </c>
-      <c r="BJ53">
+      <c r="BL53">
         <v>97.93333333333334</v>
       </c>
-      <c r="BK53">
+      <c r="BM53">
         <v>98.33333333333333</v>
       </c>
-      <c r="BL53">
+      <c r="BN53">
         <v>7386.2</v>
       </c>
-      <c r="BM53">
+      <c r="BO53">
         <v>3694.6</v>
       </c>
-      <c r="BN53">
+      <c r="BP53">
         <v>1</v>
       </c>
-      <c r="BO53">
+      <c r="BQ53">
         <v>3640.333333333334</v>
       </c>
-      <c r="BP53">
+      <c r="BR53">
         <v>9437</v>
       </c>
-      <c r="BQ53">
+      <c r="BS53">
         <v>54765.33333333334</v>
       </c>
     </row>
@@ -8742,28 +8752,28 @@
       <c r="AR54">
         <v>19.9</v>
       </c>
-      <c r="BJ54">
+      <c r="BL54">
         <v>98</v>
       </c>
-      <c r="BK54">
+      <c r="BM54">
         <v>98.3</v>
       </c>
-      <c r="BL54">
+      <c r="BN54">
         <v>7443.9</v>
       </c>
-      <c r="BM54">
+      <c r="BO54">
         <v>3751.5</v>
       </c>
-      <c r="BN54">
+      <c r="BP54">
         <v>-1</v>
       </c>
-      <c r="BO54">
+      <c r="BQ54">
         <v>3650.333333333334</v>
       </c>
-      <c r="BP54">
+      <c r="BR54">
         <v>9447.333333333334</v>
       </c>
-      <c r="BQ54">
+      <c r="BS54">
         <v>52678.33333333334</v>
       </c>
     </row>
@@ -8894,28 +8904,28 @@
       <c r="AR55">
         <v>21.6</v>
       </c>
-      <c r="BJ55">
+      <c r="BL55">
         <v>99.13333333333334</v>
       </c>
-      <c r="BK55">
+      <c r="BM55">
         <v>99.43333333333334</v>
       </c>
-      <c r="BL55">
+      <c r="BN55">
         <v>7502.9</v>
       </c>
-      <c r="BM55">
+      <c r="BO55">
         <v>3809.3</v>
       </c>
-      <c r="BN55">
+      <c r="BP55">
         <v>-1</v>
       </c>
-      <c r="BO55">
+      <c r="BQ55">
         <v>3656</v>
       </c>
-      <c r="BP55">
+      <c r="BR55">
         <v>9445.333333333334</v>
       </c>
-      <c r="BQ55">
+      <c r="BS55">
         <v>51386</v>
       </c>
     </row>
@@ -9046,28 +9056,28 @@
       <c r="AR56">
         <v>22.2</v>
       </c>
-      <c r="BJ56">
+      <c r="BL56">
         <v>100.1</v>
       </c>
-      <c r="BK56">
+      <c r="BM56">
         <v>100.4</v>
       </c>
-      <c r="BL56">
+      <c r="BN56">
         <v>7563.6</v>
       </c>
-      <c r="BM56">
+      <c r="BO56">
         <v>3881</v>
       </c>
-      <c r="BN56">
+      <c r="BP56">
         <v>-1</v>
       </c>
-      <c r="BO56">
+      <c r="BQ56">
         <v>3671.333333333334</v>
       </c>
-      <c r="BP56">
+      <c r="BR56">
         <v>9433</v>
       </c>
-      <c r="BQ56">
+      <c r="BS56">
         <v>53662.33333333334</v>
       </c>
     </row>
@@ -9198,28 +9208,28 @@
       <c r="AR57">
         <v>21.5</v>
       </c>
-      <c r="BJ57">
+      <c r="BL57">
         <v>101.1</v>
       </c>
-      <c r="BK57">
+      <c r="BM57">
         <v>101.1666666666667</v>
       </c>
-      <c r="BL57">
+      <c r="BN57">
         <v>7626.8</v>
       </c>
-      <c r="BM57">
+      <c r="BO57">
         <v>3943</v>
       </c>
-      <c r="BN57">
+      <c r="BP57">
         <v>-1</v>
       </c>
-      <c r="BO57">
+      <c r="BQ57">
         <v>3671.666666666667</v>
       </c>
-      <c r="BP57">
+      <c r="BR57">
         <v>9401.666666666666</v>
       </c>
-      <c r="BQ57">
+      <c r="BS57">
         <v>53249</v>
       </c>
     </row>
@@ -9350,28 +9360,28 @@
       <c r="AR58">
         <v>21.2</v>
       </c>
-      <c r="BJ58">
+      <c r="BL58">
         <v>102.5333333333333</v>
       </c>
-      <c r="BK58">
+      <c r="BM58">
         <v>101.9333333333333</v>
       </c>
-      <c r="BL58">
+      <c r="BN58">
         <v>7692.5</v>
       </c>
-      <c r="BM58">
+      <c r="BO58">
         <v>4017.3</v>
       </c>
-      <c r="BN58">
+      <c r="BP58">
         <v>-1</v>
       </c>
-      <c r="BO58">
+      <c r="BQ58">
         <v>3687</v>
       </c>
-      <c r="BP58">
+      <c r="BR58">
         <v>9412</v>
       </c>
-      <c r="BQ58">
+      <c r="BS58">
         <v>55752.33333333334</v>
       </c>
     </row>
@@ -9502,28 +9512,28 @@
       <c r="AR59">
         <v>21</v>
       </c>
-      <c r="BJ59">
+      <c r="BL59">
         <v>103.5</v>
       </c>
-      <c r="BK59">
+      <c r="BM59">
         <v>102.4666666666667</v>
       </c>
-      <c r="BL59">
+      <c r="BN59">
         <v>7760.5</v>
       </c>
-      <c r="BM59">
+      <c r="BO59">
         <v>4087.5</v>
       </c>
-      <c r="BN59">
+      <c r="BP59">
         <v>-1</v>
       </c>
-      <c r="BO59">
+      <c r="BQ59">
         <v>3720</v>
       </c>
-      <c r="BP59">
+      <c r="BR59">
         <v>9445.333333333334</v>
       </c>
-      <c r="BQ59">
+      <c r="BS59">
         <v>57382.66666666666</v>
       </c>
     </row>
@@ -9654,28 +9664,28 @@
       <c r="AR60">
         <v>20.9</v>
       </c>
-      <c r="BJ60">
+      <c r="BL60">
         <v>104.4</v>
       </c>
-      <c r="BK60">
+      <c r="BM60">
         <v>103.9333333333333</v>
       </c>
-      <c r="BL60">
+      <c r="BN60">
         <v>7830.2</v>
       </c>
-      <c r="BM60">
+      <c r="BO60">
         <v>4160.9</v>
       </c>
-      <c r="BN60">
+      <c r="BP60">
         <v>-1</v>
       </c>
-      <c r="BO60">
+      <c r="BQ60">
         <v>3758</v>
       </c>
-      <c r="BP60">
+      <c r="BR60">
         <v>9509</v>
       </c>
-      <c r="BQ60">
+      <c r="BS60">
         <v>59910.33333333334</v>
       </c>
     </row>
@@ -9806,28 +9816,28 @@
       <c r="AR61">
         <v>21.2</v>
       </c>
-      <c r="BJ61">
+      <c r="BL61">
         <v>105.3</v>
       </c>
-      <c r="BK61">
+      <c r="BM61">
         <v>104.8</v>
       </c>
-      <c r="BL61">
+      <c r="BN61">
         <v>7901.2</v>
       </c>
-      <c r="BM61">
+      <c r="BO61">
         <v>4230</v>
       </c>
-      <c r="BN61">
+      <c r="BP61">
         <v>-1</v>
       </c>
-      <c r="BO61">
+      <c r="BQ61">
         <v>3773</v>
       </c>
-      <c r="BP61">
+      <c r="BR61">
         <v>9555</v>
       </c>
-      <c r="BQ61">
+      <c r="BS61">
         <v>60890.66666666666</v>
       </c>
     </row>
@@ -9958,28 +9968,28 @@
       <c r="AR62">
         <v>21.1</v>
       </c>
-      <c r="BJ62">
+      <c r="BL62">
         <v>106.2666666666667</v>
       </c>
-      <c r="BK62">
+      <c r="BM62">
         <v>105.6666666666667</v>
       </c>
-      <c r="BL62">
+      <c r="BN62">
         <v>7972.5</v>
       </c>
-      <c r="BM62">
+      <c r="BO62">
         <v>4310.4</v>
       </c>
-      <c r="BN62">
+      <c r="BP62">
         <v>-1</v>
       </c>
-      <c r="BO62">
+      <c r="BQ62">
         <v>3798.333333333334</v>
       </c>
-      <c r="BP62">
+      <c r="BR62">
         <v>9595.666666666666</v>
       </c>
-      <c r="BQ62">
+      <c r="BS62">
         <v>62514.66666666666</v>
       </c>
     </row>
@@ -10110,28 +10120,28 @@
       <c r="AR63">
         <v>21</v>
       </c>
-      <c r="BJ63">
+      <c r="BL63">
         <v>107.2333333333333</v>
       </c>
-      <c r="BK63">
+      <c r="BM63">
         <v>106.6333333333333</v>
       </c>
-      <c r="BL63">
+      <c r="BN63">
         <v>8044.2</v>
       </c>
-      <c r="BM63">
+      <c r="BO63">
         <v>4377.1</v>
       </c>
-      <c r="BN63">
+      <c r="BP63">
         <v>-1</v>
       </c>
-      <c r="BO63">
+      <c r="BQ63">
         <v>3819.333333333334</v>
       </c>
-      <c r="BP63">
+      <c r="BR63">
         <v>9640.333333333334</v>
       </c>
-      <c r="BQ63">
+      <c r="BS63">
         <v>65739.33333333333</v>
       </c>
     </row>
@@ -10262,28 +10272,28 @@
       <c r="AR64">
         <v>21.3</v>
       </c>
-      <c r="BJ64">
+      <c r="BL64">
         <v>107.9</v>
       </c>
-      <c r="BK64">
+      <c r="BM64">
         <v>107.1333333333333</v>
       </c>
-      <c r="BL64">
+      <c r="BN64">
         <v>8115.9</v>
       </c>
-      <c r="BM64">
+      <c r="BO64">
         <v>4442.8</v>
       </c>
-      <c r="BN64">
+      <c r="BP64">
         <v>-1</v>
       </c>
-      <c r="BO64">
+      <c r="BQ64">
         <v>3844.333333333334</v>
       </c>
-      <c r="BP64">
+      <c r="BR64">
         <v>9746.666666666666</v>
       </c>
-      <c r="BQ64">
+      <c r="BS64">
         <v>67220</v>
       </c>
     </row>
@@ -10414,28 +10424,28 @@
       <c r="AR65">
         <v>22</v>
       </c>
-      <c r="BJ65">
+      <c r="BL65">
         <v>109</v>
       </c>
-      <c r="BK65">
+      <c r="BM65">
         <v>108.2</v>
       </c>
-      <c r="BL65">
+      <c r="BN65">
         <v>8187.2</v>
       </c>
-      <c r="BM65">
+      <c r="BO65">
         <v>4506.8</v>
       </c>
-      <c r="BN65">
+      <c r="BP65">
         <v>-1</v>
       </c>
-      <c r="BO65">
+      <c r="BQ65">
         <v>3864.333333333334</v>
       </c>
-      <c r="BP65">
+      <c r="BR65">
         <v>9764.333333333334</v>
       </c>
-      <c r="BQ65">
+      <c r="BS65">
         <v>66558.33333333333</v>
       </c>
     </row>
@@ -10566,28 +10576,28 @@
       <c r="AR66">
         <v>23.1</v>
       </c>
-      <c r="BJ66">
+      <c r="BL66">
         <v>109.5666666666667</v>
       </c>
-      <c r="BK66">
+      <c r="BM66">
         <v>108.6666666666667</v>
       </c>
-      <c r="BL66">
+      <c r="BN66">
         <v>8257.9</v>
       </c>
-      <c r="BM66">
+      <c r="BO66">
         <v>4568.4</v>
       </c>
-      <c r="BN66">
+      <c r="BP66">
         <v>-1</v>
       </c>
-      <c r="BO66">
+      <c r="BQ66">
         <v>3872.333333333334</v>
       </c>
-      <c r="BP66">
+      <c r="BR66">
         <v>9815.333333333334</v>
       </c>
-      <c r="BQ66">
+      <c r="BS66">
         <v>70815.33333333333</v>
       </c>
     </row>
@@ -10718,28 +10728,28 @@
       <c r="AR67">
         <v>24.2</v>
       </c>
-      <c r="BJ67">
+      <c r="BL67">
         <v>109.0333333333333</v>
       </c>
-      <c r="BK67">
+      <c r="BM67">
         <v>107.9333333333333</v>
       </c>
-      <c r="BL67">
+      <c r="BN67">
         <v>8328.299999999999</v>
       </c>
-      <c r="BM67">
+      <c r="BO67">
         <v>4624.7</v>
       </c>
-      <c r="BN67">
+      <c r="BP67">
         <v>-1</v>
       </c>
-      <c r="BO67">
+      <c r="BQ67">
         <v>3883</v>
       </c>
-      <c r="BP67">
+      <c r="BR67">
         <v>9854.333333333334</v>
       </c>
-      <c r="BQ67">
+      <c r="BS67">
         <v>72215.33333333333</v>
       </c>
     </row>
@@ -10870,28 +10880,28 @@
       <c r="AR68">
         <v>25.5</v>
       </c>
-      <c r="BJ68">
+      <c r="BL68">
         <v>109.7</v>
       </c>
-      <c r="BK68">
+      <c r="BM68">
         <v>108.5</v>
       </c>
-      <c r="BL68">
+      <c r="BN68">
         <v>8398.5</v>
       </c>
-      <c r="BM68">
+      <c r="BO68">
         <v>4682.9</v>
       </c>
-      <c r="BN68">
+      <c r="BP68">
         <v>-1</v>
       </c>
-      <c r="BO68">
+      <c r="BQ68">
         <v>3889.333333333334</v>
       </c>
-      <c r="BP68">
+      <c r="BR68">
         <v>9906.666666666666</v>
       </c>
-      <c r="BQ68">
+      <c r="BS68">
         <v>73843.33333333333</v>
       </c>
     </row>
@@ -11022,28 +11032,28 @@
       <c r="AR69">
         <v>26.8</v>
       </c>
-      <c r="BJ69">
+      <c r="BL69">
         <v>110.4666666666667</v>
       </c>
-      <c r="BK69">
+      <c r="BM69">
         <v>109.2</v>
       </c>
-      <c r="BL69">
+      <c r="BN69">
         <v>8468.4</v>
       </c>
-      <c r="BM69">
+      <c r="BO69">
         <v>4747.5</v>
       </c>
-      <c r="BN69">
+      <c r="BP69">
         <v>-1</v>
       </c>
-      <c r="BO69">
+      <c r="BQ69">
         <v>3926.666666666667</v>
       </c>
-      <c r="BP69">
+      <c r="BR69">
         <v>10024.33333333333</v>
       </c>
-      <c r="BQ69">
+      <c r="BS69">
         <v>71122.66666666667</v>
       </c>
     </row>
@@ -11174,28 +11184,28 @@
       <c r="AR70">
         <v>28.3</v>
       </c>
-      <c r="BJ70">
+      <c r="BL70">
         <v>111.8</v>
       </c>
-      <c r="BK70">
+      <c r="BM70">
         <v>110.6666666666667</v>
       </c>
-      <c r="BL70">
+      <c r="BN70">
         <v>8537.9</v>
       </c>
-      <c r="BM70">
+      <c r="BO70">
         <v>4817</v>
       </c>
-      <c r="BN70">
+      <c r="BP70">
         <v>-1</v>
       </c>
-      <c r="BO70">
+      <c r="BQ70">
         <v>3943.666666666667</v>
       </c>
-      <c r="BP70">
+      <c r="BR70">
         <v>10039.33333333333</v>
       </c>
-      <c r="BQ70">
+      <c r="BS70">
         <v>75290</v>
       </c>
     </row>
@@ -11326,28 +11336,28 @@
       <c r="AR71">
         <v>30.4</v>
       </c>
-      <c r="BJ71">
+      <c r="BL71">
         <v>113.0666666666667</v>
       </c>
-      <c r="BK71">
+      <c r="BM71">
         <v>111.9666666666667</v>
       </c>
-      <c r="BL71">
+      <c r="BN71">
         <v>8606.700000000001</v>
       </c>
-      <c r="BM71">
+      <c r="BO71">
         <v>4889.4</v>
       </c>
-      <c r="BN71">
+      <c r="BP71">
         <v>-1</v>
       </c>
-      <c r="BO71">
+      <c r="BQ71">
         <v>3953</v>
       </c>
-      <c r="BP71">
+      <c r="BR71">
         <v>10083.33333333333</v>
       </c>
-      <c r="BQ71">
+      <c r="BS71">
         <v>75025.66666666667</v>
       </c>
     </row>
@@ -11478,28 +11488,28 @@
       <c r="AR72">
         <v>31.3</v>
       </c>
-      <c r="BJ72">
+      <c r="BL72">
         <v>114.2666666666667</v>
       </c>
-      <c r="BK72">
+      <c r="BM72">
         <v>113.1666666666667</v>
       </c>
-      <c r="BL72">
+      <c r="BN72">
         <v>8675.1</v>
       </c>
-      <c r="BM72">
+      <c r="BO72">
         <v>4965.6</v>
       </c>
-      <c r="BN72">
+      <c r="BP72">
         <v>-1</v>
       </c>
-      <c r="BO72">
+      <c r="BQ72">
         <v>3969</v>
       </c>
-      <c r="BP72">
+      <c r="BR72">
         <v>10092.33333333333</v>
       </c>
-      <c r="BQ72">
+      <c r="BS72">
         <v>77047</v>
       </c>
     </row>
@@ -11630,28 +11640,28 @@
       <c r="AR73">
         <v>31.1</v>
       </c>
-      <c r="BJ73">
+      <c r="BL73">
         <v>115.3333333333333</v>
       </c>
-      <c r="BK73">
+      <c r="BM73">
         <v>114.1666666666667</v>
       </c>
-      <c r="BL73">
+      <c r="BN73">
         <v>8743.5</v>
       </c>
-      <c r="BM73">
+      <c r="BO73">
         <v>5044.5</v>
       </c>
-      <c r="BN73">
+      <c r="BP73">
         <v>-1</v>
       </c>
-      <c r="BO73">
+      <c r="BQ73">
         <v>4000.666666666667</v>
       </c>
-      <c r="BP73">
+      <c r="BR73">
         <v>10184.66666666667</v>
       </c>
-      <c r="BQ73">
+      <c r="BS73">
         <v>78058</v>
       </c>
     </row>
@@ -11782,28 +11792,28 @@
       <c r="AR74">
         <v>30.4</v>
       </c>
-      <c r="BJ74">
+      <c r="BL74">
         <v>116.2333333333333</v>
       </c>
-      <c r="BK74">
+      <c r="BM74">
         <v>114.9333333333333</v>
       </c>
-      <c r="BL74">
+      <c r="BN74">
         <v>8811.200000000001</v>
       </c>
-      <c r="BM74">
+      <c r="BO74">
         <v>5123.5</v>
       </c>
-      <c r="BN74">
+      <c r="BP74">
         <v>-1</v>
       </c>
-      <c r="BO74">
+      <c r="BQ74">
         <v>4030.666666666667</v>
       </c>
-      <c r="BP74">
+      <c r="BR74">
         <v>10250.66666666667</v>
       </c>
-      <c r="BQ74">
+      <c r="BS74">
         <v>79349.66666666667</v>
       </c>
     </row>
@@ -11934,28 +11944,28 @@
       <c r="AR75">
         <v>29.8</v>
       </c>
-      <c r="BJ75">
+      <c r="BL75">
         <v>117.5666666666667</v>
       </c>
-      <c r="BK75">
+      <c r="BM75">
         <v>116.2</v>
       </c>
-      <c r="BL75">
+      <c r="BN75">
         <v>8878.9</v>
       </c>
-      <c r="BM75">
+      <c r="BO75">
         <v>5213.1</v>
       </c>
-      <c r="BN75">
+      <c r="BP75">
         <v>-1</v>
       </c>
-      <c r="BO75">
+      <c r="BQ75">
         <v>4065.333333333334</v>
       </c>
-      <c r="BP75">
+      <c r="BR75">
         <v>10315.33333333333</v>
       </c>
-      <c r="BQ75">
+      <c r="BS75">
         <v>83348</v>
       </c>
     </row>
@@ -12086,28 +12096,28 @@
       <c r="AR76">
         <v>29.2</v>
       </c>
-      <c r="BJ76">
+      <c r="BL76">
         <v>119</v>
       </c>
-      <c r="BK76">
+      <c r="BM76">
         <v>117.7333333333333</v>
       </c>
-      <c r="BL76">
+      <c r="BN76">
         <v>8946.299999999999</v>
       </c>
-      <c r="BM76">
+      <c r="BO76">
         <v>5315.4</v>
       </c>
-      <c r="BN76">
+      <c r="BP76">
         <v>-1</v>
       </c>
-      <c r="BO76">
+      <c r="BQ76">
         <v>4094.333333333334</v>
       </c>
-      <c r="BP76">
+      <c r="BR76">
         <v>10341.66666666667</v>
       </c>
-      <c r="BQ76">
+      <c r="BS76">
         <v>82022.66666666667</v>
       </c>
     </row>
@@ -12238,28 +12248,28 @@
       <c r="AR77">
         <v>28.6</v>
       </c>
-      <c r="BJ77">
+      <c r="BL77">
         <v>120.3</v>
       </c>
-      <c r="BK77">
+      <c r="BM77">
         <v>118.9333333333333</v>
       </c>
-      <c r="BL77">
+      <c r="BN77">
         <v>9013.700000000001</v>
       </c>
-      <c r="BM77">
+      <c r="BO77">
         <v>5401.8</v>
       </c>
-      <c r="BN77">
+      <c r="BP77">
         <v>-1</v>
       </c>
-      <c r="BO77">
+      <c r="BQ77">
         <v>4114.666666666667</v>
       </c>
-      <c r="BP77">
+      <c r="BR77">
         <v>10446.66666666667</v>
       </c>
-      <c r="BQ77">
+      <c r="BS77">
         <v>84604</v>
       </c>
     </row>
@@ -12390,28 +12400,28 @@
       <c r="AR78">
         <v>28</v>
       </c>
-      <c r="BJ78">
+      <c r="BL78">
         <v>121.6666666666667</v>
       </c>
-      <c r="BK78">
+      <c r="BM78">
         <v>120.3666666666667</v>
       </c>
-      <c r="BL78">
+      <c r="BN78">
         <v>9080.700000000001</v>
       </c>
-      <c r="BM78">
+      <c r="BO78">
         <v>5498.7</v>
       </c>
-      <c r="BN78">
+      <c r="BP78">
         <v>-1</v>
       </c>
-      <c r="BO78">
+      <c r="BQ78">
         <v>4135.666666666667</v>
       </c>
-      <c r="BP78">
+      <c r="BR78">
         <v>10510.66666666667</v>
       </c>
-      <c r="BQ78">
+      <c r="BS78">
         <v>83566.66666666667</v>
       </c>
     </row>
@@ -12542,28 +12552,28 @@
       <c r="AR79">
         <v>27.4</v>
       </c>
-      <c r="BJ79">
+      <c r="BL79">
         <v>123.6333333333333</v>
       </c>
-      <c r="BK79">
+      <c r="BM79">
         <v>122.4</v>
       </c>
-      <c r="BL79">
+      <c r="BN79">
         <v>9147.6</v>
       </c>
-      <c r="BM79">
+      <c r="BO79">
         <v>5598.2</v>
       </c>
-      <c r="BN79">
+      <c r="BP79">
         <v>-1</v>
       </c>
-      <c r="BO79">
+      <c r="BQ79">
         <v>4169</v>
       </c>
-      <c r="BP79">
+      <c r="BR79">
         <v>10566.33333333333</v>
       </c>
-      <c r="BQ79">
+      <c r="BS79">
         <v>85684</v>
       </c>
     </row>
@@ -12694,28 +12704,28 @@
       <c r="AR80">
         <v>27.1</v>
       </c>
-      <c r="BJ80">
+      <c r="BL80">
         <v>124.6</v>
       </c>
-      <c r="BK80">
+      <c r="BM80">
         <v>123.2666666666667</v>
       </c>
-      <c r="BL80">
+      <c r="BN80">
         <v>9214.200000000001</v>
       </c>
-      <c r="BM80">
+      <c r="BO80">
         <v>5680.2</v>
       </c>
-      <c r="BN80">
+      <c r="BP80">
         <v>-1</v>
       </c>
-      <c r="BO80">
+      <c r="BQ80">
         <v>4201.333333333333</v>
       </c>
-      <c r="BP80">
+      <c r="BR80">
         <v>10640.66666666667</v>
       </c>
-      <c r="BQ80">
+      <c r="BS80">
         <v>85730.33333333333</v>
       </c>
     </row>
@@ -12846,28 +12856,28 @@
       <c r="AR81">
         <v>27.3</v>
       </c>
-      <c r="BJ81">
+      <c r="BL81">
         <v>125.8666666666667</v>
       </c>
-      <c r="BK81">
+      <c r="BM81">
         <v>124.4</v>
       </c>
-      <c r="BL81">
+      <c r="BN81">
         <v>9280.700000000001</v>
       </c>
-      <c r="BM81">
+      <c r="BO81">
         <v>5761.9</v>
       </c>
-      <c r="BN81">
+      <c r="BP81">
         <v>-1</v>
       </c>
-      <c r="BO81">
+      <c r="BQ81">
         <v>4221</v>
       </c>
-      <c r="BP81">
+      <c r="BR81">
         <v>10719.66666666667</v>
       </c>
-      <c r="BQ81">
+      <c r="BS81">
         <v>89358.33333333333</v>
       </c>
     </row>
@@ -12998,28 +13008,28 @@
       <c r="AR82">
         <v>27.1</v>
       </c>
-      <c r="BJ82">
+      <c r="BL82">
         <v>128.0333333333333</v>
       </c>
-      <c r="BK82">
+      <c r="BM82">
         <v>126.5666666666667</v>
       </c>
-      <c r="BL82">
+      <c r="BN82">
         <v>9346.4</v>
       </c>
-      <c r="BM82">
+      <c r="BO82">
         <v>5865.2</v>
       </c>
-      <c r="BN82">
+      <c r="BP82">
         <v>-1</v>
       </c>
-      <c r="BO82">
+      <c r="BQ82">
         <v>4258</v>
       </c>
-      <c r="BP82">
+      <c r="BR82">
         <v>10814</v>
       </c>
-      <c r="BQ82">
+      <c r="BS82">
         <v>94388.33333333333</v>
       </c>
     </row>
@@ -13150,28 +13160,28 @@
       <c r="AR83">
         <v>27</v>
       </c>
-      <c r="BJ83">
+      <c r="BL83">
         <v>129.3</v>
       </c>
-      <c r="BK83">
+      <c r="BM83">
         <v>127.6666666666667</v>
       </c>
-      <c r="BL83">
+      <c r="BN83">
         <v>9411.5</v>
       </c>
-      <c r="BM83">
+      <c r="BO83">
         <v>5972.2</v>
       </c>
-      <c r="BN83">
+      <c r="BP83">
         <v>-1</v>
       </c>
-      <c r="BO83">
+      <c r="BQ83">
         <v>4295.666666666667</v>
       </c>
-      <c r="BP83">
+      <c r="BR83">
         <v>10873</v>
       </c>
-      <c r="BQ83">
+      <c r="BS83">
         <v>93807</v>
       </c>
     </row>
@@ -13302,28 +13312,28 @@
       <c r="AR84">
         <v>26.9</v>
       </c>
-      <c r="BJ84">
+      <c r="BL84">
         <v>131.5333333333333</v>
       </c>
-      <c r="BK84">
+      <c r="BM84">
         <v>129.8666666666667</v>
       </c>
-      <c r="BL84">
+      <c r="BN84">
         <v>9475.299999999999</v>
       </c>
-      <c r="BM84">
+      <c r="BO84">
         <v>6064.3</v>
       </c>
-      <c r="BN84">
+      <c r="BP84">
         <v>1</v>
       </c>
-      <c r="BO84">
+      <c r="BQ84">
         <v>4322.666666666667</v>
       </c>
-      <c r="BP84">
+      <c r="BR84">
         <v>10967.33333333333</v>
       </c>
-      <c r="BQ84">
+      <c r="BS84">
         <v>94972</v>
       </c>
     </row>
@@ -13454,28 +13464,28 @@
       <c r="AR85">
         <v>27</v>
       </c>
-      <c r="BJ85">
+      <c r="BL85">
         <v>133.7666666666667</v>
       </c>
-      <c r="BK85">
+      <c r="BM85">
         <v>132.1</v>
       </c>
-      <c r="BL85">
+      <c r="BN85">
         <v>9537.799999999999</v>
       </c>
-      <c r="BM85">
+      <c r="BO85">
         <v>6149.7</v>
       </c>
-      <c r="BN85">
+      <c r="BP85">
         <v>1</v>
       </c>
-      <c r="BO85">
+      <c r="BQ85">
         <v>4342.666666666667</v>
       </c>
-      <c r="BP85">
+      <c r="BR85">
         <v>11000.33333333333</v>
       </c>
-      <c r="BQ85">
+      <c r="BS85">
         <v>98807.66666666667</v>
       </c>
     </row>
@@ -13606,28 +13616,28 @@
       <c r="AR86">
         <v>27.1</v>
       </c>
-      <c r="BJ86">
+      <c r="BL86">
         <v>134.7666666666667</v>
       </c>
-      <c r="BK86">
+      <c r="BM86">
         <v>132.9333333333333</v>
       </c>
-      <c r="BL86">
+      <c r="BN86">
         <v>9599.200000000001</v>
       </c>
-      <c r="BM86">
+      <c r="BO86">
         <v>6249.9</v>
       </c>
-      <c r="BN86">
+      <c r="BP86">
         <v>1</v>
       </c>
-      <c r="BO86">
+      <c r="BQ86">
         <v>4358</v>
       </c>
-      <c r="BP86">
+      <c r="BR86">
         <v>11027</v>
       </c>
-      <c r="BQ86">
+      <c r="BS86">
         <v>95253.66666666667</v>
       </c>
     </row>
@@ -13758,28 +13768,28 @@
       <c r="AR87">
         <v>27.2</v>
       </c>
-      <c r="BJ87">
+      <c r="BL87">
         <v>135.5666666666667</v>
       </c>
-      <c r="BK87">
+      <c r="BM87">
         <v>133.7333333333334</v>
       </c>
-      <c r="BL87">
+      <c r="BN87">
         <v>9659.6</v>
       </c>
-      <c r="BM87">
+      <c r="BO87">
         <v>6335.5</v>
       </c>
-      <c r="BN87">
+      <c r="BP87">
         <v>-1</v>
       </c>
-      <c r="BO87">
+      <c r="BQ87">
         <v>4362.333333333333</v>
       </c>
-      <c r="BP87">
+      <c r="BR87">
         <v>11057.33333333333</v>
       </c>
-      <c r="BQ87">
+      <c r="BS87">
         <v>96128.66666666667</v>
       </c>
     </row>
@@ -13910,28 +13920,28 @@
       <c r="AR88">
         <v>27.5</v>
       </c>
-      <c r="BJ88">
+      <c r="BL88">
         <v>136.6</v>
       </c>
-      <c r="BK88">
+      <c r="BM88">
         <v>134.6333333333333</v>
       </c>
-      <c r="BL88">
+      <c r="BN88">
         <v>9719.4</v>
       </c>
-      <c r="BM88">
+      <c r="BO88">
         <v>6424.4</v>
       </c>
-      <c r="BN88">
+      <c r="BP88">
         <v>-1</v>
       </c>
-      <c r="BO88">
+      <c r="BQ88">
         <v>4345</v>
       </c>
-      <c r="BP88">
+      <c r="BR88">
         <v>11099.33333333333</v>
       </c>
-      <c r="BQ88">
+      <c r="BS88">
         <v>97326.33333333333</v>
       </c>
     </row>
@@ -14062,28 +14072,28 @@
       <c r="AR89">
         <v>28.1</v>
       </c>
-      <c r="BJ89">
+      <c r="BL89">
         <v>137.7333333333333</v>
       </c>
-      <c r="BK89">
+      <c r="BM89">
         <v>135.7333333333333</v>
       </c>
-      <c r="BL89">
+      <c r="BN89">
         <v>9779.4</v>
       </c>
-      <c r="BM89">
+      <c r="BO89">
         <v>6502.4</v>
       </c>
-      <c r="BN89">
+      <c r="BP89">
         <v>-1</v>
       </c>
-      <c r="BO89">
+      <c r="BQ89">
         <v>4354.333333333333</v>
       </c>
-      <c r="BP89">
+      <c r="BR89">
         <v>11139.33333333333</v>
       </c>
-      <c r="BQ89">
+      <c r="BS89">
         <v>99221</v>
       </c>
     </row>
@@ -14214,28 +14224,28 @@
       <c r="AR90">
         <v>28.6</v>
       </c>
-      <c r="BJ90">
+      <c r="BL90">
         <v>138.6666666666667</v>
       </c>
-      <c r="BK90">
+      <c r="BM90">
         <v>136.5333333333333</v>
       </c>
-      <c r="BL90">
+      <c r="BN90">
         <v>9839.700000000001</v>
       </c>
-      <c r="BM90">
+      <c r="BO90">
         <v>6566.9</v>
       </c>
-      <c r="BN90">
+      <c r="BP90">
         <v>-1</v>
       </c>
-      <c r="BO90">
+      <c r="BQ90">
         <v>4372</v>
       </c>
-      <c r="BP90">
+      <c r="BR90">
         <v>11199</v>
       </c>
-      <c r="BQ90">
+      <c r="BS90">
         <v>106368.6666666667</v>
       </c>
     </row>
@@ -14366,28 +14376,28 @@
       <c r="AR91">
         <v>29.2</v>
       </c>
-      <c r="BJ91">
+      <c r="BL91">
         <v>139.7333333333333</v>
       </c>
-      <c r="BK91">
+      <c r="BM91">
         <v>137.5666666666667</v>
       </c>
-      <c r="BL91">
+      <c r="BN91">
         <v>9900.9</v>
       </c>
-      <c r="BM91">
+      <c r="BO91">
         <v>6647.5</v>
       </c>
-      <c r="BN91">
+      <c r="BP91">
         <v>-1</v>
       </c>
-      <c r="BO91">
+      <c r="BQ91">
         <v>4395.666666666667</v>
       </c>
-      <c r="BP91">
+      <c r="BR91">
         <v>11238</v>
       </c>
-      <c r="BQ91">
+      <c r="BS91">
         <v>103446</v>
       </c>
     </row>
@@ -14518,28 +14528,28 @@
       <c r="AR92">
         <v>30.4</v>
       </c>
-      <c r="BJ92">
+      <c r="BL92">
         <v>140.8</v>
       </c>
-      <c r="BK92">
+      <c r="BM92">
         <v>138.7</v>
       </c>
-      <c r="BL92">
+      <c r="BN92">
         <v>9963.6</v>
       </c>
-      <c r="BM92">
+      <c r="BO92">
         <v>6722.2</v>
       </c>
-      <c r="BN92">
+      <c r="BP92">
         <v>-1</v>
       </c>
-      <c r="BO92">
+      <c r="BQ92">
         <v>4425.333333333333</v>
       </c>
-      <c r="BP92">
+      <c r="BR92">
         <v>11306.66666666667</v>
       </c>
-      <c r="BQ92">
+      <c r="BS92">
         <v>99580.33333333333</v>
       </c>
     </row>
@@ -14670,28 +14680,28 @@
       <c r="AR93">
         <v>32.2</v>
       </c>
-      <c r="BJ93">
+      <c r="BL93">
         <v>142.0333333333333</v>
       </c>
-      <c r="BK93">
+      <c r="BM93">
         <v>139.8</v>
       </c>
-      <c r="BL93">
+      <c r="BN93">
         <v>10027.2</v>
       </c>
-      <c r="BM93">
+      <c r="BO93">
         <v>6811.7</v>
       </c>
-      <c r="BN93">
+      <c r="BP93">
         <v>-1</v>
       </c>
-      <c r="BO93">
+      <c r="BQ93">
         <v>4438</v>
       </c>
-      <c r="BP93">
+      <c r="BR93">
         <v>11319.66666666667</v>
       </c>
-      <c r="BQ93">
+      <c r="BS93">
         <v>98022.33333333333</v>
       </c>
     </row>
@@ -14828,28 +14838,28 @@
       <c r="AR94">
         <v>35.5</v>
       </c>
-      <c r="BJ94">
+      <c r="BL94">
         <v>143.0666666666667</v>
       </c>
-      <c r="BK94">
+      <c r="BM94">
         <v>140.7666666666667</v>
       </c>
-      <c r="BL94">
+      <c r="BN94">
         <v>10091.8</v>
       </c>
-      <c r="BM94">
+      <c r="BO94">
         <v>6894</v>
       </c>
-      <c r="BN94">
+      <c r="BP94">
         <v>-1</v>
       </c>
-      <c r="BO94">
+      <c r="BQ94">
         <v>4456</v>
       </c>
-      <c r="BP94">
+      <c r="BR94">
         <v>11366.66666666667</v>
       </c>
-      <c r="BQ94">
+      <c r="BS94">
         <v>102495</v>
       </c>
     </row>
@@ -14986,28 +14996,28 @@
       <c r="AR95">
         <v>37.6</v>
       </c>
-      <c r="BJ95">
+      <c r="BL95">
         <v>144.1</v>
       </c>
-      <c r="BK95">
+      <c r="BM95">
         <v>141.7333333333334</v>
       </c>
-      <c r="BL95">
+      <c r="BN95">
         <v>10158.1</v>
       </c>
-      <c r="BM95">
+      <c r="BO95">
         <v>6980.6</v>
       </c>
-      <c r="BN95">
+      <c r="BP95">
         <v>-1</v>
       </c>
-      <c r="BO95">
+      <c r="BQ95">
         <v>4478</v>
       </c>
-      <c r="BP95">
+      <c r="BR95">
         <v>11407.66666666667</v>
       </c>
-      <c r="BQ95">
+      <c r="BS95">
         <v>111962</v>
       </c>
     </row>
@@ -15144,28 +15154,28 @@
       <c r="AR96">
         <v>37.7</v>
       </c>
-      <c r="BJ96">
+      <c r="BL96">
         <v>144.7666666666667</v>
       </c>
-      <c r="BK96">
+      <c r="BM96">
         <v>142.3333333333333</v>
       </c>
-      <c r="BL96">
+      <c r="BN96">
         <v>10225.2</v>
       </c>
-      <c r="BM96">
+      <c r="BO96">
         <v>7068.5</v>
       </c>
-      <c r="BN96">
+      <c r="BP96">
         <v>-1</v>
       </c>
-      <c r="BO96">
+      <c r="BQ96">
         <v>4496</v>
       </c>
-      <c r="BP96">
+      <c r="BR96">
         <v>11483</v>
       </c>
-      <c r="BQ96">
+      <c r="BS96">
         <v>116124.6666666667</v>
       </c>
     </row>
@@ -15302,28 +15312,28 @@
       <c r="AR97">
         <v>36</v>
       </c>
-      <c r="BJ97">
+      <c r="BL97">
         <v>145.9666666666667</v>
       </c>
-      <c r="BK97">
+      <c r="BM97">
         <v>143.4333333333333</v>
       </c>
-      <c r="BL97">
+      <c r="BN97">
         <v>10293.3</v>
       </c>
-      <c r="BM97">
+      <c r="BO97">
         <v>7154.3</v>
       </c>
-      <c r="BN97">
+      <c r="BP97">
         <v>-1</v>
       </c>
-      <c r="BO97">
+      <c r="BQ97">
         <v>4515</v>
       </c>
-      <c r="BP97">
+      <c r="BR97">
         <v>11520.66666666667</v>
       </c>
-      <c r="BQ97">
+      <c r="BS97">
         <v>118029</v>
       </c>
     </row>
@@ -15460,28 +15470,28 @@
       <c r="AR98">
         <v>33.6</v>
       </c>
-      <c r="BJ98">
+      <c r="BL98">
         <v>146.7</v>
       </c>
-      <c r="BK98">
+      <c r="BM98">
         <v>144.0333333333333</v>
       </c>
-      <c r="BL98">
+      <c r="BN98">
         <v>10362.2</v>
       </c>
-      <c r="BM98">
+      <c r="BO98">
         <v>7236.6</v>
       </c>
-      <c r="BN98">
+      <c r="BP98">
         <v>-1</v>
       </c>
-      <c r="BO98">
+      <c r="BQ98">
         <v>4523.666666666667</v>
       </c>
-      <c r="BP98">
+      <c r="BR98">
         <v>11591.33333333333</v>
       </c>
-      <c r="BQ98">
+      <c r="BS98">
         <v>111803</v>
       </c>
     </row>
@@ -15618,28 +15628,28 @@
       <c r="AR99">
         <v>32.4</v>
       </c>
-      <c r="BJ99">
+      <c r="BL99">
         <v>147.5333333333333</v>
       </c>
-      <c r="BK99">
+      <c r="BM99">
         <v>144.8666666666667</v>
       </c>
-      <c r="BL99">
+      <c r="BN99">
         <v>10431.5</v>
       </c>
-      <c r="BM99">
+      <c r="BO99">
         <v>7320.2</v>
       </c>
-      <c r="BN99">
+      <c r="BP99">
         <v>-1</v>
       </c>
-      <c r="BO99">
+      <c r="BQ99">
         <v>4555.333333333333</v>
       </c>
-      <c r="BP99">
+      <c r="BR99">
         <v>11672.33333333333</v>
       </c>
-      <c r="BQ99">
+      <c r="BS99">
         <v>113545</v>
       </c>
     </row>
@@ -15776,28 +15786,28 @@
       <c r="AR100">
         <v>31.9</v>
       </c>
-      <c r="BJ100">
+      <c r="BL100">
         <v>148.9</v>
       </c>
-      <c r="BK100">
+      <c r="BM100">
         <v>146.4</v>
       </c>
-      <c r="BL100">
+      <c r="BN100">
         <v>10502</v>
       </c>
-      <c r="BM100">
+      <c r="BO100">
         <v>7412</v>
       </c>
-      <c r="BN100">
+      <c r="BP100">
         <v>-1</v>
       </c>
-      <c r="BO100">
+      <c r="BQ100">
         <v>4600</v>
       </c>
-      <c r="BP100">
+      <c r="BR100">
         <v>11710.33333333333</v>
       </c>
-      <c r="BQ100">
+      <c r="BS100">
         <v>118942</v>
       </c>
     </row>
@@ -15934,28 +15944,28 @@
       <c r="AR101">
         <v>32.2</v>
       </c>
-      <c r="BJ101">
+      <c r="BL101">
         <v>149.7666666666667</v>
       </c>
-      <c r="BK101">
+      <c r="BM101">
         <v>147.2666666666667</v>
       </c>
-      <c r="BL101">
+      <c r="BN101">
         <v>10573.5</v>
       </c>
-      <c r="BM101">
+      <c r="BO101">
         <v>7502.9</v>
       </c>
-      <c r="BN101">
+      <c r="BP101">
         <v>-1</v>
       </c>
-      <c r="BO101">
+      <c r="BQ101">
         <v>4626.333333333333</v>
       </c>
-      <c r="BP101">
+      <c r="BR101">
         <v>11752</v>
       </c>
-      <c r="BQ101">
+      <c r="BS101">
         <v>117294.3333333333</v>
       </c>
     </row>
@@ -16092,28 +16102,28 @@
       <c r="AR102">
         <v>34</v>
       </c>
-      <c r="BJ102">
+      <c r="BL102">
         <v>150.8666666666667</v>
       </c>
-      <c r="BK102">
+      <c r="BM102">
         <v>148.3333333333333</v>
       </c>
-      <c r="BL102">
+      <c r="BN102">
         <v>10645.4</v>
       </c>
-      <c r="BM102">
+      <c r="BO102">
         <v>7595</v>
       </c>
-      <c r="BN102">
+      <c r="BP102">
         <v>-1</v>
       </c>
-      <c r="BO102">
+      <c r="BQ102">
         <v>4649.666666666667</v>
       </c>
-      <c r="BP102">
+      <c r="BR102">
         <v>11791.33333333333</v>
       </c>
-      <c r="BQ102">
+      <c r="BS102">
         <v>116848.6666666667</v>
       </c>
     </row>
@@ -16250,28 +16260,28 @@
       <c r="AR103">
         <v>34.6</v>
       </c>
-      <c r="BJ103">
+      <c r="BL103">
         <v>152.1</v>
       </c>
-      <c r="BK103">
+      <c r="BM103">
         <v>149.5</v>
       </c>
-      <c r="BL103">
+      <c r="BN103">
         <v>10718.4</v>
       </c>
-      <c r="BM103">
+      <c r="BO103">
         <v>7683.7</v>
       </c>
-      <c r="BN103">
+      <c r="BP103">
         <v>-1</v>
       </c>
-      <c r="BO103">
+      <c r="BQ103">
         <v>4643</v>
       </c>
-      <c r="BP103">
+      <c r="BR103">
         <v>11828.66666666667</v>
       </c>
-      <c r="BQ103">
+      <c r="BS103">
         <v>124434.3333333333</v>
       </c>
     </row>
@@ -16408,28 +16418,28 @@
       <c r="AR104">
         <v>35.1</v>
       </c>
-      <c r="BJ104">
+      <c r="BL104">
         <v>152.8666666666667</v>
       </c>
-      <c r="BK104">
+      <c r="BM104">
         <v>150.1666666666667</v>
       </c>
-      <c r="BL104">
+      <c r="BN104">
         <v>10792</v>
       </c>
-      <c r="BM104">
+      <c r="BO104">
         <v>7774.5</v>
       </c>
-      <c r="BN104">
+      <c r="BP104">
         <v>-1</v>
       </c>
-      <c r="BO104">
+      <c r="BQ104">
         <v>4623.666666666667</v>
       </c>
-      <c r="BP104">
+      <c r="BR104">
         <v>11868</v>
       </c>
-      <c r="BQ104">
+      <c r="BS104">
         <v>125240</v>
       </c>
     </row>
@@ -16566,28 +16576,28 @@
       <c r="AR105">
         <v>35.5</v>
       </c>
-      <c r="BJ105">
+      <c r="BL105">
         <v>153.7</v>
       </c>
-      <c r="BK105">
+      <c r="BM105">
         <v>151</v>
       </c>
-      <c r="BL105">
+      <c r="BN105">
         <v>10867.2</v>
       </c>
-      <c r="BM105">
+      <c r="BO105">
         <v>7866.5</v>
       </c>
-      <c r="BN105">
+      <c r="BP105">
         <v>-1</v>
       </c>
-      <c r="BO105">
+      <c r="BQ105">
         <v>4624.666666666667</v>
       </c>
-      <c r="BP105">
+      <c r="BR105">
         <v>11923</v>
       </c>
-      <c r="BQ105">
+      <c r="BS105">
         <v>127572.6666666667</v>
       </c>
     </row>
@@ -16724,28 +16734,28 @@
       <c r="AR106">
         <v>35.5</v>
       </c>
-      <c r="BJ106">
+      <c r="BL106">
         <v>155.0666666666667</v>
       </c>
-      <c r="BK106">
+      <c r="BM106">
         <v>152.4</v>
       </c>
-      <c r="BL106">
+      <c r="BN106">
         <v>10943.8</v>
       </c>
-      <c r="BM106">
+      <c r="BO106">
         <v>7960.1</v>
       </c>
-      <c r="BN106">
+      <c r="BP106">
         <v>-1</v>
       </c>
-      <c r="BO106">
+      <c r="BQ106">
         <v>4621.333333333333</v>
       </c>
-      <c r="BP106">
+      <c r="BR106">
         <v>11966</v>
       </c>
-      <c r="BQ106">
+      <c r="BS106">
         <v>126179.3333333333</v>
       </c>
     </row>
@@ -16882,28 +16892,28 @@
       <c r="AR107">
         <v>35.4</v>
       </c>
-      <c r="BJ107">
+      <c r="BL107">
         <v>156.4</v>
       </c>
-      <c r="BK107">
+      <c r="BM107">
         <v>153.7333333333334</v>
       </c>
-      <c r="BL107">
+      <c r="BN107">
         <v>11025.2</v>
       </c>
-      <c r="BM107">
+      <c r="BO107">
         <v>8052.5</v>
       </c>
-      <c r="BN107">
+      <c r="BP107">
         <v>-1</v>
       </c>
-      <c r="BO107">
+      <c r="BQ107">
         <v>4618.333333333333</v>
       </c>
-      <c r="BP107">
+      <c r="BR107">
         <v>12017.33333333333</v>
       </c>
-      <c r="BQ107">
+      <c r="BS107">
         <v>131672</v>
       </c>
     </row>
@@ -17040,28 +17050,28 @@
       <c r="AR108">
         <v>35.2</v>
       </c>
-      <c r="BJ108">
+      <c r="BL108">
         <v>157.3</v>
       </c>
-      <c r="BK108">
+      <c r="BM108">
         <v>154.5666666666667</v>
       </c>
-      <c r="BL108">
+      <c r="BN108">
         <v>11112.4</v>
       </c>
-      <c r="BM108">
+      <c r="BO108">
         <v>8142.7</v>
       </c>
-      <c r="BN108">
+      <c r="BP108">
         <v>-1</v>
       </c>
-      <c r="BO108">
+      <c r="BQ108">
         <v>4600.333333333333</v>
       </c>
-      <c r="BP108">
+      <c r="BR108">
         <v>12067</v>
       </c>
-      <c r="BQ108">
+      <c r="BS108">
         <v>131615</v>
       </c>
     </row>
@@ -17198,28 +17208,28 @@
       <c r="AR109">
         <v>34.8</v>
       </c>
-      <c r="BJ109">
+      <c r="BL109">
         <v>158.6666666666667</v>
       </c>
-      <c r="BK109">
+      <c r="BM109">
         <v>155.8666666666667</v>
       </c>
-      <c r="BL109">
+      <c r="BN109">
         <v>11205.1</v>
       </c>
-      <c r="BM109">
+      <c r="BO109">
         <v>8254.6</v>
       </c>
-      <c r="BN109">
+      <c r="BP109">
         <v>-1</v>
       </c>
-      <c r="BO109">
+      <c r="BQ109">
         <v>4581.333333333333</v>
       </c>
-      <c r="BP109">
+      <c r="BR109">
         <v>12139</v>
       </c>
-      <c r="BQ109">
+      <c r="BS109">
         <v>135638.6666666667</v>
       </c>
     </row>
@@ -17356,28 +17366,28 @@
       <c r="AR110">
         <v>34.4</v>
       </c>
-      <c r="BJ110">
+      <c r="BL110">
         <v>159.6333333333333</v>
       </c>
-      <c r="BK110">
+      <c r="BM110">
         <v>156.8</v>
       </c>
-      <c r="BL110">
+      <c r="BN110">
         <v>11303.2</v>
       </c>
-      <c r="BM110">
+      <c r="BO110">
         <v>8376.4</v>
       </c>
-      <c r="BN110">
+      <c r="BP110">
         <v>-1</v>
       </c>
-      <c r="BO110">
+      <c r="BQ110">
         <v>4574.333333333333</v>
       </c>
-      <c r="BP110">
+      <c r="BR110">
         <v>12185.66666666667</v>
       </c>
-      <c r="BQ110">
+      <c r="BS110">
         <v>135471.6666666667</v>
       </c>
     </row>
@@ -17514,28 +17524,28 @@
       <c r="AR111">
         <v>33.6</v>
       </c>
-      <c r="BJ111">
+      <c r="BL111">
         <v>160</v>
       </c>
-      <c r="BK111">
+      <c r="BM111">
         <v>157.1</v>
       </c>
-      <c r="BL111">
+      <c r="BN111">
         <v>11406</v>
       </c>
-      <c r="BM111">
+      <c r="BO111">
         <v>8469.700000000001</v>
       </c>
-      <c r="BN111">
+      <c r="BP111">
         <v>-1</v>
       </c>
-      <c r="BO111">
+      <c r="BQ111">
         <v>4577</v>
       </c>
-      <c r="BP111">
+      <c r="BR111">
         <v>12229.66666666667</v>
       </c>
-      <c r="BQ111">
+      <c r="BS111">
         <v>139479.3333333333</v>
       </c>
     </row>
@@ -17672,28 +17682,28 @@
       <c r="AR112">
         <v>33.4</v>
       </c>
-      <c r="BJ112">
+      <c r="BL112">
         <v>160.8</v>
       </c>
-      <c r="BK112">
+      <c r="BM112">
         <v>157.8</v>
       </c>
-      <c r="BL112">
+      <c r="BN112">
         <v>11513.8</v>
       </c>
-      <c r="BM112">
+      <c r="BO112">
         <v>8586.9</v>
       </c>
-      <c r="BN112">
+      <c r="BP112">
         <v>-1</v>
       </c>
-      <c r="BO112">
+      <c r="BQ112">
         <v>4589</v>
       </c>
-      <c r="BP112">
+      <c r="BR112">
         <v>12296</v>
       </c>
-      <c r="BQ112">
+      <c r="BS112">
         <v>141385.3333333333</v>
       </c>
     </row>
@@ -17830,28 +17840,28 @@
       <c r="AR113">
         <v>33.8</v>
       </c>
-      <c r="BJ113">
+      <c r="BL113">
         <v>161.6666666666667</v>
       </c>
-      <c r="BK113">
+      <c r="BM113">
         <v>158.5333333333333</v>
       </c>
-      <c r="BL113">
+      <c r="BN113">
         <v>11625.6</v>
       </c>
-      <c r="BM113">
+      <c r="BO113">
         <v>8698.700000000001</v>
       </c>
-      <c r="BN113">
+      <c r="BP113">
         <v>-1</v>
       </c>
-      <c r="BO113">
+      <c r="BQ113">
         <v>4583</v>
       </c>
-      <c r="BP113">
+      <c r="BR113">
         <v>12380</v>
       </c>
-      <c r="BQ113">
+      <c r="BS113">
         <v>140102.6666666667</v>
       </c>
     </row>
@@ -17988,28 +17998,28 @@
       <c r="AR114">
         <v>33.8</v>
       </c>
-      <c r="BJ114">
+      <c r="BL114">
         <v>162</v>
       </c>
-      <c r="BK114">
+      <c r="BM114">
         <v>158.7333333333333</v>
       </c>
-      <c r="BL114">
+      <c r="BN114">
         <v>11741</v>
       </c>
-      <c r="BM114">
+      <c r="BO114">
         <v>8797.9</v>
       </c>
-      <c r="BN114">
+      <c r="BP114">
         <v>-1</v>
       </c>
-      <c r="BO114">
+      <c r="BQ114">
         <v>4578</v>
       </c>
-      <c r="BP114">
+      <c r="BR114">
         <v>12437.33333333333</v>
       </c>
-      <c r="BQ114">
+      <c r="BS114">
         <v>133975</v>
       </c>
     </row>
@@ -18146,28 +18156,28 @@
       <c r="AR115">
         <v>35</v>
       </c>
-      <c r="BJ115">
+      <c r="BL115">
         <v>162.5333333333333</v>
       </c>
-      <c r="BK115">
+      <c r="BM115">
         <v>159.2</v>
       </c>
-      <c r="BL115">
+      <c r="BN115">
         <v>11860</v>
       </c>
-      <c r="BM115">
+      <c r="BO115">
         <v>8908.1</v>
       </c>
-      <c r="BN115">
+      <c r="BP115">
         <v>-1</v>
       </c>
-      <c r="BO115">
+      <c r="BQ115">
         <v>4596.666666666667</v>
       </c>
-      <c r="BP115">
+      <c r="BR115">
         <v>12501.33333333333</v>
       </c>
-      <c r="BQ115">
+      <c r="BS115">
         <v>137818</v>
       </c>
     </row>
@@ -18304,28 +18314,28 @@
       <c r="AR116">
         <v>36.8</v>
       </c>
-      <c r="BJ116">
+      <c r="BL116">
         <v>163.3666666666667</v>
       </c>
-      <c r="BK116">
+      <c r="BM116">
         <v>159.9666666666667</v>
       </c>
-      <c r="BL116">
+      <c r="BN116">
         <v>11981.4</v>
       </c>
-      <c r="BM116">
+      <c r="BO116">
         <v>9038</v>
       </c>
-      <c r="BN116">
+      <c r="BP116">
         <v>-1</v>
       </c>
-      <c r="BO116">
+      <c r="BQ116">
         <v>4631.666666666667</v>
       </c>
-      <c r="BP116">
+      <c r="BR116">
         <v>12553.33333333333</v>
       </c>
-      <c r="BQ116">
+      <c r="BS116">
         <v>143529.3333333333</v>
       </c>
     </row>
@@ -18462,28 +18472,28 @@
       <c r="AR117">
         <v>39.9</v>
       </c>
-      <c r="BJ117">
+      <c r="BL117">
         <v>164.1333333333333</v>
       </c>
-      <c r="BK117">
+      <c r="BM117">
         <v>160.7666666666667</v>
       </c>
-      <c r="BL117">
+      <c r="BN117">
         <v>12105</v>
       </c>
-      <c r="BM117">
+      <c r="BO117">
         <v>9156.299999999999</v>
       </c>
-      <c r="BN117">
+      <c r="BP117">
         <v>-1</v>
       </c>
-      <c r="BO117">
+      <c r="BQ117">
         <v>4640.666666666667</v>
       </c>
-      <c r="BP117">
+      <c r="BR117">
         <v>12616.33333333333</v>
       </c>
-      <c r="BQ117">
+      <c r="BS117">
         <v>144434.6666666667</v>
       </c>
     </row>
@@ -18620,28 +18630,28 @@
       <c r="AR118">
         <v>42.4</v>
       </c>
-      <c r="BJ118">
+      <c r="BL118">
         <v>164.7333333333333</v>
       </c>
-      <c r="BK118">
+      <c r="BM118">
         <v>161.3666666666667</v>
       </c>
-      <c r="BL118">
+      <c r="BN118">
         <v>12231.2</v>
       </c>
-      <c r="BM118">
+      <c r="BO118">
         <v>9286.700000000001</v>
       </c>
-      <c r="BN118">
+      <c r="BP118">
         <v>-1</v>
       </c>
-      <c r="BO118">
+      <c r="BQ118">
         <v>4669</v>
       </c>
-      <c r="BP118">
+      <c r="BR118">
         <v>12694.66666666667</v>
       </c>
-      <c r="BQ118">
+      <c r="BS118">
         <v>150497</v>
       </c>
     </row>
@@ -18778,28 +18788,28 @@
       <c r="AR119">
         <v>45</v>
       </c>
-      <c r="BJ119">
+      <c r="BL119">
         <v>165.9666666666667</v>
       </c>
-      <c r="BK119">
+      <c r="BM119">
         <v>162.5333333333333</v>
       </c>
-      <c r="BL119">
+      <c r="BN119">
         <v>12359</v>
       </c>
-      <c r="BM119">
+      <c r="BO119">
         <v>9417.799999999999</v>
       </c>
-      <c r="BN119">
+      <c r="BP119">
         <v>-1</v>
       </c>
-      <c r="BO119">
+      <c r="BQ119">
         <v>4688.333333333333</v>
       </c>
-      <c r="BP119">
+      <c r="BR119">
         <v>12783.33333333333</v>
       </c>
-      <c r="BQ119">
+      <c r="BS119">
         <v>152515.3333333333</v>
       </c>
     </row>
@@ -18936,28 +18946,28 @@
       <c r="AR120">
         <v>46.4</v>
       </c>
-      <c r="BJ120">
+      <c r="BL120">
         <v>167.2</v>
       </c>
-      <c r="BK120">
+      <c r="BM120">
         <v>163.9</v>
       </c>
-      <c r="BL120">
+      <c r="BN120">
         <v>12488.9</v>
       </c>
-      <c r="BM120">
+      <c r="BO120">
         <v>9549.299999999999</v>
       </c>
-      <c r="BN120">
+      <c r="BP120">
         <v>-1</v>
       </c>
-      <c r="BO120">
+      <c r="BQ120">
         <v>4717.333333333333</v>
       </c>
-      <c r="BP120">
+      <c r="BR120">
         <v>12887.33333333333</v>
       </c>
-      <c r="BQ120">
+      <c r="BS120">
         <v>155465.3333333333</v>
       </c>
     </row>
@@ -19094,28 +19104,28 @@
       <c r="AR121">
         <v>46.9</v>
       </c>
-      <c r="BJ121">
+      <c r="BL121">
         <v>168.4333333333333</v>
       </c>
-      <c r="BK121">
+      <c r="BM121">
         <v>165.2</v>
       </c>
-      <c r="BL121">
+      <c r="BN121">
         <v>12621</v>
       </c>
-      <c r="BM121">
+      <c r="BO121">
         <v>9702.1</v>
       </c>
-      <c r="BN121">
+      <c r="BP121">
         <v>-1</v>
       </c>
-      <c r="BO121">
+      <c r="BQ121">
         <v>4757.333333333333</v>
       </c>
-      <c r="BP121">
+      <c r="BR121">
         <v>12972.33333333333</v>
       </c>
-      <c r="BQ121">
+      <c r="BS121">
         <v>163365.3333333333</v>
       </c>
     </row>
@@ -19252,28 +19262,28 @@
       <c r="AR122">
         <v>45.1</v>
       </c>
-      <c r="BJ122">
+      <c r="BL122">
         <v>170.1</v>
       </c>
-      <c r="BK122">
+      <c r="BM122">
         <v>166.8333333333333</v>
       </c>
-      <c r="BL122">
+      <c r="BN122">
         <v>12754.4</v>
       </c>
-      <c r="BM122">
+      <c r="BO122">
         <v>9871.5</v>
       </c>
-      <c r="BN122">
+      <c r="BP122">
         <v>-1</v>
       </c>
-      <c r="BO122">
+      <c r="BQ122">
         <v>4768</v>
       </c>
-      <c r="BP122">
+      <c r="BR122">
         <v>13050.33333333333</v>
       </c>
-      <c r="BQ122">
+      <c r="BS122">
         <v>168776.3333333333</v>
       </c>
     </row>
@@ -19410,28 +19420,28 @@
       <c r="AR123">
         <v>45.5</v>
       </c>
-      <c r="BJ123">
+      <c r="BL123">
         <v>171.4333333333333</v>
       </c>
-      <c r="BK123">
+      <c r="BM123">
         <v>168.1666666666667</v>
       </c>
-      <c r="BL123">
+      <c r="BN123">
         <v>12885.1</v>
       </c>
-      <c r="BM123">
+      <c r="BO123">
         <v>10033</v>
       </c>
-      <c r="BN123">
+      <c r="BP123">
         <v>-1</v>
       </c>
-      <c r="BO123">
+      <c r="BQ123">
         <v>4779.333333333333</v>
       </c>
-      <c r="BP123">
+      <c r="BR123">
         <v>13113</v>
       </c>
-      <c r="BQ123">
+      <c r="BS123">
         <v>165200.6666666667</v>
       </c>
     </row>
@@ -19568,28 +19578,28 @@
       <c r="AR124">
         <v>45.8</v>
       </c>
-      <c r="BJ124">
+      <c r="BL124">
         <v>173</v>
       </c>
-      <c r="BK124">
+      <c r="BM124">
         <v>169.7</v>
       </c>
-      <c r="BL124">
+      <c r="BN124">
         <v>13011.4</v>
       </c>
-      <c r="BM124">
+      <c r="BO124">
         <v>10189</v>
       </c>
-      <c r="BN124">
+      <c r="BP124">
         <v>-1</v>
       </c>
-      <c r="BO124">
+      <c r="BQ124">
         <v>4793.333333333333</v>
       </c>
-      <c r="BP124">
+      <c r="BR124">
         <v>13168</v>
       </c>
-      <c r="BQ124">
+      <c r="BS124">
         <v>166145</v>
       </c>
     </row>
@@ -19726,28 +19736,28 @@
       <c r="AR125">
         <v>47</v>
       </c>
-      <c r="BJ125">
+      <c r="BL125">
         <v>174.2333333333333</v>
       </c>
-      <c r="BK125">
+      <c r="BM125">
         <v>170.8333333333333</v>
       </c>
-      <c r="BL125">
+      <c r="BN125">
         <v>13131.9</v>
       </c>
-      <c r="BM125">
+      <c r="BO125">
         <v>10337.8</v>
       </c>
-      <c r="BN125">
+      <c r="BP125">
         <v>-1</v>
       </c>
-      <c r="BO125">
+      <c r="BQ125">
         <v>4809</v>
       </c>
-      <c r="BP125">
+      <c r="BR125">
         <v>13220.66666666667</v>
       </c>
-      <c r="BQ125">
+      <c r="BS125">
         <v>170616.6666666667</v>
       </c>
     </row>
@@ -19884,28 +19894,28 @@
       <c r="AR126">
         <v>55.2</v>
       </c>
-      <c r="BJ126">
+      <c r="BL126">
         <v>175.9</v>
       </c>
-      <c r="BK126">
+      <c r="BM126">
         <v>172.4333333333333</v>
       </c>
-      <c r="BL126">
+      <c r="BN126">
         <v>13247.1</v>
       </c>
-      <c r="BM126">
+      <c r="BO126">
         <v>10492.2</v>
       </c>
-      <c r="BN126">
+      <c r="BP126">
         <v>1</v>
       </c>
-      <c r="BO126">
+      <c r="BQ126">
         <v>4832</v>
       </c>
-      <c r="BP126">
+      <c r="BR126">
         <v>13310</v>
       </c>
-      <c r="BQ126">
+      <c r="BS126">
         <v>176411.3333333333</v>
       </c>
     </row>
@@ -20042,28 +20052,28 @@
       <c r="AR127">
         <v>62</v>
       </c>
-      <c r="BJ127">
+      <c r="BL127">
         <v>177.1333333333333</v>
       </c>
-      <c r="BK127">
+      <c r="BM127">
         <v>173.7333333333334</v>
       </c>
-      <c r="BL127">
+      <c r="BN127">
         <v>13356.2</v>
       </c>
-      <c r="BM127">
+      <c r="BO127">
         <v>10642.6</v>
       </c>
-      <c r="BN127">
+      <c r="BP127">
         <v>1</v>
       </c>
-      <c r="BO127">
+      <c r="BQ127">
         <v>4877.666666666667</v>
       </c>
-      <c r="BP127">
+      <c r="BR127">
         <v>13410.66666666667</v>
       </c>
-      <c r="BQ127">
+      <c r="BS127">
         <v>189275.6666666667</v>
       </c>
     </row>
@@ -20200,28 +20210,28 @@
       <c r="AR128">
         <v>71.2</v>
       </c>
-      <c r="BJ128">
+      <c r="BL128">
         <v>177.6333333333333</v>
       </c>
-      <c r="BK128">
+      <c r="BM128">
         <v>174.1</v>
       </c>
-      <c r="BL128">
+      <c r="BN128">
         <v>13459.7</v>
       </c>
-      <c r="BM128">
+      <c r="BO128">
         <v>10768.3</v>
       </c>
-      <c r="BN128">
+      <c r="BP128">
         <v>1</v>
       </c>
-      <c r="BO128">
+      <c r="BQ128">
         <v>4936.666666666667</v>
       </c>
-      <c r="BP128">
+      <c r="BR128">
         <v>13500.66666666667</v>
       </c>
-      <c r="BQ128">
+      <c r="BS128">
         <v>187116</v>
       </c>
     </row>
@@ -20358,28 +20368,28 @@
       <c r="AR129">
         <v>46.4</v>
       </c>
-      <c r="BJ129">
+      <c r="BL129">
         <v>177.5</v>
       </c>
-      <c r="BK129">
+      <c r="BM129">
         <v>173.6666666666667</v>
       </c>
-      <c r="BL129">
+      <c r="BN129">
         <v>13557.8</v>
       </c>
-      <c r="BM129">
+      <c r="BO129">
         <v>10882.5</v>
       </c>
-      <c r="BN129">
+      <c r="BP129">
         <v>1</v>
       </c>
-      <c r="BO129">
+      <c r="BQ129">
         <v>4977.333333333333</v>
       </c>
-      <c r="BP129">
+      <c r="BR129">
         <v>13583.66666666667</v>
       </c>
-      <c r="BQ129">
+      <c r="BS129">
         <v>193037.6666666667</v>
       </c>
     </row>
@@ -20516,28 +20526,28 @@
       <c r="AR130">
         <v>42.6</v>
       </c>
-      <c r="BJ130">
+      <c r="BL130">
         <v>178.0666666666667</v>
       </c>
-      <c r="BK130">
+      <c r="BM130">
         <v>174.0333333333333</v>
       </c>
-      <c r="BL130">
+      <c r="BN130">
         <v>13651.1</v>
       </c>
-      <c r="BM130">
+      <c r="BO130">
         <v>10993.6</v>
       </c>
-      <c r="BN130">
+      <c r="BP130">
         <v>-1</v>
       </c>
-      <c r="BO130">
+      <c r="BQ130">
         <v>5004.333333333333</v>
       </c>
-      <c r="BP130">
+      <c r="BR130">
         <v>13639</v>
       </c>
-      <c r="BQ130">
+      <c r="BS130">
         <v>198023.3333333333</v>
       </c>
     </row>
@@ -20674,28 +20684,28 @@
       <c r="AR131">
         <v>39.8</v>
       </c>
-      <c r="BJ131">
+      <c r="BL131">
         <v>179.4666666666667</v>
       </c>
-      <c r="BK131">
+      <c r="BM131">
         <v>175.5333333333333</v>
       </c>
-      <c r="BL131">
+      <c r="BN131">
         <v>13741.2</v>
       </c>
-      <c r="BM131">
+      <c r="BO131">
         <v>11105.7</v>
       </c>
-      <c r="BN131">
+      <c r="BP131">
         <v>-1</v>
       </c>
-      <c r="BO131">
+      <c r="BQ131">
         <v>5039</v>
       </c>
-      <c r="BP131">
+      <c r="BR131">
         <v>13699.33333333333</v>
       </c>
-      <c r="BQ131">
+      <c r="BS131">
         <v>194794</v>
       </c>
     </row>
@@ -20832,28 +20842,28 @@
       <c r="AR132">
         <v>41.3</v>
       </c>
-      <c r="BJ132">
+      <c r="BL132">
         <v>180.4333333333333</v>
       </c>
-      <c r="BK132">
+      <c r="BM132">
         <v>176.5</v>
       </c>
-      <c r="BL132">
+      <c r="BN132">
         <v>13829.2</v>
       </c>
-      <c r="BM132">
+      <c r="BO132">
         <v>11228.4</v>
       </c>
-      <c r="BN132">
+      <c r="BP132">
         <v>-1</v>
       </c>
-      <c r="BO132">
+      <c r="BQ132">
         <v>5052.666666666667</v>
       </c>
-      <c r="BP132">
+      <c r="BR132">
         <v>13744.66666666667</v>
       </c>
-      <c r="BQ132">
+      <c r="BS132">
         <v>196443.6666666667</v>
       </c>
     </row>
@@ -20990,28 +21000,28 @@
       <c r="AR133">
         <v>41.9</v>
       </c>
-      <c r="BJ133">
+      <c r="BL133">
         <v>181.5</v>
       </c>
-      <c r="BK133">
+      <c r="BM133">
         <v>177.4666666666667</v>
       </c>
-      <c r="BL133">
+      <c r="BN133">
         <v>13916</v>
       </c>
-      <c r="BM133">
+      <c r="BO133">
         <v>11363</v>
       </c>
-      <c r="BN133">
+      <c r="BP133">
         <v>-1</v>
       </c>
-      <c r="BO133">
+      <c r="BQ133">
         <v>5020.666666666667</v>
       </c>
-      <c r="BP133">
+      <c r="BR133">
         <v>13775</v>
       </c>
-      <c r="BQ133">
+      <c r="BS133">
         <v>199770.6666666667</v>
       </c>
     </row>
@@ -21148,28 +21158,28 @@
       <c r="AR134">
         <v>47.1</v>
       </c>
-      <c r="BJ134">
+      <c r="BL134">
         <v>183.3666666666667</v>
       </c>
-      <c r="BK134">
+      <c r="BM134">
         <v>179.4666666666667</v>
       </c>
-      <c r="BL134">
+      <c r="BN134">
         <v>14002.4</v>
       </c>
-      <c r="BM134">
+      <c r="BO134">
         <v>11485.5</v>
       </c>
-      <c r="BN134">
+      <c r="BP134">
         <v>-1</v>
       </c>
-      <c r="BO134">
+      <c r="BQ134">
         <v>5029.333333333333</v>
       </c>
-      <c r="BP134">
+      <c r="BR134">
         <v>13801</v>
       </c>
-      <c r="BQ134">
+      <c r="BS134">
         <v>197410.6666666667</v>
       </c>
     </row>
@@ -21306,28 +21316,28 @@
       <c r="AR135">
         <v>57.1</v>
       </c>
-      <c r="BJ135">
+      <c r="BL135">
         <v>183.0666666666667</v>
       </c>
-      <c r="BK135">
+      <c r="BM135">
         <v>178.9333333333333</v>
       </c>
-      <c r="BL135">
+      <c r="BN135">
         <v>14089.7</v>
       </c>
-      <c r="BM135">
+      <c r="BO135">
         <v>11591.1</v>
       </c>
-      <c r="BN135">
+      <c r="BP135">
         <v>-1</v>
       </c>
-      <c r="BO135">
+      <c r="BQ135">
         <v>5007.666666666667</v>
       </c>
-      <c r="BP135">
+      <c r="BR135">
         <v>13820</v>
       </c>
-      <c r="BQ135">
+      <c r="BS135">
         <v>195858</v>
       </c>
     </row>
@@ -21464,28 +21474,28 @@
       <c r="AR136">
         <v>45.9</v>
       </c>
-      <c r="BJ136">
+      <c r="BL136">
         <v>184.4333333333333</v>
       </c>
-      <c r="BK136">
+      <c r="BM136">
         <v>180.2</v>
       </c>
-      <c r="BL136">
+      <c r="BN136">
         <v>14177.4</v>
       </c>
-      <c r="BM136">
+      <c r="BO136">
         <v>11726.4</v>
       </c>
-      <c r="BN136">
+      <c r="BP136">
         <v>-1</v>
       </c>
-      <c r="BO136">
+      <c r="BQ136">
         <v>4978.666666666667</v>
       </c>
-      <c r="BP136">
+      <c r="BR136">
         <v>13832.33333333333</v>
       </c>
-      <c r="BQ136">
+      <c r="BS136">
         <v>200686</v>
       </c>
     </row>
@@ -21622,28 +21632,28 @@
       <c r="AR137">
         <v>46</v>
       </c>
-      <c r="BJ137">
+      <c r="BL137">
         <v>185.1333333333333</v>
       </c>
-      <c r="BK137">
+      <c r="BM137">
         <v>180.7333333333334</v>
       </c>
-      <c r="BL137">
+      <c r="BN137">
         <v>14266.5</v>
       </c>
-      <c r="BM137">
+      <c r="BO137">
         <v>11869.8</v>
       </c>
-      <c r="BN137">
+      <c r="BP137">
         <v>-1</v>
       </c>
-      <c r="BO137">
+      <c r="BQ137">
         <v>4985.333333333333</v>
       </c>
-      <c r="BP137">
+      <c r="BR137">
         <v>13824.33333333333</v>
       </c>
-      <c r="BQ137">
+      <c r="BS137">
         <v>199340</v>
       </c>
     </row>
@@ -21780,28 +21790,28 @@
       <c r="AR138">
         <v>44.2</v>
       </c>
-      <c r="BJ138">
+      <c r="BL138">
         <v>186.7</v>
       </c>
-      <c r="BK138">
+      <c r="BM138">
         <v>182.3333333333333</v>
       </c>
-      <c r="BL138">
+      <c r="BN138">
         <v>14357.5</v>
       </c>
-      <c r="BM138">
+      <c r="BO138">
         <v>12034.5</v>
       </c>
-      <c r="BN138">
+      <c r="BP138">
         <v>-1</v>
       </c>
-      <c r="BO138">
+      <c r="BQ138">
         <v>4968.333333333333</v>
       </c>
-      <c r="BP138">
+      <c r="BR138">
         <v>13859</v>
       </c>
-      <c r="BQ138">
+      <c r="BS138">
         <v>197322.3333333333</v>
       </c>
     </row>
@@ -21938,28 +21948,28 @@
       <c r="AR139">
         <v>43.7</v>
       </c>
-      <c r="BJ139">
+      <c r="BL139">
         <v>188.1666666666667</v>
       </c>
-      <c r="BK139">
+      <c r="BM139">
         <v>183.6666666666667</v>
       </c>
-      <c r="BL139">
+      <c r="BN139">
         <v>14450.4</v>
       </c>
-      <c r="BM139">
+      <c r="BO139">
         <v>12211.2</v>
       </c>
-      <c r="BN139">
+      <c r="BP139">
         <v>-1</v>
       </c>
-      <c r="BO139">
+      <c r="BQ139">
         <v>4974</v>
       </c>
-      <c r="BP139">
+      <c r="BR139">
         <v>13898</v>
       </c>
-      <c r="BQ139">
+      <c r="BS139">
         <v>202356.3333333333</v>
       </c>
     </row>
@@ -22096,28 +22106,28 @@
       <c r="AR140">
         <v>45.4</v>
       </c>
-      <c r="BJ140">
+      <c r="BL140">
         <v>189.3666666666667</v>
       </c>
-      <c r="BK140">
+      <c r="BM140">
         <v>184.8666666666667</v>
       </c>
-      <c r="BL140">
+      <c r="BN140">
         <v>14545.5</v>
       </c>
-      <c r="BM140">
+      <c r="BO140">
         <v>12371.8</v>
       </c>
-      <c r="BN140">
+      <c r="BP140">
         <v>-1</v>
       </c>
-      <c r="BO140">
+      <c r="BQ140">
         <v>4984</v>
       </c>
-      <c r="BP140">
+      <c r="BR140">
         <v>13909.33333333333</v>
       </c>
-      <c r="BQ140">
+      <c r="BS140">
         <v>202328</v>
       </c>
     </row>
@@ -22254,28 +22264,28 @@
       <c r="AR141">
         <v>52.3</v>
       </c>
-      <c r="BJ141">
+      <c r="BL141">
         <v>191.4</v>
       </c>
-      <c r="BK141">
+      <c r="BM141">
         <v>187.0666666666667</v>
       </c>
-      <c r="BL141">
+      <c r="BN141">
         <v>14642.1</v>
       </c>
-      <c r="BM141">
+      <c r="BO141">
         <v>12550</v>
       </c>
-      <c r="BN141">
+      <c r="BP141">
         <v>-1</v>
       </c>
-      <c r="BO141">
+      <c r="BQ141">
         <v>4995.333333333333</v>
       </c>
-      <c r="BP141">
+      <c r="BR141">
         <v>13958.66666666667</v>
       </c>
-      <c r="BQ141">
+      <c r="BS141">
         <v>204931</v>
       </c>
     </row>
@@ -22412,28 +22422,28 @@
       <c r="AR142">
         <v>56.7</v>
       </c>
-      <c r="BJ142">
+      <c r="BL142">
         <v>192.3666666666667</v>
       </c>
-      <c r="BK142">
+      <c r="BM142">
         <v>187.9333333333333</v>
       </c>
-      <c r="BL142">
+      <c r="BN142">
         <v>14737.1</v>
       </c>
-      <c r="BM142">
+      <c r="BO142">
         <v>12731.5</v>
       </c>
-      <c r="BN142">
+      <c r="BP142">
         <v>-1</v>
       </c>
-      <c r="BO142">
+      <c r="BQ142">
         <v>5015.666666666667</v>
       </c>
-      <c r="BP142">
+      <c r="BR142">
         <v>13994.66666666667</v>
       </c>
-      <c r="BQ142">
+      <c r="BS142">
         <v>207202</v>
       </c>
     </row>
@@ -22570,28 +22580,28 @@
       <c r="AR143">
         <v>60.7</v>
       </c>
-      <c r="BJ143">
+      <c r="BL143">
         <v>193.6666666666667</v>
       </c>
-      <c r="BK143">
+      <c r="BM143">
         <v>189.2333333333334</v>
       </c>
-      <c r="BL143">
+      <c r="BN143">
         <v>14829.4</v>
       </c>
-      <c r="BM143">
+      <c r="BO143">
         <v>12901</v>
       </c>
-      <c r="BN143">
+      <c r="BP143">
         <v>-1</v>
       </c>
-      <c r="BO143">
+      <c r="BQ143">
         <v>5023.333333333333</v>
       </c>
-      <c r="BP143">
+      <c r="BR143">
         <v>14012</v>
       </c>
-      <c r="BQ143">
+      <c r="BS143">
         <v>215946</v>
       </c>
     </row>
@@ -22728,28 +22738,28 @@
       <c r="AR144">
         <v>62</v>
       </c>
-      <c r="BJ144">
+      <c r="BL144">
         <v>196.6</v>
       </c>
-      <c r="BK144">
+      <c r="BM144">
         <v>192.5666666666667</v>
       </c>
-      <c r="BL144">
+      <c r="BN144">
         <v>14920.2</v>
       </c>
-      <c r="BM144">
+      <c r="BO144">
         <v>13097.4</v>
       </c>
-      <c r="BN144">
+      <c r="BP144">
         <v>-1</v>
       </c>
-      <c r="BO144">
+      <c r="BQ144">
         <v>5039.333333333333</v>
       </c>
-      <c r="BP144">
+      <c r="BR144">
         <v>14085.33333333333</v>
       </c>
-      <c r="BQ144">
+      <c r="BS144">
         <v>219407.6666666667</v>
       </c>
     </row>
@@ -22886,28 +22896,28 @@
       <c r="AR145">
         <v>64.2</v>
       </c>
-      <c r="BJ145">
+      <c r="BL145">
         <v>198.4333333333333</v>
       </c>
-      <c r="BK145">
+      <c r="BM145">
         <v>194.2</v>
       </c>
-      <c r="BL145">
+      <c r="BN145">
         <v>15008.9</v>
       </c>
-      <c r="BM145">
+      <c r="BO145">
         <v>13281.3</v>
       </c>
-      <c r="BN145">
+      <c r="BP145">
         <v>-1</v>
       </c>
-      <c r="BO145">
+      <c r="BQ145">
         <v>5047.666666666667</v>
       </c>
-      <c r="BP145">
+      <c r="BR145">
         <v>14072.33333333333</v>
       </c>
-      <c r="BQ145">
+      <c r="BS145">
         <v>222763.6666666667</v>
       </c>
     </row>
@@ -23044,28 +23054,28 @@
       <c r="AR146">
         <v>55.7</v>
       </c>
-      <c r="BJ146">
+      <c r="BL146">
         <v>199.4666666666667</v>
       </c>
-      <c r="BK146">
+      <c r="BM146">
         <v>195.1333333333334</v>
       </c>
-      <c r="BL146">
+      <c r="BN146">
         <v>15095.2</v>
       </c>
-      <c r="BM146">
+      <c r="BO146">
         <v>13450.8</v>
       </c>
-      <c r="BN146">
+      <c r="BP146">
         <v>-1</v>
       </c>
-      <c r="BO146">
+      <c r="BQ146">
         <v>5047</v>
       </c>
-      <c r="BP146">
+      <c r="BR146">
         <v>14098</v>
       </c>
-      <c r="BQ146">
+      <c r="BS146">
         <v>230117.6666666667</v>
       </c>
     </row>
@@ -23202,28 +23212,28 @@
       <c r="AR147">
         <v>51.5</v>
       </c>
-      <c r="BJ147">
+      <c r="BL147">
         <v>201.2666666666667</v>
       </c>
-      <c r="BK147">
+      <c r="BM147">
         <v>196.9333333333333</v>
       </c>
-      <c r="BL147">
+      <c r="BN147">
         <v>15179.4</v>
       </c>
-      <c r="BM147">
+      <c r="BO147">
         <v>13639</v>
       </c>
-      <c r="BN147">
+      <c r="BP147">
         <v>-1</v>
       </c>
-      <c r="BO147">
+      <c r="BQ147">
         <v>5068.333333333333</v>
       </c>
-      <c r="BP147">
+      <c r="BR147">
         <v>14119.66666666667</v>
       </c>
-      <c r="BQ147">
+      <c r="BS147">
         <v>238436</v>
       </c>
     </row>
@@ -23360,28 +23370,28 @@
       <c r="AR148">
         <v>49.9</v>
       </c>
-      <c r="BJ148">
+      <c r="BL148">
         <v>203.1666666666667</v>
       </c>
-      <c r="BK148">
+      <c r="BM148">
         <v>198.8</v>
       </c>
-      <c r="BL148">
+      <c r="BN148">
         <v>15259.8</v>
       </c>
-      <c r="BM148">
+      <c r="BO148">
         <v>13807.3</v>
       </c>
-      <c r="BN148">
+      <c r="BP148">
         <v>-1</v>
       </c>
-      <c r="BO148">
+      <c r="BQ148">
         <v>5086</v>
       </c>
-      <c r="BP148">
+      <c r="BR148">
         <v>14201</v>
       </c>
-      <c r="BQ148">
+      <c r="BS148">
         <v>238965</v>
       </c>
     </row>
@@ -23518,28 +23528,28 @@
       <c r="AR149">
         <v>48.7</v>
       </c>
-      <c r="BJ149">
+      <c r="BL149">
         <v>202.3333333333333</v>
       </c>
-      <c r="BK149">
+      <c r="BM149">
         <v>197.5666666666666</v>
       </c>
-      <c r="BL149">
+      <c r="BN149">
         <v>15336.4</v>
       </c>
-      <c r="BM149">
+      <c r="BO149">
         <v>13927.8</v>
       </c>
-      <c r="BN149">
+      <c r="BP149">
         <v>-1</v>
       </c>
-      <c r="BO149">
+      <c r="BQ149">
         <v>5098.333333333333</v>
       </c>
-      <c r="BP149">
+      <c r="BR149">
         <v>14251.33333333333</v>
       </c>
-      <c r="BQ149">
+      <c r="BS149">
         <v>242956.3333333333</v>
       </c>
     </row>
@@ -23676,28 +23686,28 @@
       <c r="AR150">
         <v>49.5</v>
       </c>
-      <c r="BJ150">
+      <c r="BL150">
         <v>204.317</v>
       </c>
-      <c r="BK150">
+      <c r="BM150">
         <v>199.553</v>
       </c>
-      <c r="BL150">
+      <c r="BN150">
         <v>15412.4</v>
       </c>
-      <c r="BM150">
+      <c r="BO150">
         <v>14134.4</v>
       </c>
-      <c r="BN150">
+      <c r="BP150">
         <v>-1</v>
       </c>
-      <c r="BO150">
+      <c r="BQ150">
         <v>5106.333333333333</v>
       </c>
-      <c r="BP150">
+      <c r="BR150">
         <v>14287.33333333333</v>
       </c>
-      <c r="BQ150">
+      <c r="BS150">
         <v>258254.3333333333</v>
       </c>
     </row>
@@ -23834,28 +23844,28 @@
       <c r="AR151">
         <v>58.2</v>
       </c>
-      <c r="BJ151">
+      <c r="BL151">
         <v>206.631</v>
       </c>
-      <c r="BK151">
+      <c r="BM151">
         <v>202.077</v>
       </c>
-      <c r="BL151">
+      <c r="BN151">
         <v>15488</v>
       </c>
-      <c r="BM151">
+      <c r="BO151">
         <v>14295.6</v>
       </c>
-      <c r="BN151">
+      <c r="BP151">
         <v>-1</v>
       </c>
-      <c r="BO151">
+      <c r="BQ151">
         <v>5124.333333333333</v>
       </c>
-      <c r="BP151">
+      <c r="BR151">
         <v>14336</v>
       </c>
-      <c r="BQ151">
+      <c r="BS151">
         <v>266203.6666666667</v>
       </c>
     </row>
@@ -23992,28 +24002,28 @@
       <c r="AR152">
         <v>55.9</v>
       </c>
-      <c r="BJ152">
+      <c r="BL152">
         <v>207.939</v>
       </c>
-      <c r="BK152">
+      <c r="BM152">
         <v>203.37</v>
       </c>
-      <c r="BL152">
+      <c r="BN152">
         <v>15563.8</v>
       </c>
-      <c r="BM152">
+      <c r="BO152">
         <v>14439.6</v>
       </c>
-      <c r="BN152">
+      <c r="BP152">
         <v>-1</v>
       </c>
-      <c r="BO152">
+      <c r="BQ152">
         <v>5122</v>
       </c>
-      <c r="BP152">
+      <c r="BR152">
         <v>14369.33333333333</v>
       </c>
-      <c r="BQ152">
+      <c r="BS152">
         <v>271640.3333333333</v>
       </c>
     </row>
@@ -24150,28 +24160,28 @@
       <c r="AR153">
         <v>54.7</v>
       </c>
-      <c r="BJ153">
+      <c r="BL153">
         <v>210.4896666666667</v>
       </c>
-      <c r="BK153">
+      <c r="BM153">
         <v>206.0856666666666</v>
       </c>
-      <c r="BL153">
+      <c r="BN153">
         <v>15638.8</v>
       </c>
-      <c r="BM153">
+      <c r="BO153">
         <v>14566.7</v>
       </c>
-      <c r="BN153">
+      <c r="BP153">
         <v>1</v>
       </c>
-      <c r="BO153">
+      <c r="BQ153">
         <v>5136</v>
       </c>
-      <c r="BP153">
+      <c r="BR153">
         <v>14455</v>
       </c>
-      <c r="BQ153">
+      <c r="BS153">
         <v>276454.6666666667</v>
       </c>
     </row>
@@ -24308,28 +24318,28 @@
       <c r="AR154">
         <v>51.9</v>
       </c>
-      <c r="BJ154">
+      <c r="BL154">
         <v>212.7696666666667</v>
       </c>
-      <c r="BK154">
+      <c r="BM154">
         <v>208.516</v>
       </c>
-      <c r="BL154">
+      <c r="BN154">
         <v>15712.6</v>
       </c>
-      <c r="BM154">
+      <c r="BO154">
         <v>14689.5</v>
       </c>
-      <c r="BN154">
+      <c r="BP154">
         <v>1</v>
       </c>
-      <c r="BO154">
+      <c r="BQ154">
         <v>5148.666666666667</v>
       </c>
-      <c r="BP154">
+      <c r="BR154">
         <v>14521.66666666667</v>
       </c>
-      <c r="BQ154">
+      <c r="BS154">
         <v>278038.3333333333</v>
       </c>
     </row>
@@ -24466,28 +24476,28 @@
       <c r="AR155">
         <v>51.7</v>
       </c>
-      <c r="BJ155">
+      <c r="BL155">
         <v>215.5376666666667</v>
       </c>
-      <c r="BK155">
+      <c r="BM155">
         <v>211.5026666666667</v>
       </c>
-      <c r="BL155">
+      <c r="BN155">
         <v>15783.7</v>
       </c>
-      <c r="BM155">
+      <c r="BO155">
         <v>14835.1</v>
       </c>
-      <c r="BN155">
+      <c r="BP155">
         <v>1</v>
       </c>
-      <c r="BO155">
+      <c r="BQ155">
         <v>5166</v>
       </c>
-      <c r="BP155">
+      <c r="BR155">
         <v>14560.33333333333</v>
       </c>
-      <c r="BQ155">
+      <c r="BS155">
         <v>283074.3333333333</v>
       </c>
     </row>
@@ -24624,28 +24634,28 @@
       <c r="AR156">
         <v>52</v>
       </c>
-      <c r="BJ156">
+      <c r="BL156">
         <v>218.861</v>
       </c>
-      <c r="BK156">
+      <c r="BM156">
         <v>215.13</v>
       </c>
-      <c r="BL156">
+      <c r="BN156">
         <v>15850.9</v>
       </c>
-      <c r="BM156">
+      <c r="BO156">
         <v>15009.3</v>
       </c>
-      <c r="BN156">
+      <c r="BP156">
         <v>1</v>
       </c>
-      <c r="BO156">
+      <c r="BQ156">
         <v>5196.333333333333</v>
       </c>
-      <c r="BP156">
+      <c r="BR156">
         <v>14594</v>
       </c>
-      <c r="BQ156">
+      <c r="BS156">
         <v>287093.6666666667</v>
       </c>
     </row>
@@ -24782,28 +24792,28 @@
       <c r="AR157">
         <v>54.6</v>
       </c>
-      <c r="BJ157">
+      <c r="BL157">
         <v>213.8486666666667</v>
       </c>
-      <c r="BK157">
+      <c r="BM157">
         <v>208.8386666666667</v>
       </c>
-      <c r="BL157">
+      <c r="BN157">
         <v>15913.8</v>
       </c>
-      <c r="BM157">
+      <c r="BO157">
         <v>15116</v>
       </c>
-      <c r="BN157">
+      <c r="BP157">
         <v>1</v>
       </c>
-      <c r="BO157">
+      <c r="BQ157">
         <v>5189</v>
       </c>
-      <c r="BP157">
+      <c r="BR157">
         <v>14591</v>
       </c>
-      <c r="BQ157">
+      <c r="BS157">
         <v>288334</v>
       </c>
     </row>
@@ -24940,28 +24950,28 @@
       <c r="AR158">
         <v>55.4</v>
       </c>
-      <c r="BJ158">
+      <c r="BL158">
         <v>212.3776666666667</v>
       </c>
-      <c r="BK158">
+      <c r="BM158">
         <v>206.9433333333334</v>
       </c>
-      <c r="BL158">
+      <c r="BN158">
         <v>15971.4</v>
       </c>
-      <c r="BM158">
+      <c r="BO158">
         <v>15169.1</v>
       </c>
-      <c r="BN158">
+      <c r="BP158">
         <v>1</v>
       </c>
-      <c r="BO158">
+      <c r="BQ158">
         <v>5192</v>
       </c>
-      <c r="BP158">
+      <c r="BR158">
         <v>14587</v>
       </c>
-      <c r="BQ158">
+      <c r="BS158">
         <v>289591.3333333333</v>
       </c>
     </row>
@@ -25098,28 +25108,28 @@
       <c r="AR159">
         <v>55.5</v>
       </c>
-      <c r="BJ159">
+      <c r="BL159">
         <v>213.507</v>
       </c>
-      <c r="BK159">
+      <c r="BM159">
         <v>208.3903333333334</v>
       </c>
-      <c r="BL159">
+      <c r="BN159">
         <v>16025</v>
       </c>
-      <c r="BM159">
+      <c r="BO159">
         <v>15197.8</v>
       </c>
-      <c r="BN159">
+      <c r="BP159">
         <v>1</v>
       </c>
-      <c r="BO159">
+      <c r="BQ159">
         <v>5181.666666666667</v>
       </c>
-      <c r="BP159">
+      <c r="BR159">
         <v>14576.33333333333</v>
       </c>
-      <c r="BQ159">
+      <c r="BS159">
         <v>292223.6666666667</v>
       </c>
     </row>
@@ -25256,28 +25266,28 @@
       <c r="AR160">
         <v>67.09999999999999</v>
       </c>
-      <c r="BJ160">
+      <c r="BL160">
         <v>215.344</v>
       </c>
-      <c r="BK160">
+      <c r="BM160">
         <v>210.695</v>
       </c>
-      <c r="BL160">
+      <c r="BN160">
         <v>16075.4</v>
       </c>
-      <c r="BM160">
+      <c r="BO160">
         <v>15261.7</v>
       </c>
-      <c r="BN160">
+      <c r="BP160">
         <v>-1</v>
       </c>
-      <c r="BO160">
+      <c r="BQ160">
         <v>5145.333333333333</v>
       </c>
-      <c r="BP160">
+      <c r="BR160">
         <v>14532</v>
       </c>
-      <c r="BQ160">
+      <c r="BS160">
         <v>287368</v>
       </c>
     </row>
@@ -25414,28 +25424,28 @@
       <c r="AR161">
         <v>55.5</v>
       </c>
-      <c r="BJ161">
+      <c r="BL161">
         <v>217.03</v>
       </c>
-      <c r="BK161">
+      <c r="BM161">
         <v>212.6326666666666</v>
       </c>
-      <c r="BL161">
+      <c r="BN161">
         <v>16124.4</v>
       </c>
-      <c r="BM161">
+      <c r="BO161">
         <v>15359.8</v>
       </c>
-      <c r="BN161">
+      <c r="BP161">
         <v>-1</v>
       </c>
-      <c r="BO161">
+      <c r="BQ161">
         <v>5153.333333333333</v>
       </c>
-      <c r="BP161">
+      <c r="BR161">
         <v>14521</v>
       </c>
-      <c r="BQ161">
+      <c r="BS161">
         <v>274301</v>
       </c>
     </row>
@@ -25572,28 +25582,28 @@
       <c r="AR162">
         <v>54.8</v>
       </c>
-      <c r="BJ162">
+      <c r="BL162">
         <v>217.374</v>
       </c>
-      <c r="BK162">
+      <c r="BM162">
         <v>213.237</v>
       </c>
-      <c r="BL162">
+      <c r="BN162">
         <v>16173.6</v>
       </c>
-      <c r="BM162">
+      <c r="BO162">
         <v>15445.7</v>
       </c>
-      <c r="BN162">
+      <c r="BP162">
         <v>-1</v>
       </c>
-      <c r="BO162">
+      <c r="BQ162">
         <v>5144</v>
       </c>
-      <c r="BP162">
+      <c r="BR162">
         <v>14466</v>
       </c>
-      <c r="BQ162">
+      <c r="BS162">
         <v>268022</v>
       </c>
     </row>
@@ -25730,28 +25740,28 @@
       <c r="AR163">
         <v>55.5</v>
       </c>
-      <c r="BJ163">
+      <c r="BL163">
         <v>217.2973333333333</v>
       </c>
-      <c r="BK163">
+      <c r="BM163">
         <v>213.1506666666667</v>
       </c>
-      <c r="BL163">
+      <c r="BN163">
         <v>16224.4</v>
       </c>
-      <c r="BM163">
+      <c r="BO163">
         <v>15566.2</v>
       </c>
-      <c r="BN163">
+      <c r="BP163">
         <v>-1</v>
       </c>
-      <c r="BO163">
+      <c r="BQ163">
         <v>5136.666666666667</v>
       </c>
-      <c r="BP163">
+      <c r="BR163">
         <v>14434</v>
       </c>
-      <c r="BQ163">
+      <c r="BS163">
         <v>274526.6666666667</v>
       </c>
     </row>
@@ -25888,28 +25898,28 @@
       <c r="AR164">
         <v>56</v>
       </c>
-      <c r="BJ164">
+      <c r="BL164">
         <v>217.9343333333333</v>
       </c>
-      <c r="BK164">
+      <c r="BM164">
         <v>213.82</v>
       </c>
-      <c r="BL164">
+      <c r="BN164">
         <v>16277.7</v>
       </c>
-      <c r="BM164">
+      <c r="BO164">
         <v>15662.7</v>
       </c>
-      <c r="BN164">
+      <c r="BP164">
         <v>-1</v>
       </c>
-      <c r="BO164">
+      <c r="BQ164">
         <v>5129.333333333333</v>
       </c>
-      <c r="BP164">
+      <c r="BR164">
         <v>14327.66666666667</v>
       </c>
-      <c r="BQ164">
+      <c r="BS164">
         <v>277232.3333333333</v>
       </c>
     </row>
@@ -26046,28 +26056,28 @@
       <c r="AR165">
         <v>56.9</v>
       </c>
-      <c r="BJ165">
+      <c r="BL165">
         <v>219.699</v>
       </c>
-      <c r="BK165">
+      <c r="BM165">
         <v>215.764</v>
       </c>
-      <c r="BL165">
+      <c r="BN165">
         <v>16333.2</v>
       </c>
-      <c r="BM165">
+      <c r="BO165">
         <v>15804.5</v>
       </c>
-      <c r="BN165">
+      <c r="BP165">
         <v>-1</v>
       </c>
-      <c r="BO165">
+      <c r="BQ165">
         <v>5137</v>
       </c>
-      <c r="BP165">
+      <c r="BR165">
         <v>14279</v>
       </c>
-      <c r="BQ165">
+      <c r="BS165">
         <v>269906.3333333333</v>
       </c>
     </row>
@@ -26204,28 +26214,28 @@
       <c r="AR166">
         <v>58.9</v>
       </c>
-      <c r="BJ166">
+      <c r="BL166">
         <v>222.0436666666667</v>
       </c>
-      <c r="BK166">
+      <c r="BM166">
         <v>218.4156666666667</v>
       </c>
-      <c r="BL166">
+      <c r="BN166">
         <v>16390.9</v>
       </c>
-      <c r="BM166">
+      <c r="BO166">
         <v>15945.5</v>
       </c>
-      <c r="BN166">
+      <c r="BP166">
         <v>-1</v>
       </c>
-      <c r="BO166">
+      <c r="BQ166">
         <v>5113.333333333333</v>
       </c>
-      <c r="BP166">
+      <c r="BR166">
         <v>14232.66666666667</v>
       </c>
-      <c r="BQ166">
+      <c r="BS166">
         <v>258077</v>
       </c>
     </row>
@@ -26362,28 +26372,28 @@
       <c r="AR167">
         <v>59.9</v>
       </c>
-      <c r="BJ167">
+      <c r="BL167">
         <v>224.5683333333333</v>
       </c>
-      <c r="BK167">
+      <c r="BM167">
         <v>221.2876666666667</v>
       </c>
-      <c r="BL167">
+      <c r="BN167">
         <v>16450.9</v>
       </c>
-      <c r="BM167">
+      <c r="BO167">
         <v>16109</v>
       </c>
-      <c r="BN167">
+      <c r="BP167">
         <v>-1</v>
       </c>
-      <c r="BO167">
+      <c r="BQ167">
         <v>5084.333333333333</v>
       </c>
-      <c r="BP167">
+      <c r="BR167">
         <v>14207.66666666667</v>
       </c>
-      <c r="BQ167">
+      <c r="BS167">
         <v>251739</v>
       </c>
     </row>
@@ -26520,28 +26530,28 @@
       <c r="AR168">
         <v>60.2</v>
       </c>
-      <c r="BJ168">
+      <c r="BL168">
         <v>226.0326666666667</v>
       </c>
-      <c r="BK168">
+      <c r="BM168">
         <v>222.738</v>
       </c>
-      <c r="BL168">
+      <c r="BN168">
         <v>16513.3</v>
       </c>
-      <c r="BM168">
+      <c r="BO168">
         <v>16274.4</v>
       </c>
-      <c r="BN168">
+      <c r="BP168">
         <v>-1</v>
       </c>
-      <c r="BO168">
+      <c r="BQ168">
         <v>5069.666666666667</v>
       </c>
-      <c r="BP168">
+      <c r="BR168">
         <v>14094</v>
       </c>
-      <c r="BQ168">
+      <c r="BS168">
         <v>253215.3333333333</v>
       </c>
     </row>
@@ -26678,28 +26688,28 @@
       <c r="AR169">
         <v>61.1</v>
       </c>
-      <c r="BJ169">
+      <c r="BL169">
         <v>227.0473333333333</v>
       </c>
-      <c r="BK169">
+      <c r="BM169">
         <v>223.7746666666667</v>
       </c>
-      <c r="BL169">
+      <c r="BN169">
         <v>16577.3</v>
       </c>
-      <c r="BM169">
+      <c r="BO169">
         <v>16362.2</v>
       </c>
-      <c r="BN169">
+      <c r="BP169">
         <v>-1</v>
       </c>
-      <c r="BO169">
+      <c r="BQ169">
         <v>5051</v>
       </c>
-      <c r="BP169">
+      <c r="BR169">
         <v>14080.66666666667</v>
       </c>
-      <c r="BQ169">
+      <c r="BS169">
         <v>258046</v>
       </c>
     </row>
@@ -26836,28 +26846,28 @@
       <c r="AR170">
         <v>58.4</v>
       </c>
-      <c r="BJ170">
+      <c r="BL170">
         <v>228.326</v>
       </c>
-      <c r="BK170">
+      <c r="BM170">
         <v>225.0873333333333</v>
       </c>
-      <c r="BL170">
+      <c r="BN170">
         <v>16642.9</v>
       </c>
-      <c r="BM170">
+      <c r="BO170">
         <v>16529.8</v>
       </c>
-      <c r="BN170">
+      <c r="BP170">
         <v>-1</v>
       </c>
-      <c r="BO170">
+      <c r="BQ170">
         <v>5048</v>
       </c>
-      <c r="BP170">
+      <c r="BR170">
         <v>14067.66666666667</v>
       </c>
-      <c r="BQ170">
+      <c r="BS170">
         <v>254528.3333333333</v>
       </c>
     </row>
@@ -26994,28 +27004,28 @@
       <c r="AR171">
         <v>58.1</v>
       </c>
-      <c r="BJ171">
+      <c r="BL171">
         <v>228.808</v>
       </c>
-      <c r="BK171">
+      <c r="BM171">
         <v>225.4593333333333</v>
       </c>
-      <c r="BL171">
+      <c r="BN171">
         <v>16710.5</v>
       </c>
-      <c r="BM171">
+      <c r="BO171">
         <v>16662.5</v>
       </c>
-      <c r="BN171">
+      <c r="BP171">
         <v>-1</v>
       </c>
-      <c r="BO171">
+      <c r="BQ171">
         <v>5055.333333333333</v>
       </c>
-      <c r="BP171">
+      <c r="BR171">
         <v>14044.33333333333</v>
       </c>
-      <c r="BQ171">
+      <c r="BS171">
         <v>254598.6666666667</v>
       </c>
     </row>
@@ -27152,28 +27162,28 @@
       <c r="AR172">
         <v>56.3</v>
       </c>
-      <c r="BJ172">
+      <c r="BL172">
         <v>229.841</v>
       </c>
-      <c r="BK172">
+      <c r="BM172">
         <v>226.357</v>
       </c>
-      <c r="BL172">
+      <c r="BN172">
         <v>16779.7</v>
       </c>
-      <c r="BM172">
+      <c r="BO172">
         <v>16817.4</v>
       </c>
-      <c r="BN172">
+      <c r="BP172">
         <v>-1</v>
       </c>
-      <c r="BO172">
+      <c r="BQ172">
         <v>5064.666666666667</v>
       </c>
-      <c r="BP172">
+      <c r="BR172">
         <v>14034.33333333333</v>
       </c>
-      <c r="BQ172">
+      <c r="BS172">
         <v>252248.6666666667</v>
       </c>
     </row>
@@ -27310,28 +27320,28 @@
       <c r="AR173">
         <v>59.4</v>
       </c>
-      <c r="BJ173">
+      <c r="BL173">
         <v>231.3693333333333</v>
       </c>
-      <c r="BK173">
+      <c r="BM173">
         <v>227.9716666666667</v>
       </c>
-      <c r="BL173">
+      <c r="BN173">
         <v>16850.1</v>
       </c>
-      <c r="BM173">
+      <c r="BO173">
         <v>16974.5</v>
       </c>
-      <c r="BN173">
+      <c r="BP173">
         <v>-1</v>
       </c>
-      <c r="BO173">
+      <c r="BQ173">
         <v>5051.666666666667</v>
       </c>
-      <c r="BP173">
+      <c r="BR173">
         <v>14026.33333333333</v>
       </c>
-      <c r="BQ173">
+      <c r="BS173">
         <v>246424.3333333333</v>
       </c>
     </row>
@@ -27468,28 +27478,28 @@
       <c r="AR174">
         <v>59.4</v>
       </c>
-      <c r="BJ174">
+      <c r="BL174">
         <v>232.2993333333334</v>
       </c>
-      <c r="BK174">
+      <c r="BM174">
         <v>228.8366666666667</v>
       </c>
-      <c r="BL174">
+      <c r="BN174">
         <v>16921.8</v>
       </c>
-      <c r="BM174">
+      <c r="BO174">
         <v>17114.6</v>
       </c>
-      <c r="BN174">
+      <c r="BP174">
         <v>-1</v>
       </c>
-      <c r="BO174">
+      <c r="BQ174">
         <v>5042</v>
       </c>
-      <c r="BP174">
+      <c r="BR174">
         <v>14029.33333333333</v>
       </c>
-      <c r="BQ174">
+      <c r="BS174">
         <v>242924.3333333333</v>
       </c>
     </row>
@@ -27626,28 +27636,28 @@
       <c r="AR175">
         <v>60.1</v>
       </c>
-      <c r="BJ175">
+      <c r="BL175">
         <v>232.045</v>
       </c>
-      <c r="BK175">
+      <c r="BM175">
         <v>228.4096666666667</v>
       </c>
-      <c r="BL175">
+      <c r="BN175">
         <v>16994.9</v>
       </c>
-      <c r="BM175">
+      <c r="BO175">
         <v>17238</v>
       </c>
-      <c r="BN175">
+      <c r="BP175">
         <v>-1</v>
       </c>
-      <c r="BO175">
+      <c r="BQ175">
         <v>5044.666666666667</v>
       </c>
-      <c r="BP175">
+      <c r="BR175">
         <v>14033</v>
       </c>
-      <c r="BQ175">
+      <c r="BS175">
         <v>245991.6666666667</v>
       </c>
     </row>
@@ -27784,28 +27794,28 @@
       <c r="AR176">
         <v>60</v>
       </c>
-      <c r="BJ176">
+      <c r="BL176">
         <v>233.3</v>
       </c>
-      <c r="BK176">
+      <c r="BM176">
         <v>229.589</v>
       </c>
-      <c r="BL176">
+      <c r="BN176">
         <v>17068.6</v>
       </c>
-      <c r="BM176">
+      <c r="BO176">
         <v>17395.8</v>
       </c>
-      <c r="BN176">
+      <c r="BP176">
         <v>-1</v>
       </c>
-      <c r="BO176">
+      <c r="BQ176">
         <v>5040</v>
       </c>
-      <c r="BP176">
+      <c r="BR176">
         <v>14031</v>
       </c>
-      <c r="BQ176">
+      <c r="BS176">
         <v>249225</v>
       </c>
     </row>
@@ -27942,28 +27952,28 @@
       <c r="AR177">
         <v>59.4</v>
       </c>
-      <c r="BJ177">
+      <c r="BL177">
         <v>234.1626666666667</v>
       </c>
-      <c r="BK177">
+      <c r="BM177">
         <v>230.4336666666667</v>
       </c>
-      <c r="BL177">
+      <c r="BN177">
         <v>17143.4</v>
       </c>
-      <c r="BM177">
+      <c r="BO177">
         <v>17575</v>
       </c>
-      <c r="BN177">
+      <c r="BP177">
         <v>-1</v>
       </c>
-      <c r="BO177">
+      <c r="BQ177">
         <v>5055.333333333333</v>
       </c>
-      <c r="BP177">
+      <c r="BR177">
         <v>14033.66666666667</v>
       </c>
-      <c r="BQ177">
+      <c r="BS177">
         <v>247543.3333333333</v>
       </c>
     </row>
@@ -28100,28 +28110,28 @@
       <c r="AR178">
         <v>58.7</v>
       </c>
-      <c r="BJ178">
+      <c r="BL178">
         <v>235.621</v>
       </c>
-      <c r="BK178">
+      <c r="BM178">
         <v>231.95</v>
       </c>
-      <c r="BL178">
+      <c r="BN178">
         <v>17219.3</v>
       </c>
-      <c r="BM178">
+      <c r="BO178">
         <v>17725.1</v>
       </c>
-      <c r="BN178">
+      <c r="BP178">
         <v>-1</v>
       </c>
-      <c r="BO178">
+      <c r="BQ178">
         <v>5054.666666666667</v>
       </c>
-      <c r="BP178">
+      <c r="BR178">
         <v>14037.66666666667</v>
       </c>
-      <c r="BQ178">
+      <c r="BS178">
         <v>242591.3333333333</v>
       </c>
     </row>
@@ -28258,28 +28268,28 @@
       <c r="AR179">
         <v>58.5</v>
       </c>
-      <c r="BJ179">
+      <c r="BL179">
         <v>236.8723333333333</v>
       </c>
-      <c r="BK179">
+      <c r="BM179">
         <v>233.1013333333334</v>
       </c>
-      <c r="BL179">
+      <c r="BN179">
         <v>17296.2</v>
       </c>
-      <c r="BM179">
+      <c r="BO179">
         <v>17903.5</v>
       </c>
-      <c r="BN179">
+      <c r="BP179">
         <v>-1</v>
       </c>
-      <c r="BO179">
+      <c r="BQ179">
         <v>5054.666666666667</v>
       </c>
-      <c r="BP179">
+      <c r="BR179">
         <v>14077</v>
       </c>
-      <c r="BQ179">
+      <c r="BS179">
         <v>251613.3333333333</v>
       </c>
     </row>
@@ -28416,28 +28426,28 @@
       <c r="AR180">
         <v>58.2</v>
       </c>
-      <c r="BJ180">
+      <c r="BL180">
         <v>237.4783333333333</v>
       </c>
-      <c r="BK180">
+      <c r="BM180">
         <v>233.4943333333333</v>
       </c>
-      <c r="BL180">
+      <c r="BN180">
         <v>17374.2</v>
       </c>
-      <c r="BM180">
+      <c r="BO180">
         <v>18061.8</v>
       </c>
-      <c r="BN180">
+      <c r="BP180">
         <v>-1</v>
       </c>
-      <c r="BO180">
+      <c r="BQ180">
         <v>5030.666666666667</v>
       </c>
-      <c r="BP180">
+      <c r="BR180">
         <v>14120</v>
       </c>
-      <c r="BQ180">
+      <c r="BS180">
         <v>257546.3333333333</v>
       </c>
     </row>
@@ -28574,28 +28584,28 @@
       <c r="AR181">
         <v>57</v>
       </c>
-      <c r="BJ181">
+      <c r="BL181">
         <v>236.8883333333334</v>
       </c>
-      <c r="BK181">
+      <c r="BM181">
         <v>232.431</v>
       </c>
-      <c r="BL181">
+      <c r="BN181">
         <v>17453</v>
       </c>
-      <c r="BM181">
+      <c r="BO181">
         <v>18172.7</v>
       </c>
-      <c r="BN181">
+      <c r="BP181">
         <v>-1</v>
       </c>
-      <c r="BO181">
+      <c r="BQ181">
         <v>5052.666666666667</v>
       </c>
-      <c r="BP181">
+      <c r="BR181">
         <v>14140</v>
       </c>
-      <c r="BQ181">
+      <c r="BS181">
         <v>260104.3333333333</v>
       </c>
     </row>
@@ -28732,28 +28742,28 @@
       <c r="AR182">
         <v>56</v>
       </c>
-      <c r="BJ182">
+      <c r="BL182">
         <v>235.355</v>
       </c>
-      <c r="BK182">
+      <c r="BM182">
         <v>230.2366666666667</v>
       </c>
-      <c r="BL182">
+      <c r="BN182">
         <v>17532.1</v>
       </c>
-      <c r="BM182">
+      <c r="BO182">
         <v>18238.8</v>
       </c>
-      <c r="BN182">
+      <c r="BP182">
         <v>-1</v>
       </c>
-      <c r="BO182">
+      <c r="BQ182">
         <v>5067.666666666667</v>
       </c>
-      <c r="BP182">
+      <c r="BR182">
         <v>14155</v>
       </c>
-      <c r="BQ182">
+      <c r="BS182">
         <v>260731.6666666667</v>
       </c>
     </row>
@@ -28890,28 +28900,28 @@
       <c r="AR183">
         <v>56.4</v>
       </c>
-      <c r="BJ183">
+      <c r="BL183">
         <v>236.96</v>
       </c>
-      <c r="BK183">
+      <c r="BM183">
         <v>231.9576666666667</v>
       </c>
-      <c r="BL183">
+      <c r="BN183">
         <v>17611.2</v>
       </c>
-      <c r="BM183">
+      <c r="BO183">
         <v>18420.6</v>
       </c>
-      <c r="BN183">
+      <c r="BP183">
         <v>-1</v>
       </c>
-      <c r="BO183">
+      <c r="BQ183">
         <v>5072.333333333333</v>
       </c>
-      <c r="BP183">
+      <c r="BR183">
         <v>14181.66666666667</v>
       </c>
-      <c r="BQ183">
+      <c r="BS183">
         <v>274292.3333333333</v>
       </c>
     </row>
@@ -29048,28 +29058,28 @@
       <c r="AR184">
         <v>57.7</v>
       </c>
-      <c r="BJ184">
+      <c r="BL184">
         <v>237.855</v>
       </c>
-      <c r="BK184">
+      <c r="BM184">
         <v>232.6933333333334</v>
       </c>
-      <c r="BL184">
+      <c r="BN184">
         <v>17689.6</v>
       </c>
-      <c r="BM184">
+      <c r="BO184">
         <v>18561</v>
       </c>
-      <c r="BN184">
+      <c r="BP184">
         <v>-1</v>
       </c>
-      <c r="BO184">
+      <c r="BQ184">
         <v>5077.666666666667</v>
       </c>
-      <c r="BP184">
+      <c r="BR184">
         <v>14214</v>
       </c>
-      <c r="BQ184">
+      <c r="BS184">
         <v>278090.3333333333</v>
       </c>
     </row>
@@ -29206,28 +29216,28 @@
       <c r="AR185">
         <v>58.7</v>
       </c>
-      <c r="BJ185">
+      <c r="BL185">
         <v>237.837</v>
       </c>
-      <c r="BK185">
+      <c r="BM185">
         <v>232.2803333333334</v>
       </c>
-      <c r="BL185">
+      <c r="BN185">
         <v>17766.8</v>
       </c>
-      <c r="BM185">
+      <c r="BO185">
         <v>18643.9</v>
       </c>
-      <c r="BN185">
+      <c r="BP185">
         <v>-1</v>
       </c>
-      <c r="BO185">
+      <c r="BQ185">
         <v>5087.333333333333</v>
       </c>
-      <c r="BP185">
+      <c r="BR185">
         <v>14223.66666666667</v>
       </c>
-      <c r="BQ185">
+      <c r="BS185">
         <v>268417</v>
       </c>
     </row>
@@ -29364,28 +29374,28 @@
       <c r="AR186">
         <v>60.7</v>
       </c>
-      <c r="BJ186">
+      <c r="BL186">
         <v>237.6893333333333</v>
       </c>
-      <c r="BK186">
+      <c r="BM186">
         <v>231.781</v>
       </c>
-      <c r="BL186">
+      <c r="BN186">
         <v>17843.2</v>
       </c>
-      <c r="BM186">
+      <c r="BO186">
         <v>18711.2</v>
       </c>
-      <c r="BN186">
+      <c r="BP186">
         <v>-1</v>
       </c>
-      <c r="BO186">
+      <c r="BQ186">
         <v>5089</v>
       </c>
-      <c r="BP186">
+      <c r="BR186">
         <v>14277</v>
       </c>
-      <c r="BQ186">
+      <c r="BS186">
         <v>280145</v>
       </c>
     </row>
@@ -29522,28 +29532,28 @@
       <c r="AR187">
         <v>62.4</v>
       </c>
-      <c r="BJ187">
+      <c r="BL187">
         <v>239.5903333333333</v>
       </c>
-      <c r="BK187">
+      <c r="BM187">
         <v>233.774</v>
       </c>
-      <c r="BL187">
+      <c r="BN187">
         <v>17918.2</v>
       </c>
-      <c r="BM187">
+      <c r="BO187">
         <v>18920.1</v>
       </c>
-      <c r="BN187">
+      <c r="BP187">
         <v>-1</v>
       </c>
-      <c r="BO187">
+      <c r="BQ187">
         <v>5098.666666666667</v>
       </c>
-      <c r="BP187">
+      <c r="BR187">
         <v>14297.66666666667</v>
       </c>
-      <c r="BQ187">
+      <c r="BS187">
         <v>275022</v>
       </c>
     </row>
@@ -29680,28 +29690,28 @@
       <c r="AR188">
         <v>63</v>
       </c>
-      <c r="BJ188">
+      <c r="BL188">
         <v>240.6073333333333</v>
       </c>
-      <c r="BK188">
+      <c r="BM188">
         <v>234.5966666666667</v>
       </c>
-      <c r="BL188">
+      <c r="BN188">
         <v>17992</v>
       </c>
-      <c r="BM188">
+      <c r="BO188">
         <v>19062.5</v>
       </c>
-      <c r="BN188">
+      <c r="BP188">
         <v>-1</v>
       </c>
-      <c r="BO188">
+      <c r="BQ188">
         <v>5126.666666666667</v>
       </c>
-      <c r="BP188">
+      <c r="BR188">
         <v>14369</v>
       </c>
-      <c r="BQ188">
+      <c r="BS188">
         <v>271266.6666666667</v>
       </c>
     </row>
@@ -29838,28 +29848,28 @@
       <c r="AR189">
         <v>61</v>
       </c>
-      <c r="BJ189">
+      <c r="BL189">
         <v>242.1346666666667</v>
       </c>
-      <c r="BK189">
+      <c r="BM189">
         <v>236.1406666666667</v>
       </c>
-      <c r="BL189">
+      <c r="BN189">
         <v>18065.1</v>
       </c>
-      <c r="BM189">
+      <c r="BO189">
         <v>19233.7</v>
       </c>
-      <c r="BN189">
+      <c r="BP189">
         <v>-1</v>
       </c>
-      <c r="BO189">
+      <c r="BQ189">
         <v>5135.333333333333</v>
       </c>
-      <c r="BP189">
+      <c r="BR189">
         <v>14351</v>
       </c>
-      <c r="BQ189">
+      <c r="BS189">
         <v>274719.6666666667</v>
       </c>
     </row>
@@ -29996,28 +30006,28 @@
       <c r="AR190">
         <v>59.5</v>
       </c>
-      <c r="BJ190">
+      <c r="BL190">
         <v>243.7526666666667</v>
       </c>
-      <c r="BK190">
+      <c r="BM190">
         <v>237.75</v>
       </c>
-      <c r="BL190">
+      <c r="BN190">
         <v>18137.7</v>
       </c>
-      <c r="BM190">
+      <c r="BO190">
         <v>19409</v>
       </c>
-      <c r="BN190">
+      <c r="BP190">
         <v>-1</v>
       </c>
-      <c r="BO190">
+      <c r="BQ190">
         <v>5158</v>
       </c>
-      <c r="BP190">
+      <c r="BR190">
         <v>14347</v>
       </c>
-      <c r="BQ190">
+      <c r="BS190">
         <v>274527.6666666667</v>
       </c>
     </row>
@@ -30154,28 +30164,28 @@
       <c r="AR191">
         <v>58.1</v>
       </c>
-      <c r="BJ191">
+      <c r="BL191">
         <v>244.187</v>
       </c>
-      <c r="BK191">
+      <c r="BM191">
         <v>238.0306666666667</v>
       </c>
-      <c r="BL191">
+      <c r="BN191">
         <v>18211.1</v>
       </c>
-      <c r="BM191">
+      <c r="BO191">
         <v>19547.7</v>
       </c>
-      <c r="BN191">
+      <c r="BP191">
         <v>-1</v>
       </c>
-      <c r="BO191">
+      <c r="BQ191">
         <v>5170.333333333333</v>
       </c>
-      <c r="BP191">
+      <c r="BR191">
         <v>14363</v>
       </c>
-      <c r="BQ191">
+      <c r="BS191">
         <v>275545.6666666667</v>
       </c>
     </row>
@@ -30312,28 +30322,28 @@
       <c r="AR192">
         <v>61.9</v>
       </c>
-      <c r="BJ192">
+      <c r="BL192">
         <v>245.3453333333333</v>
       </c>
-      <c r="BK192">
+      <c r="BM192">
         <v>239.2</v>
       </c>
-      <c r="BL192">
+      <c r="BN192">
         <v>18287.1</v>
       </c>
-      <c r="BM192">
+      <c r="BO192">
         <v>19726.8</v>
       </c>
-      <c r="BN192">
+      <c r="BP192">
         <v>-1</v>
       </c>
-      <c r="BO192">
+      <c r="BQ192">
         <v>5168.333333333333</v>
       </c>
-      <c r="BP192">
+      <c r="BR192">
         <v>14401.66666666667</v>
       </c>
-      <c r="BQ192">
+      <c r="BS192">
         <v>273887</v>
       </c>
     </row>
@@ -30470,28 +30480,28 @@
       <c r="AR193">
         <v>60</v>
       </c>
-      <c r="BJ193">
+      <c r="BL193">
         <v>247.257</v>
       </c>
-      <c r="BK193">
+      <c r="BM193">
         <v>241.3036666666667</v>
       </c>
-      <c r="BL193">
+      <c r="BN193">
         <v>18365.3</v>
       </c>
-      <c r="BM193">
+      <c r="BO193">
         <v>19944.4</v>
       </c>
-      <c r="BN193">
+      <c r="BP193">
         <v>-1</v>
       </c>
-      <c r="BO193">
+      <c r="BQ193">
         <v>5160.333333333333</v>
       </c>
-      <c r="BP193">
+      <c r="BR193">
         <v>14428.66666666667</v>
       </c>
-      <c r="BQ193">
+      <c r="BS193">
         <v>278738</v>
       </c>
     </row>
@@ -30628,28 +30638,28 @@
       <c r="AR194">
         <v>58.2</v>
       </c>
-      <c r="BJ194">
+      <c r="BL194">
         <v>249.1793333333334</v>
       </c>
-      <c r="BK194">
+      <c r="BM194">
         <v>243.2743333333333</v>
       </c>
-      <c r="BL194">
+      <c r="BN194">
         <v>18446.4</v>
       </c>
-      <c r="BM194">
+      <c r="BO194">
         <v>20150.3</v>
       </c>
-      <c r="BN194">
+      <c r="BP194">
         <v>-1</v>
       </c>
-      <c r="BO194">
+      <c r="BQ194">
         <v>5150.333333333333</v>
       </c>
-      <c r="BP194">
+      <c r="BR194">
         <v>14442.33333333333</v>
       </c>
-      <c r="BQ194">
+      <c r="BS194">
         <v>284701</v>
       </c>
     </row>
@@ -30786,28 +30796,28 @@
       <c r="AR195">
         <v>57.8</v>
       </c>
-      <c r="BJ195">
+      <c r="BL195">
         <v>250.7376666666667</v>
       </c>
-      <c r="BK195">
+      <c r="BM195">
         <v>244.813</v>
       </c>
-      <c r="BL195">
+      <c r="BN195">
         <v>18530.5</v>
       </c>
-      <c r="BM195">
+      <c r="BO195">
         <v>20416.2</v>
       </c>
-      <c r="BN195">
+      <c r="BP195">
         <v>-1</v>
       </c>
-      <c r="BO195">
+      <c r="BQ195">
         <v>5173</v>
       </c>
-      <c r="BP195">
+      <c r="BR195">
         <v>14468.66666666667</v>
       </c>
-      <c r="BQ195">
+      <c r="BS195">
         <v>293031</v>
       </c>
     </row>
@@ -30944,28 +30954,28 @@
       <c r="AR196">
         <v>57.9</v>
       </c>
-      <c r="BJ196">
+      <c r="BL196">
         <v>251.7543333333333</v>
       </c>
-      <c r="BK196">
+      <c r="BM196">
         <v>245.793</v>
       </c>
-      <c r="BL196">
+      <c r="BN196">
         <v>18617.4</v>
       </c>
-      <c r="BM196">
+      <c r="BO196">
         <v>20593.4</v>
       </c>
-      <c r="BN196">
+      <c r="BP196">
         <v>-1</v>
       </c>
-      <c r="BO196">
+      <c r="BQ196">
         <v>5185.333333333333</v>
       </c>
-      <c r="BP196">
+      <c r="BR196">
         <v>14494.33333333333</v>
       </c>
-      <c r="BQ196">
+      <c r="BS196">
         <v>291638.3333333333</v>
       </c>
     </row>
@@ -31102,28 +31112,28 @@
       <c r="AR197">
         <v>79.5</v>
       </c>
-      <c r="BJ197">
+      <c r="BL197">
         <v>252.738</v>
       </c>
-      <c r="BK197">
+      <c r="BM197">
         <v>246.681</v>
       </c>
-      <c r="BL197">
+      <c r="BN197">
         <v>18705.5</v>
       </c>
-      <c r="BM197">
+      <c r="BO197">
         <v>20789.5</v>
       </c>
-      <c r="BN197">
+      <c r="BP197">
         <v>-1</v>
       </c>
-      <c r="BO197">
+      <c r="BQ197">
         <v>5177</v>
       </c>
-      <c r="BP197">
+      <c r="BR197">
         <v>14510</v>
       </c>
-      <c r="BQ197">
+      <c r="BS197">
         <v>283060</v>
       </c>
     </row>
@@ -31260,28 +31270,28 @@
       <c r="AR198">
         <v>71.3</v>
       </c>
-      <c r="BJ198">
+      <c r="BL198">
         <v>253.1856666666667</v>
       </c>
-      <c r="BK198">
+      <c r="BM198">
         <v>246.765</v>
       </c>
-      <c r="BL198">
+      <c r="BN198">
         <v>18794.8</v>
       </c>
-      <c r="BM198">
+      <c r="BO198">
         <v>20942.1</v>
       </c>
-      <c r="BN198">
+      <c r="BP198">
         <v>-1</v>
       </c>
-      <c r="BO198">
+      <c r="BQ198">
         <v>5171.333333333333</v>
       </c>
-      <c r="BP198">
+      <c r="BR198">
         <v>14527.66666666667</v>
       </c>
-      <c r="BQ198">
+      <c r="BS198">
         <v>299821.3333333333</v>
       </c>
     </row>
@@ -31418,28 +31428,28 @@
       <c r="AR199">
         <v>61.1</v>
       </c>
-      <c r="BJ199">
+      <c r="BL199">
         <v>255.3733333333333</v>
       </c>
-      <c r="BK199">
+      <c r="BM199">
         <v>249.0076666666667</v>
       </c>
-      <c r="BL199">
+      <c r="BN199">
         <v>18885.5</v>
       </c>
-      <c r="BM199">
+      <c r="BO199">
         <v>21178.4</v>
       </c>
-      <c r="BN199">
+      <c r="BP199">
         <v>-1</v>
       </c>
-      <c r="BO199">
+      <c r="BQ199">
         <v>5177.333333333333</v>
       </c>
-      <c r="BP199">
+      <c r="BR199">
         <v>14558.33333333333</v>
       </c>
-      <c r="BQ199">
+      <c r="BS199">
         <v>314021</v>
       </c>
     </row>
@@ -31576,28 +31586,28 @@
       <c r="AR200">
         <v>82</v>
       </c>
-      <c r="BJ200">
+      <c r="BL200">
         <v>256.1916666666667</v>
       </c>
-      <c r="BK200">
+      <c r="BM200">
         <v>249.665</v>
       </c>
-      <c r="BL200">
+      <c r="BN200">
         <v>18976.5</v>
       </c>
-      <c r="BM200">
+      <c r="BO200">
         <v>21354.4</v>
       </c>
-      <c r="BN200">
+      <c r="BP200">
         <v>-1</v>
       </c>
-      <c r="BO200">
+      <c r="BQ200">
         <v>5218.333333333333</v>
       </c>
-      <c r="BP200">
+      <c r="BR200">
         <v>14590</v>
       </c>
-      <c r="BQ200">
+      <c r="BS200">
         <v>311467.6666666667</v>
       </c>
     </row>
@@ -31734,28 +31744,28 @@
       <c r="AR201">
         <v>81.09999999999999</v>
       </c>
-      <c r="BJ201">
+      <c r="BL201">
         <v>257.8596666666667</v>
       </c>
-      <c r="BK201">
+      <c r="BM201">
         <v>251.4253333333334</v>
       </c>
-      <c r="BL201">
+      <c r="BN201">
         <v>19065.6</v>
       </c>
-      <c r="BM201">
+      <c r="BO201">
         <v>21534.6</v>
       </c>
-      <c r="BN201">
+      <c r="BP201">
         <v>1</v>
       </c>
-      <c r="BO201">
+      <c r="BQ201">
         <v>5250.333333333333</v>
       </c>
-      <c r="BP201">
+      <c r="BR201">
         <v>14620.33333333333</v>
       </c>
-      <c r="BQ201">
+      <c r="BS201">
         <v>312808.6666666667</v>
       </c>
     </row>
@@ -31892,28 +31902,28 @@
       <c r="AR202">
         <v>75.09999999999999</v>
       </c>
-      <c r="BJ202">
+      <c r="BL202">
         <v>258.5</v>
       </c>
-      <c r="BK202">
+      <c r="BM202">
         <v>251.8853333333333</v>
       </c>
-      <c r="BL202">
+      <c r="BN202">
         <v>19154</v>
       </c>
-      <c r="BM202">
+      <c r="BO202">
         <v>21723.5</v>
       </c>
-      <c r="BN202">
+      <c r="BP202">
         <v>1</v>
       </c>
-      <c r="BO202">
+      <c r="BQ202">
         <v>5276.333333333333</v>
       </c>
-      <c r="BP202">
+      <c r="BR202">
         <v>14658.33333333333</v>
       </c>
-      <c r="BQ202">
+      <c r="BS202">
         <v>328551</v>
       </c>
     </row>
@@ -32054,72 +32064,78 @@
         <v>1078.1</v>
       </c>
       <c r="AT203">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AU203">
         <v>19.1</v>
       </c>
-      <c r="AU203">
+      <c r="AV203">
         <v>160.9</v>
       </c>
-      <c r="AV203">
+      <c r="AW203">
         <v>609.3</v>
       </c>
-      <c r="AW203">
+      <c r="AX203">
         <v>63.8</v>
       </c>
-      <c r="AX203">
+      <c r="AY203">
         <v>73.3</v>
       </c>
-      <c r="AY203">
+      <c r="AZ203">
         <v>22</v>
       </c>
-      <c r="AZ203">
+      <c r="BA203">
         <v>16.9</v>
       </c>
-      <c r="BA203">
+      <c r="BB203">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="BC203">
         <v>140</v>
       </c>
-      <c r="BB203">
+      <c r="BD203">
         <v>597.9</v>
       </c>
-      <c r="BC203">
+      <c r="BE203">
         <v>28.4</v>
       </c>
-      <c r="BD203">
+      <c r="BF203">
         <v>64.40000000000001</v>
       </c>
-      <c r="BE203">
+      <c r="BG203">
         <v>7.2</v>
       </c>
-      <c r="BF203">
+      <c r="BH203">
         <v>101.5</v>
       </c>
-      <c r="BG203">
+      <c r="BI203">
         <v>679.2000000000001</v>
       </c>
-      <c r="BH203">
+      <c r="BJ203">
         <v>788</v>
       </c>
-      <c r="BJ203">
+      <c r="BL203">
         <v>256.472</v>
       </c>
-      <c r="BK203">
+      <c r="BM203">
         <v>249.576</v>
       </c>
-      <c r="BL203">
+      <c r="BN203">
         <v>19242</v>
       </c>
-      <c r="BM203">
+      <c r="BO203">
         <v>21708.2</v>
       </c>
-      <c r="BN203">
+      <c r="BP203">
         <v>1</v>
       </c>
-      <c r="BO203">
+      <c r="BQ203">
         <v>5049.333333333333</v>
       </c>
-      <c r="BP203">
+      <c r="BR203">
         <v>13569.66666666667</v>
       </c>
-      <c r="BQ203">
+      <c r="BS203">
         <v>326980</v>
       </c>
     </row>
@@ -32173,7 +32189,7 @@
         <v>113</v>
       </c>
       <c r="Q204">
-        <v>2193.9</v>
+        <v>2191.6</v>
       </c>
       <c r="R204">
         <v>1489.2</v>
@@ -32185,7 +32201,7 @@
         <v>3816.6</v>
       </c>
       <c r="U204">
-        <v>1455.6</v>
+        <v>1446.9</v>
       </c>
       <c r="V204">
         <v>111.426</v>
@@ -32203,7 +32219,7 @@
         <v>1993.1</v>
       </c>
       <c r="AA204">
-        <v>1687.4</v>
+        <v>1685</v>
       </c>
       <c r="AB204">
         <v>144.7</v>
@@ -32212,7 +32228,7 @@
         <v>207</v>
       </c>
       <c r="AD204">
-        <v>1435.4</v>
+        <v>1426.6</v>
       </c>
       <c r="AE204">
         <v>3494.9</v>
@@ -32260,75 +32276,81 @@
         <v>15.6</v>
       </c>
       <c r="AT204">
+        <v>14.8</v>
+      </c>
+      <c r="AU204">
         <v>27</v>
       </c>
-      <c r="AU204">
+      <c r="AV204">
         <v>58.4</v>
       </c>
-      <c r="AV204">
+      <c r="AW204">
         <v>865.6</v>
       </c>
-      <c r="AW204">
+      <c r="AX204">
         <v>15</v>
       </c>
-      <c r="AX204">
+      <c r="AY204">
         <v>73.3</v>
       </c>
-      <c r="AY204">
+      <c r="AZ204">
         <v>0</v>
       </c>
-      <c r="AZ204">
+      <c r="BA204">
         <v>18.4</v>
       </c>
-      <c r="BA204">
+      <c r="BB204">
+        <v>35.1</v>
+      </c>
+      <c r="BC204">
         <v>140</v>
       </c>
-      <c r="BB204">
+      <c r="BD204">
         <v>0</v>
       </c>
-      <c r="BC204">
+      <c r="BE204">
         <v>15.8</v>
       </c>
-      <c r="BD204">
+      <c r="BF204">
         <v>23.4</v>
       </c>
-      <c r="BE204">
+      <c r="BG204">
         <v>23.9</v>
       </c>
-      <c r="BF204">
+      <c r="BH204">
         <v>156.1</v>
       </c>
-      <c r="BG204">
+      <c r="BI204">
         <v>373.1</v>
       </c>
-      <c r="BH204">
+      <c r="BJ204">
         <v>556.2000000000001</v>
       </c>
-      <c r="BI204">
-        <v>159.3</v>
-      </c>
-      <c r="BJ204">
+      <c r="BK204">
+        <v>106.2</v>
+      </c>
+      <c r="BL204">
         <v>259.4213333333333</v>
       </c>
-      <c r="BK204">
+      <c r="BM204">
         <v>253.0136666666666</v>
       </c>
-      <c r="BL204">
+      <c r="BN204">
         <v>19327.3</v>
       </c>
-      <c r="BM204">
+      <c r="BO204">
         <v>22002.3</v>
       </c>
-      <c r="BN204">
+      <c r="BP204">
         <v>1</v>
       </c>
-      <c r="BO204">
+      <c r="BQ204">
         <v>5036.333333333333</v>
       </c>
-      <c r="BP204">
+      <c r="BR204">
         <v>13736.66666666667</v>
       </c>
-      <c r="BQ204">
+      <c r="BS204">
         <v>318988.3333333333</v>
       </c>
     </row>
@@ -32337,115 +32359,115 @@
         <v>44196</v>
       </c>
       <c r="B205">
-        <v>21479.5</v>
+        <v>21494.7</v>
       </c>
       <c r="C205">
-        <v>18780.3</v>
+        <v>18794.4</v>
       </c>
       <c r="D205">
         <v>114.415</v>
       </c>
       <c r="E205">
-        <v>14545.3</v>
+        <v>14537</v>
       </c>
       <c r="F205">
-        <v>13004.7</v>
+        <v>12999.1</v>
       </c>
       <c r="G205">
-        <v>111.851</v>
+        <v>111.835</v>
       </c>
       <c r="H205">
-        <v>112.015</v>
+        <v>112.102</v>
       </c>
       <c r="I205">
-        <v>117.773</v>
+        <v>117.727</v>
       </c>
       <c r="J205">
-        <v>117.701</v>
+        <v>117.647</v>
       </c>
       <c r="K205">
-        <v>118.101</v>
+        <v>118.093</v>
       </c>
       <c r="L205">
         <v>860.6</v>
       </c>
       <c r="M205">
-        <v>673.6</v>
+        <v>682.4</v>
       </c>
       <c r="N205">
-        <v>302.4</v>
+        <v>296.4</v>
       </c>
       <c r="O205">
-        <v>3743.8</v>
+        <v>3745.8</v>
       </c>
       <c r="P205">
         <v>113.6</v>
       </c>
       <c r="Q205">
-        <v>2226.7</v>
+        <v>2242.3</v>
       </c>
       <c r="R205">
-        <v>1503.7</v>
+        <v>1511.6</v>
       </c>
       <c r="S205">
-        <v>255.4</v>
+        <v>332.7</v>
       </c>
       <c r="T205">
-        <v>3830.8</v>
+        <v>3835.2</v>
       </c>
       <c r="U205">
-        <v>1478.8</v>
+        <v>1467.7</v>
       </c>
       <c r="V205">
-        <v>111.846</v>
+        <v>111.831</v>
       </c>
       <c r="W205">
-        <v>1493.6</v>
+        <v>1493.4</v>
       </c>
       <c r="X205">
-        <v>2337.2</v>
+        <v>2341.7</v>
       </c>
       <c r="Y205">
-        <v>1333.3</v>
+        <v>1332.2</v>
       </c>
       <c r="Z205">
-        <v>1984.5</v>
+        <v>1989.2</v>
       </c>
       <c r="AA205">
-        <v>1710.3</v>
+        <v>1717.7</v>
       </c>
       <c r="AB205">
-        <v>151.3</v>
+        <v>150.8</v>
       </c>
       <c r="AC205">
-        <v>186.3333333333333</v>
+        <v>236.9</v>
       </c>
       <c r="AD205">
-        <v>1456.9</v>
+        <v>1445.8</v>
       </c>
       <c r="AE205">
-        <v>2925.1</v>
+        <v>2918.2</v>
       </c>
       <c r="AF205">
         <v>738.1</v>
       </c>
       <c r="AG205">
-        <v>516.4</v>
+        <v>524.5</v>
       </c>
       <c r="AH205">
-        <v>1352.4</v>
+        <v>1360.8</v>
       </c>
       <c r="AI205">
-        <v>69.03333333333333</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AJ205">
         <v>21.8</v>
       </c>
       <c r="AK205">
-        <v>818.7000000000001</v>
+        <v>827.6</v>
       </c>
       <c r="AL205">
-        <v>3152.2</v>
+        <v>3165.4</v>
       </c>
       <c r="AM205">
         <v>547131</v>
@@ -32457,88 +32479,94 @@
         <v>73559</v>
       </c>
       <c r="AP205">
-        <v>609.9</v>
+        <v>609.8</v>
       </c>
       <c r="AQ205">
         <v>0.6</v>
       </c>
       <c r="AR205">
-        <v>610.5</v>
+        <v>610.4</v>
       </c>
       <c r="AS205">
         <v>5</v>
       </c>
       <c r="AT205">
+        <v>15.1</v>
+      </c>
+      <c r="AU205">
         <v>10.8</v>
       </c>
-      <c r="AU205">
+      <c r="AV205">
         <v>34.5</v>
       </c>
-      <c r="AV205">
+      <c r="AW205">
         <v>260.3</v>
       </c>
-      <c r="AW205">
+      <c r="AX205">
         <v>0.1</v>
       </c>
-      <c r="AX205">
+      <c r="AY205">
         <v>73.3</v>
       </c>
-      <c r="AY205">
+      <c r="AZ205">
         <v>0</v>
       </c>
-      <c r="AZ205">
+      <c r="BA205">
         <v>46.2</v>
       </c>
-      <c r="BA205">
+      <c r="BB205">
+        <v>20.7</v>
+      </c>
+      <c r="BC205">
         <v>140</v>
       </c>
-      <c r="BB205">
+      <c r="BD205">
         <v>0</v>
       </c>
-      <c r="BC205">
+      <c r="BE205">
         <v>15.2</v>
       </c>
-      <c r="BD205">
+      <c r="BF205">
         <v>13.8</v>
       </c>
-      <c r="BE205">
-        <v>64.8</v>
-      </c>
-      <c r="BF205">
-        <v>112</v>
-      </c>
       <c r="BG205">
-        <v>16.1</v>
+        <v>63.6</v>
       </c>
       <c r="BH205">
-        <v>203.9</v>
+        <v>110.3</v>
       </c>
       <c r="BI205">
+        <v>13.6</v>
+      </c>
+      <c r="BJ205">
+        <v>198.5</v>
+      </c>
+      <c r="BK205">
         <v>35.83333333333334</v>
       </c>
-      <c r="BJ205">
+      <c r="BL205">
         <v>260.983</v>
       </c>
-      <c r="BK205">
+      <c r="BM205">
         <v>254.6803333333333</v>
       </c>
-      <c r="BL205">
+      <c r="BN205">
         <v>19414.2</v>
       </c>
-      <c r="BM205">
+      <c r="BO205">
         <v>22146</v>
       </c>
-      <c r="BN205">
+      <c r="BP205">
         <v>1</v>
       </c>
-      <c r="BO205">
-        <v>4938.666666666667</v>
-      </c>
-      <c r="BP205">
-        <v>13656</v>
-      </c>
       <c r="BQ205">
-        <v>325241.6666666667</v>
+        <v>4935.333333333333</v>
+      </c>
+      <c r="BR205">
+        <v>13655.33333333333</v>
+      </c>
+      <c r="BS205">
+        <v>327589.6666666667</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/historical.xlsx
+++ b/data/raw/historical.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS205"/>
+  <dimension ref="A1:BS206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32566,7 +32566,219 @@
         <v>13655.33333333333</v>
       </c>
       <c r="BS205">
-        <v>327589.6666666667</v>
+        <v>327773.6666666667</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B206">
+        <v>20728.36666666667</v>
+      </c>
+      <c r="C206">
+        <v>19087.6</v>
+      </c>
+      <c r="D206">
+        <v>113.7043333333333</v>
+      </c>
+      <c r="E206">
+        <v>15041.1</v>
+      </c>
+      <c r="F206">
+        <v>13333.8</v>
+      </c>
+      <c r="G206">
+        <v>112.808</v>
+      </c>
+      <c r="H206">
+        <v>113.142</v>
+      </c>
+      <c r="I206">
+        <v>119.943</v>
+      </c>
+      <c r="J206">
+        <v>119.985</v>
+      </c>
+      <c r="K206">
+        <v>119.799</v>
+      </c>
+      <c r="L206">
+        <v>880.1</v>
+      </c>
+      <c r="M206">
+        <v>687.3</v>
+      </c>
+      <c r="N206">
+        <v>544.4</v>
+      </c>
+      <c r="O206">
+        <v>6000.1</v>
+      </c>
+      <c r="P206">
+        <v>114.3</v>
+      </c>
+      <c r="Q206">
+        <v>2278.8</v>
+      </c>
+      <c r="R206">
+        <v>1537.6</v>
+      </c>
+      <c r="S206">
+        <v>285.2333333333334</v>
+      </c>
+      <c r="T206">
+        <v>3953</v>
+      </c>
+      <c r="U206">
+        <v>1500.9</v>
+      </c>
+      <c r="V206">
+        <v>111.2293333333333</v>
+      </c>
+      <c r="W206">
+        <v>1557</v>
+      </c>
+      <c r="X206">
+        <v>2395.9</v>
+      </c>
+      <c r="Y206">
+        <v>1376.1</v>
+      </c>
+      <c r="Z206">
+        <v>1997.6</v>
+      </c>
+      <c r="AA206">
+        <v>1722.1</v>
+      </c>
+      <c r="AB206">
+        <v>160</v>
+      </c>
+      <c r="AC206">
+        <v>205.1333333333333</v>
+      </c>
+      <c r="AD206">
+        <v>1476.9</v>
+      </c>
+      <c r="AE206">
+        <v>5166.9</v>
+      </c>
+      <c r="AF206">
+        <v>783.9</v>
+      </c>
+      <c r="AG206">
+        <v>556.8</v>
+      </c>
+      <c r="AH206">
+        <v>1377.6</v>
+      </c>
+      <c r="AI206">
+        <v>80.10000000000001</v>
+      </c>
+      <c r="AJ206">
+        <v>23.9</v>
+      </c>
+      <c r="AK206">
+        <v>833.2000000000001</v>
+      </c>
+      <c r="AL206">
+        <v>3218.7</v>
+      </c>
+      <c r="AM206">
+        <v>561498</v>
+      </c>
+      <c r="AN206">
+        <v>523163</v>
+      </c>
+      <c r="AO206">
+        <v>72442</v>
+      </c>
+      <c r="AP206">
+        <v>402.3</v>
+      </c>
+      <c r="AQ206">
+        <v>2.5</v>
+      </c>
+      <c r="AR206">
+        <v>404.9</v>
+      </c>
+      <c r="AS206">
+        <v>366.2333333333333</v>
+      </c>
+      <c r="AT206">
+        <v>13.2</v>
+      </c>
+      <c r="AU206">
+        <v>18.96666666666667</v>
+      </c>
+      <c r="AV206">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="AW206">
+        <v>578.4</v>
+      </c>
+      <c r="AX206">
+        <v>26.3</v>
+      </c>
+      <c r="AY206">
+        <v>73.3</v>
+      </c>
+      <c r="AZ206">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="BA206">
+        <v>27.16666666666667</v>
+      </c>
+      <c r="BB206">
+        <v>50.8</v>
+      </c>
+      <c r="BC206">
+        <v>140</v>
+      </c>
+      <c r="BD206">
+        <v>199.3</v>
+      </c>
+      <c r="BE206">
+        <v>19.8</v>
+      </c>
+      <c r="BF206">
+        <v>33.86666666666667</v>
+      </c>
+      <c r="BG206">
+        <v>31.56666666666667</v>
+      </c>
+      <c r="BH206">
+        <v>122.6333333333333</v>
+      </c>
+      <c r="BI206">
+        <v>355.3</v>
+      </c>
+      <c r="BJ206">
+        <v>514.2333333333334</v>
+      </c>
+      <c r="BL206">
+        <v>263.395</v>
+      </c>
+      <c r="BM206">
+        <v>257.3506666666667</v>
+      </c>
+      <c r="BN206">
+        <v>19502.8</v>
+      </c>
+      <c r="BO206">
+        <v>22361.5</v>
+      </c>
+      <c r="BP206">
+        <v>1</v>
+      </c>
+      <c r="BQ206">
+        <v>4988.666666666667</v>
+      </c>
+      <c r="BR206">
+        <v>13686</v>
+      </c>
+      <c r="BS206">
+        <v>324580.6666666667</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/historical.xlsx
+++ b/data/raw/historical.xlsx
@@ -32574,13 +32574,13 @@
         <v>44286</v>
       </c>
       <c r="B206">
-        <v>20728.36666666667</v>
+        <v>22048.9</v>
       </c>
       <c r="C206">
         <v>19087.6</v>
       </c>
       <c r="D206">
-        <v>113.7043333333333</v>
+        <v>115.561</v>
       </c>
       <c r="E206">
         <v>15041.1</v>
@@ -32634,7 +32634,7 @@
         <v>1500.9</v>
       </c>
       <c r="V206">
-        <v>111.2293333333333</v>
+        <v>112.804</v>
       </c>
       <c r="W206">
         <v>1557</v>
@@ -32703,58 +32703,58 @@
         <v>404.9</v>
       </c>
       <c r="AS206">
-        <v>366.2333333333333</v>
+        <v>1933.7</v>
       </c>
       <c r="AT206">
-        <v>13.2</v>
+        <v>15.5</v>
       </c>
       <c r="AU206">
-        <v>18.96666666666667</v>
+        <v>10.8</v>
       </c>
       <c r="AV206">
-        <v>84.59999999999999</v>
+        <v>43</v>
       </c>
       <c r="AW206">
-        <v>578.4</v>
+        <v>184.6</v>
       </c>
       <c r="AX206">
-        <v>26.3</v>
+        <v>38</v>
       </c>
       <c r="AY206">
         <v>73.3</v>
       </c>
       <c r="AZ206">
-        <v>7.333333333333333</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BA206">
-        <v>27.16666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="BB206">
-        <v>50.8</v>
+        <v>25.7</v>
       </c>
       <c r="BC206">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="BD206">
-        <v>199.3</v>
+        <v>0</v>
       </c>
       <c r="BE206">
-        <v>19.8</v>
+        <v>28.9</v>
       </c>
       <c r="BF206">
-        <v>33.86666666666667</v>
+        <v>17.1</v>
       </c>
       <c r="BG206">
-        <v>31.56666666666667</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="BH206">
-        <v>122.6333333333333</v>
+        <v>97.2</v>
       </c>
       <c r="BI206">
-        <v>355.3</v>
+        <v>283.6</v>
       </c>
       <c r="BJ206">
-        <v>514.2333333333334</v>
+        <v>473.5</v>
       </c>
       <c r="BL206">
         <v>263.395</v>
